--- a/dist/umdm_emx2.xlsx
+++ b/dist/umdm_emx2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="478">
   <si>
     <t>subjects</t>
   </si>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t>datetime</t>
+  </si>
+  <si>
+    <t>umdmLookups</t>
   </si>
   <si>
     <t>country</t>
@@ -1799,34 +1802,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>138</v>
@@ -1837,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1857,13 +1860,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1877,10 +1880,10 @@
         <v>155</v>
       </c>
       <c r="J4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1897,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1917,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1934,10 +1937,10 @@
         <v>157</v>
       </c>
       <c r="J7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1950,14 +1953,17 @@
       <c r="D8" t="s">
         <v>156</v>
       </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
       <c r="H8" t="s">
         <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1971,10 +1977,10 @@
         <v>149</v>
       </c>
       <c r="J9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1988,10 +1994,10 @@
         <v>158</v>
       </c>
       <c r="J10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2005,10 +2011,10 @@
         <v>149</v>
       </c>
       <c r="J11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2022,10 +2028,10 @@
         <v>158</v>
       </c>
       <c r="J12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K12" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2039,10 +2045,10 @@
         <v>159</v>
       </c>
       <c r="J13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2055,14 +2061,17 @@
       <c r="D14" t="s">
         <v>156</v>
       </c>
+      <c r="G14" t="s">
+        <v>164</v>
+      </c>
       <c r="H14" t="s">
         <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K14" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2075,14 +2084,17 @@
       <c r="D15" t="s">
         <v>156</v>
       </c>
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
       <c r="H15" t="s">
         <v>25</v>
       </c>
       <c r="J15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2095,14 +2107,17 @@
       <c r="D16" t="s">
         <v>156</v>
       </c>
+      <c r="G16" t="s">
+        <v>164</v>
+      </c>
       <c r="H16" t="s">
         <v>26</v>
       </c>
       <c r="J16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K16" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2115,14 +2130,17 @@
       <c r="D17" t="s">
         <v>156</v>
       </c>
+      <c r="G17" t="s">
+        <v>164</v>
+      </c>
       <c r="H17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2135,14 +2153,17 @@
       <c r="D18" t="s">
         <v>156</v>
       </c>
+      <c r="G18" t="s">
+        <v>164</v>
+      </c>
       <c r="H18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K18" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2155,14 +2176,17 @@
       <c r="D19" t="s">
         <v>156</v>
       </c>
+      <c r="G19" t="s">
+        <v>164</v>
+      </c>
       <c r="H19" t="s">
         <v>29</v>
       </c>
       <c r="J19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2176,10 +2200,10 @@
         <v>160</v>
       </c>
       <c r="J20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2196,10 +2220,10 @@
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2213,10 +2237,10 @@
         <v>155</v>
       </c>
       <c r="J22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2230,10 +2254,10 @@
         <v>155</v>
       </c>
       <c r="J23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2247,10 +2271,10 @@
         <v>155</v>
       </c>
       <c r="J24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K24" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2264,10 +2288,10 @@
         <v>149</v>
       </c>
       <c r="J25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K25" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2281,10 +2305,10 @@
         <v>161</v>
       </c>
       <c r="J26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K26" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2298,10 +2322,10 @@
         <v>161</v>
       </c>
       <c r="J27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2315,10 +2339,10 @@
         <v>161</v>
       </c>
       <c r="J28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K28" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2335,10 +2359,10 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K29" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2355,10 +2379,10 @@
         <v>8</v>
       </c>
       <c r="J30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K30" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2375,10 +2399,10 @@
         <v>11</v>
       </c>
       <c r="J31" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K31" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2392,10 +2416,10 @@
         <v>160</v>
       </c>
       <c r="J32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K32" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2409,10 +2433,10 @@
         <v>157</v>
       </c>
       <c r="J33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K33" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2426,13 +2450,13 @@
         <v>163</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K34" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2446,13 +2470,13 @@
         <v>155</v>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2466,10 +2490,10 @@
         <v>163</v>
       </c>
       <c r="J36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K36" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2483,10 +2507,10 @@
         <v>155</v>
       </c>
       <c r="J37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K37" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2494,10 +2518,10 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K38" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2514,13 +2538,13 @@
         <v>1</v>
       </c>
       <c r="F39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2534,10 +2558,10 @@
         <v>155</v>
       </c>
       <c r="J40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K40" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2551,10 +2575,10 @@
         <v>155</v>
       </c>
       <c r="J41" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2567,14 +2591,17 @@
       <c r="D42" t="s">
         <v>162</v>
       </c>
+      <c r="G42" t="s">
+        <v>164</v>
+      </c>
       <c r="H42" t="s">
         <v>51</v>
       </c>
       <c r="J42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K42" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2588,10 +2615,10 @@
         <v>155</v>
       </c>
       <c r="J43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K43" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2605,10 +2632,10 @@
         <v>155</v>
       </c>
       <c r="J44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K44" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2622,10 +2649,10 @@
         <v>155</v>
       </c>
       <c r="J45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K45" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2639,10 +2666,10 @@
         <v>157</v>
       </c>
       <c r="J46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K46" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2656,10 +2683,10 @@
         <v>149</v>
       </c>
       <c r="J47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K47" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2673,10 +2700,10 @@
         <v>149</v>
       </c>
       <c r="J48" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K48" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2689,14 +2716,17 @@
       <c r="D49" t="s">
         <v>162</v>
       </c>
+      <c r="G49" t="s">
+        <v>164</v>
+      </c>
       <c r="H49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J49" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K49" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2710,10 +2740,10 @@
         <v>158</v>
       </c>
       <c r="J50" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K50" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2727,7 +2757,7 @@
         <v>158</v>
       </c>
       <c r="K51" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2744,10 +2774,10 @@
         <v>11</v>
       </c>
       <c r="J52" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K52" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2761,10 +2791,10 @@
         <v>160</v>
       </c>
       <c r="J53" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K53" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2778,10 +2808,10 @@
         <v>157</v>
       </c>
       <c r="J54" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K54" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2795,13 +2825,13 @@
         <v>163</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K55" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2815,13 +2845,13 @@
         <v>155</v>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K56" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2835,10 +2865,10 @@
         <v>163</v>
       </c>
       <c r="J57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K57" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2852,10 +2882,10 @@
         <v>155</v>
       </c>
       <c r="J58" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K58" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2863,10 +2893,10 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K59" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2883,13 +2913,13 @@
         <v>1</v>
       </c>
       <c r="F60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K60" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2906,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K61" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2923,10 +2953,10 @@
         <v>155</v>
       </c>
       <c r="J62" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K62" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2940,10 +2970,10 @@
         <v>149</v>
       </c>
       <c r="J63" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K63" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2957,10 +2987,10 @@
         <v>149</v>
       </c>
       <c r="J64" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K64" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2974,10 +3004,10 @@
         <v>161</v>
       </c>
       <c r="J65" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K65" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2990,14 +3020,17 @@
       <c r="D66" t="s">
         <v>162</v>
       </c>
+      <c r="G66" t="s">
+        <v>164</v>
+      </c>
       <c r="H66" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K66" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3010,14 +3043,17 @@
       <c r="D67" t="s">
         <v>162</v>
       </c>
+      <c r="G67" t="s">
+        <v>164</v>
+      </c>
       <c r="H67" t="s">
         <v>66</v>
       </c>
       <c r="J67" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K67" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3031,10 +3067,10 @@
         <v>157</v>
       </c>
       <c r="J68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K68" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3048,10 +3084,10 @@
         <v>161</v>
       </c>
       <c r="J69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K69" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3065,7 +3101,7 @@
         <v>161</v>
       </c>
       <c r="K70" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3079,10 +3115,10 @@
         <v>161</v>
       </c>
       <c r="J71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K71" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3099,10 +3135,10 @@
         <v>11</v>
       </c>
       <c r="J72" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K72" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3116,10 +3152,10 @@
         <v>160</v>
       </c>
       <c r="J73" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K73" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3133,10 +3169,10 @@
         <v>157</v>
       </c>
       <c r="J74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K74" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3150,13 +3186,13 @@
         <v>163</v>
       </c>
       <c r="F75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K75" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3170,13 +3206,13 @@
         <v>155</v>
       </c>
       <c r="F76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K76" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3190,10 +3226,10 @@
         <v>163</v>
       </c>
       <c r="J77" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K77" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3207,10 +3243,10 @@
         <v>155</v>
       </c>
       <c r="J78" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K78" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3218,10 +3254,10 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K79" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3238,10 +3274,10 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K80" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3258,10 +3294,10 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K81" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3275,10 +3311,10 @@
         <v>161</v>
       </c>
       <c r="J82" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K82" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3292,10 +3328,10 @@
         <v>149</v>
       </c>
       <c r="J83" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K83" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3309,10 +3345,10 @@
         <v>159</v>
       </c>
       <c r="J84" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K84" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3326,10 +3362,10 @@
         <v>159</v>
       </c>
       <c r="J85" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K85" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3342,14 +3378,17 @@
       <c r="D86" t="s">
         <v>162</v>
       </c>
+      <c r="G86" t="s">
+        <v>164</v>
+      </c>
       <c r="H86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J86" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K86" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3362,14 +3401,17 @@
       <c r="D87" t="s">
         <v>162</v>
       </c>
+      <c r="G87" t="s">
+        <v>164</v>
+      </c>
       <c r="H87" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J87" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K87" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3382,14 +3424,17 @@
       <c r="D88" t="s">
         <v>162</v>
       </c>
+      <c r="G88" t="s">
+        <v>164</v>
+      </c>
       <c r="H88" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J88" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K88" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3402,14 +3447,17 @@
       <c r="D89" t="s">
         <v>162</v>
       </c>
+      <c r="G89" t="s">
+        <v>164</v>
+      </c>
       <c r="H89" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J89" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K89" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3422,14 +3470,17 @@
       <c r="D90" t="s">
         <v>162</v>
       </c>
+      <c r="G90" t="s">
+        <v>164</v>
+      </c>
       <c r="H90" t="s">
         <v>80</v>
       </c>
       <c r="J90" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K90" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3443,10 +3494,10 @@
         <v>157</v>
       </c>
       <c r="J91" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K91" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3459,14 +3510,17 @@
       <c r="D92" t="s">
         <v>156</v>
       </c>
+      <c r="G92" t="s">
+        <v>164</v>
+      </c>
       <c r="H92" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J92" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K92" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3480,10 +3534,10 @@
         <v>149</v>
       </c>
       <c r="J93" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K93" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3500,10 +3554,10 @@
         <v>4</v>
       </c>
       <c r="J94" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K94" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3520,10 +3574,10 @@
         <v>11</v>
       </c>
       <c r="J95" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K95" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3537,10 +3591,10 @@
         <v>160</v>
       </c>
       <c r="J96" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K96" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3554,10 +3608,10 @@
         <v>157</v>
       </c>
       <c r="J97" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K97" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3571,13 +3625,13 @@
         <v>163</v>
       </c>
       <c r="F98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K98" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3591,13 +3645,13 @@
         <v>155</v>
       </c>
       <c r="F99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K99" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3611,10 +3665,10 @@
         <v>163</v>
       </c>
       <c r="J100" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K100" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3628,10 +3682,10 @@
         <v>155</v>
       </c>
       <c r="J101" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K101" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3639,10 +3693,10 @@
         <v>4</v>
       </c>
       <c r="J102" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K102" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -3659,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="F103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K103" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -3682,10 +3736,10 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K104" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -3699,10 +3753,10 @@
         <v>155</v>
       </c>
       <c r="J105" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K105" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -3716,10 +3770,10 @@
         <v>149</v>
       </c>
       <c r="J106" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K106" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -3732,14 +3786,17 @@
       <c r="D107" t="s">
         <v>162</v>
       </c>
+      <c r="G107" t="s">
+        <v>164</v>
+      </c>
       <c r="H107" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J107" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K107" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -3753,10 +3810,10 @@
         <v>149</v>
       </c>
       <c r="J108" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K108" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -3770,10 +3827,10 @@
         <v>163</v>
       </c>
       <c r="J109" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K109" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -3790,10 +3847,10 @@
         <v>12</v>
       </c>
       <c r="J110" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K110" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -3807,10 +3864,10 @@
         <v>157</v>
       </c>
       <c r="J111" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K111" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -3824,10 +3881,10 @@
         <v>157</v>
       </c>
       <c r="J112" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K112" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -3840,14 +3897,17 @@
       <c r="D113" t="s">
         <v>156</v>
       </c>
+      <c r="G113" t="s">
+        <v>164</v>
+      </c>
       <c r="H113" t="s">
         <v>94</v>
       </c>
       <c r="J113" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K113" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -3860,14 +3920,17 @@
       <c r="D114" t="s">
         <v>156</v>
       </c>
+      <c r="G114" t="s">
+        <v>164</v>
+      </c>
       <c r="H114" t="s">
         <v>95</v>
       </c>
       <c r="J114" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K114" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -3880,14 +3943,17 @@
       <c r="D115" t="s">
         <v>156</v>
       </c>
+      <c r="G115" t="s">
+        <v>164</v>
+      </c>
       <c r="H115" t="s">
         <v>96</v>
       </c>
       <c r="J115" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K115" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -3901,10 +3967,10 @@
         <v>161</v>
       </c>
       <c r="J116" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K116" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -3918,10 +3984,10 @@
         <v>155</v>
       </c>
       <c r="J117" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K117" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -3938,10 +4004,10 @@
         <v>11</v>
       </c>
       <c r="J118" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K118" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -3955,10 +4021,10 @@
         <v>160</v>
       </c>
       <c r="J119" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K119" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -3972,10 +4038,10 @@
         <v>157</v>
       </c>
       <c r="J120" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K120" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -3989,13 +4055,13 @@
         <v>163</v>
       </c>
       <c r="F121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K121" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4009,13 +4075,13 @@
         <v>155</v>
       </c>
       <c r="F122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K122" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4029,10 +4095,10 @@
         <v>163</v>
       </c>
       <c r="J123" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K123" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4046,10 +4112,10 @@
         <v>155</v>
       </c>
       <c r="J124" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K124" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4057,10 +4123,10 @@
         <v>5</v>
       </c>
       <c r="J125" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K125" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4077,13 +4143,13 @@
         <v>1</v>
       </c>
       <c r="F126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K126" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4100,10 +4166,10 @@
         <v>4</v>
       </c>
       <c r="J127" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K127" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4120,10 +4186,10 @@
         <v>9</v>
       </c>
       <c r="J128" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K128" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4137,10 +4203,10 @@
         <v>155</v>
       </c>
       <c r="J129" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K129" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4154,10 +4220,10 @@
         <v>158</v>
       </c>
       <c r="J130" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K130" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4170,14 +4236,17 @@
       <c r="D131" t="s">
         <v>156</v>
       </c>
+      <c r="G131" t="s">
+        <v>164</v>
+      </c>
       <c r="H131" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J131" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K131" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -4191,10 +4260,10 @@
         <v>161</v>
       </c>
       <c r="J132" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K132" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -4207,14 +4276,17 @@
       <c r="D133" t="s">
         <v>156</v>
       </c>
+      <c r="G133" t="s">
+        <v>164</v>
+      </c>
       <c r="H133" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J133" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K133" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -4228,10 +4300,10 @@
         <v>161</v>
       </c>
       <c r="J134" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K134" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -4245,10 +4317,10 @@
         <v>158</v>
       </c>
       <c r="J135" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K135" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -4262,10 +4334,10 @@
         <v>158</v>
       </c>
       <c r="J136" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K136" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -4279,10 +4351,10 @@
         <v>155</v>
       </c>
       <c r="J137" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K137" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -4296,10 +4368,10 @@
         <v>155</v>
       </c>
       <c r="J138" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K138" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -4316,10 +4388,10 @@
         <v>11</v>
       </c>
       <c r="J139" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K139" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -4333,10 +4405,10 @@
         <v>160</v>
       </c>
       <c r="J140" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K140" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -4350,10 +4422,10 @@
         <v>157</v>
       </c>
       <c r="J141" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K141" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -4367,13 +4439,13 @@
         <v>163</v>
       </c>
       <c r="F142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K142" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -4387,13 +4459,13 @@
         <v>155</v>
       </c>
       <c r="F143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K143" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -4407,10 +4479,10 @@
         <v>163</v>
       </c>
       <c r="J144" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K144" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -4424,10 +4496,10 @@
         <v>155</v>
       </c>
       <c r="J145" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K145" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -4435,10 +4507,10 @@
         <v>6</v>
       </c>
       <c r="J146" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K146" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -4455,13 +4527,13 @@
         <v>1</v>
       </c>
       <c r="F147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K147" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -4478,10 +4550,10 @@
         <v>9</v>
       </c>
       <c r="J148" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K148" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -4498,10 +4570,10 @@
         <v>5</v>
       </c>
       <c r="J149" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K149" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -4514,14 +4586,17 @@
       <c r="D150" t="s">
         <v>156</v>
       </c>
+      <c r="G150" t="s">
+        <v>164</v>
+      </c>
       <c r="H150" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J150" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K150" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -4535,10 +4610,10 @@
         <v>149</v>
       </c>
       <c r="J151" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K151" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -4555,10 +4630,10 @@
         <v>10</v>
       </c>
       <c r="J152" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K152" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -4571,14 +4646,17 @@
       <c r="D153" t="s">
         <v>156</v>
       </c>
+      <c r="G153" t="s">
+        <v>164</v>
+      </c>
       <c r="H153" t="s">
         <v>114</v>
       </c>
       <c r="J153" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K153" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -4591,14 +4669,17 @@
       <c r="D154" t="s">
         <v>156</v>
       </c>
+      <c r="G154" t="s">
+        <v>164</v>
+      </c>
       <c r="H154" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J154" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K154" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -4611,14 +4692,17 @@
       <c r="D155" t="s">
         <v>156</v>
       </c>
+      <c r="G155" t="s">
+        <v>164</v>
+      </c>
       <c r="H155" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J155" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K155" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -4632,10 +4716,10 @@
         <v>158</v>
       </c>
       <c r="J156" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K156" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -4649,10 +4733,10 @@
         <v>158</v>
       </c>
       <c r="J157" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K157" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -4666,10 +4750,10 @@
         <v>158</v>
       </c>
       <c r="J158" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K158" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -4683,10 +4767,10 @@
         <v>159</v>
       </c>
       <c r="J159" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K159" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -4700,10 +4784,10 @@
         <v>159</v>
       </c>
       <c r="J160" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K160" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -4717,10 +4801,10 @@
         <v>157</v>
       </c>
       <c r="J161" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K161" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -4733,14 +4817,17 @@
       <c r="D162" t="s">
         <v>156</v>
       </c>
+      <c r="G162" t="s">
+        <v>164</v>
+      </c>
       <c r="H162" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J162" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K162" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -4757,10 +4844,10 @@
         <v>11</v>
       </c>
       <c r="J163" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K163" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -4774,10 +4861,10 @@
         <v>160</v>
       </c>
       <c r="J164" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K164" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -4791,10 +4878,10 @@
         <v>157</v>
       </c>
       <c r="J165" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K165" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -4808,13 +4895,13 @@
         <v>163</v>
       </c>
       <c r="F166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K166" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -4828,13 +4915,13 @@
         <v>155</v>
       </c>
       <c r="F167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K167" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -4848,10 +4935,10 @@
         <v>163</v>
       </c>
       <c r="J168" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K168" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -4865,10 +4952,10 @@
         <v>155</v>
       </c>
       <c r="J169" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K169" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -4876,10 +4963,10 @@
         <v>7</v>
       </c>
       <c r="J170" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K170" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -4896,13 +4983,13 @@
         <v>1</v>
       </c>
       <c r="F171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K171" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -4919,10 +5006,10 @@
         <v>6</v>
       </c>
       <c r="J172" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K172" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -4939,10 +5026,10 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K173" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -4959,10 +5046,10 @@
         <v>4</v>
       </c>
       <c r="J174" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K174" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -4979,10 +5066,10 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K175" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -4999,10 +5086,10 @@
         <v>8</v>
       </c>
       <c r="J176" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K176" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -5016,10 +5103,10 @@
         <v>157</v>
       </c>
       <c r="J177" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K177" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -5033,10 +5120,10 @@
         <v>157</v>
       </c>
       <c r="J178" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K178" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -5050,10 +5137,10 @@
         <v>155</v>
       </c>
       <c r="J179" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K179" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -5067,10 +5154,10 @@
         <v>158</v>
       </c>
       <c r="J180" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K180" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -5084,10 +5171,10 @@
         <v>155</v>
       </c>
       <c r="J181" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K181" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -5101,10 +5188,10 @@
         <v>155</v>
       </c>
       <c r="J182" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K182" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -5117,14 +5204,17 @@
       <c r="D183" t="s">
         <v>156</v>
       </c>
+      <c r="G183" t="s">
+        <v>164</v>
+      </c>
       <c r="H183" t="s">
         <v>132</v>
       </c>
       <c r="J183" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K183" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -5138,10 +5228,10 @@
         <v>149</v>
       </c>
       <c r="J184" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K184" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -5155,10 +5245,10 @@
         <v>155</v>
       </c>
       <c r="J185" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K185" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -5175,10 +5265,10 @@
         <v>11</v>
       </c>
       <c r="J186" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K186" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -5192,10 +5282,10 @@
         <v>160</v>
       </c>
       <c r="J187" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K187" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -5209,10 +5299,10 @@
         <v>157</v>
       </c>
       <c r="J188" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K188" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -5226,13 +5316,13 @@
         <v>163</v>
       </c>
       <c r="F189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K189" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -5246,13 +5336,13 @@
         <v>155</v>
       </c>
       <c r="F190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K190" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -5266,10 +5356,10 @@
         <v>163</v>
       </c>
       <c r="J191" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K191" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -5283,10 +5373,10 @@
         <v>155</v>
       </c>
       <c r="J192" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K192" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -5294,10 +5384,10 @@
         <v>8</v>
       </c>
       <c r="J193" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K193" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -5314,13 +5404,13 @@
         <v>1</v>
       </c>
       <c r="F194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K194" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -5334,10 +5424,10 @@
         <v>155</v>
       </c>
       <c r="J195" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K195" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -5351,10 +5441,10 @@
         <v>155</v>
       </c>
       <c r="J196" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K196" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -5368,10 +5458,10 @@
         <v>157</v>
       </c>
       <c r="J197" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K197" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -5385,10 +5475,10 @@
         <v>155</v>
       </c>
       <c r="J198" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K198" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -5402,10 +5492,10 @@
         <v>155</v>
       </c>
       <c r="J199" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K199" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -5419,10 +5509,10 @@
         <v>155</v>
       </c>
       <c r="J200" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K200" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -5436,10 +5526,10 @@
         <v>158</v>
       </c>
       <c r="J201" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K201" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -5453,10 +5543,10 @@
         <v>160</v>
       </c>
       <c r="J202" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K202" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -5470,10 +5560,10 @@
         <v>157</v>
       </c>
       <c r="J203" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K203" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -5487,13 +5577,13 @@
         <v>163</v>
       </c>
       <c r="F204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K204" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -5507,13 +5597,13 @@
         <v>155</v>
       </c>
       <c r="F205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K205" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -5527,10 +5617,10 @@
         <v>163</v>
       </c>
       <c r="J206" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K206" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -5544,10 +5634,10 @@
         <v>155</v>
       </c>
       <c r="J207" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K207" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -5555,10 +5645,10 @@
         <v>9</v>
       </c>
       <c r="J208" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K208" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -5575,13 +5665,13 @@
         <v>1</v>
       </c>
       <c r="F209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K209" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -5595,10 +5685,10 @@
         <v>155</v>
       </c>
       <c r="J210" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K210" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -5612,10 +5702,10 @@
         <v>157</v>
       </c>
       <c r="J211" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K211" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -5629,10 +5719,10 @@
         <v>155</v>
       </c>
       <c r="J212" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K212" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -5646,10 +5736,10 @@
         <v>155</v>
       </c>
       <c r="J213" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K213" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -5663,10 +5753,10 @@
         <v>157</v>
       </c>
       <c r="J214" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K214" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -5674,10 +5764,10 @@
         <v>10</v>
       </c>
       <c r="J215" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K215" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -5694,13 +5784,13 @@
         <v>1</v>
       </c>
       <c r="F216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K216" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -5714,10 +5804,10 @@
         <v>157</v>
       </c>
       <c r="J217" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K217" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -5731,10 +5821,10 @@
         <v>155</v>
       </c>
       <c r="J218" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K218" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -5748,10 +5838,10 @@
         <v>155</v>
       </c>
       <c r="J219" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K219" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -5765,10 +5855,10 @@
         <v>155</v>
       </c>
       <c r="J220" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K220" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -5776,10 +5866,10 @@
         <v>11</v>
       </c>
       <c r="J221" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K221" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -5796,13 +5886,13 @@
         <v>1</v>
       </c>
       <c r="F222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K222" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -5816,10 +5906,10 @@
         <v>155</v>
       </c>
       <c r="J223" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K223" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -5833,10 +5923,10 @@
         <v>157</v>
       </c>
       <c r="J224" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K224" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -5850,10 +5940,10 @@
         <v>149</v>
       </c>
       <c r="J225" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K225" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -5867,10 +5957,10 @@
         <v>155</v>
       </c>
       <c r="J226" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K226" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -5884,10 +5974,10 @@
         <v>158</v>
       </c>
       <c r="J227" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K227" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -5901,10 +5991,10 @@
         <v>155</v>
       </c>
       <c r="J228" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K228" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -5918,10 +6008,10 @@
         <v>157</v>
       </c>
       <c r="J229" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K229" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -5929,10 +6019,10 @@
         <v>12</v>
       </c>
       <c r="J230" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K230" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -5949,13 +6039,13 @@
         <v>1</v>
       </c>
       <c r="F231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K231" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -5969,10 +6059,10 @@
         <v>155</v>
       </c>
       <c r="J232" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K232" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -5986,10 +6076,10 @@
         <v>157</v>
       </c>
       <c r="J233" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K233" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -6003,10 +6093,10 @@
         <v>155</v>
       </c>
       <c r="J234" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K234" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -6020,10 +6110,10 @@
         <v>155</v>
       </c>
       <c r="J235" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K235" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/dist/umdm_emx2.xlsx
+++ b/dist/umdm_emx2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="484">
   <si>
     <t>subjects</t>
   </si>
@@ -481,6 +481,21 @@
     <t>version</t>
   </si>
   <si>
+    <t>linkedClinicalRecords</t>
+  </si>
+  <si>
+    <t>linkedSamples</t>
+  </si>
+  <si>
+    <t>linkedFiles</t>
+  </si>
+  <si>
+    <t>linkedSamplePreparations</t>
+  </si>
+  <si>
+    <t>linkedSequences</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -508,6 +523,9 @@
     <t>datetime</t>
   </si>
   <si>
+    <t>refBack</t>
+  </si>
+  <si>
     <t>umdmLookups</t>
   </si>
   <si>
@@ -544,433 +562,433 @@
     <t>genomeAccessions</t>
   </si>
   <si>
-    <t>ExO_0000127 http://purl.obolibrary.org/obo/ExO_0000127</t>
-  </si>
-  <si>
-    <t>NCIT_C142495 http://purl.obolibrary.org/obo/NCIT_C142495</t>
-  </si>
-  <si>
-    <t>NCIT_C25173 http://purl.obolibrary.org/obo/NCIT_C25173</t>
-  </si>
-  <si>
-    <t>NCIT_C89336 http://purl.obolibrary.org/obo/NCIT_C89336</t>
-  </si>
-  <si>
-    <t>NCIT_C94324 http://purl.obolibrary.org/obo/NCIT_C94324</t>
-  </si>
-  <si>
-    <t>NCIT_C21480 http://purl.obolibrary.org/obo/NCIT_C21480</t>
-  </si>
-  <si>
-    <t>NCIT_C117655 http://purl.obolibrary.org/obo/NCIT_C117655</t>
-  </si>
-  <si>
-    <t>NCIT_C68615 http://purl.obolibrary.org/obo/NCIT_C68615</t>
-  </si>
-  <si>
-    <t>NCIT_C83164 http://purl.obolibrary.org/obo/NCIT_C83164</t>
-  </si>
-  <si>
-    <t>NCIT_C70810 http://purl.obolibrary.org/obo/NCIT_C70810</t>
-  </si>
-  <si>
-    <t>NCIT_C156426 http://purl.obolibrary.org/obo/NCIT_C156426</t>
-  </si>
-  <si>
-    <t>NCIT_C135383 http://purl.obolibrary.org/obo/NCIT_C135383</t>
-  </si>
-  <si>
-    <t>MESH_D005783 http://purl.bioontology.org/ontology/MESH/D005783</t>
-  </si>
-  <si>
-    <t>GSSO_009418 http://purl.obolibrary.org/obo/GSSO_009418</t>
-  </si>
-  <si>
-    <t>PATO_0020000 http://purl.obolibrary.org/obo/PATO_0020000</t>
-  </si>
-  <si>
-    <t>GENEPIO_0001094 http://purl.obolibrary.org/obo/GENEPIO_0001094</t>
-  </si>
-  <si>
-    <t>NCIT_C171105 http://purl.obolibrary.org/obo/NCIT_C171105</t>
-  </si>
-  <si>
-    <t>NCIT_C176763 http://purl.obolibrary.org/obo/NCIT_C176763</t>
-  </si>
-  <si>
-    <t>NCIT_C25412 http://purl.obolibrary.org/obo/NCIT_C25412</t>
-  </si>
-  <si>
-    <t>NCIT_C25461 http://purl.obolibrary.org/obo/NCIT_C25461</t>
-  </si>
-  <si>
-    <t>MS_1000589 http://purl.obolibrary.org/obo/MS_1000589</t>
-  </si>
-  <si>
-    <t>NCIT_C90353 http://purl.obolibrary.org/obo/NCIT_C90353</t>
-  </si>
-  <si>
-    <t>NCIT_C164021 http://purl.obolibrary.org/obo/NCIT_C164021</t>
-  </si>
-  <si>
-    <t>NCIT_C73427 http://purl.obolibrary.org/obo/NCIT_C73427</t>
-  </si>
-  <si>
-    <t>NCIT_C17730 http://purl.obolibrary.org/obo/NCIT_C17730</t>
-  </si>
-  <si>
-    <t>NCIT_C71384 http://purl.obolibrary.org/obo/NCIT_C71384</t>
-  </si>
-  <si>
-    <t>RO_0000056 http://purl.obolibrary.org/obo/RO_0000056</t>
-  </si>
-  <si>
-    <t>NCIT_C61512 http://purl.obolibrary.org/obo/NCIT_C61512</t>
-  </si>
-  <si>
-    <t>NCIT_C172217 http://purl.obolibrary.org/obo/NCIT_C172217</t>
-  </si>
-  <si>
-    <t>SIO_001330 http://semanticscience.org/resource/SIO_001330</t>
-  </si>
-  <si>
-    <t>NCIT_C25393 http://purl.obolibrary.org/obo/NCIT_C25393</t>
-  </si>
-  <si>
-    <t>NCIT_C164483 http://purl.obolibrary.org/obo/NCIT_C164483</t>
-  </si>
-  <si>
-    <t>NCIT_C42628 http://purl.obolibrary.org/obo/NCIT_C42628</t>
-  </si>
-  <si>
-    <t>NCIT_C93629 http://purl.obolibrary.org/obo/NCIT_C93629</t>
-  </si>
-  <si>
-    <t>reproduceme_wasUpdatedBy https://w3id.org/reproduceme#wasUpdatedBy</t>
-  </si>
-  <si>
-    <t>NCIT_C63536 http://purl.obolibrary.org/obo/NCIT_C63536</t>
-  </si>
-  <si>
-    <t>OMIABIS_0000006 http://purl.obolibrary.org/obo/OMIABIS_0000006</t>
-  </si>
-  <si>
-    <t>NCIT_C93495 http://purl.obolibrary.org/obo/NCIT_C93495</t>
-  </si>
-  <si>
-    <t>OMIABIS_0000037 http://purl.obolibrary.org/obo/OMIABIS_0000037</t>
-  </si>
-  <si>
-    <t>OBI_0500027 http://purl.obolibrary.org/obo/OBI_0500027</t>
-  </si>
-  <si>
-    <t>NCIT_C19924 http://purl.obolibrary.org/obo/NCIT_C19924</t>
-  </si>
-  <si>
-    <t>NCIT_C176373 http://purl.obolibrary.org/obo/NCIT_C176373</t>
-  </si>
-  <si>
-    <t>NCIT_C176375 http://purl.obolibrary.org/obo/NCIT_C176375</t>
-  </si>
-  <si>
-    <t>NCIT_C142704 http://purl.obolibrary.org/obo/NCIT_C142704</t>
-  </si>
-  <si>
-    <t>NCIT_C69208 http://purl.obolibrary.org/obo/NCIT_C69208</t>
-  </si>
-  <si>
-    <t>NCIT_C142702 http://purl.obolibrary.org/obo/NCIT_C142702</t>
-  </si>
-  <si>
-    <t>NCIT_C171103 http://purl.obolibrary.org/obo/NCIT_C171103</t>
-  </si>
-  <si>
-    <t>NCIT_C153145 http://purl.obolibrary.org/obo/NCIT_C153145</t>
-  </si>
-  <si>
-    <t>NCIT_C16735 http://purl.obolibrary.org/obo/NCIT_C16735</t>
-  </si>
-  <si>
-    <t>ICO_0000044 http://purl.obolibrary.org/obo/ICO_0000044</t>
-  </si>
-  <si>
-    <t>NCIT_C45262 http://purl.obolibrary.org/obo/NCIT_C45262</t>
-  </si>
-  <si>
-    <t>ICO_0000036 http://purl.obolibrary.org/obo/ICO_0000036</t>
-  </si>
-  <si>
-    <t>DCMI_valid http://purl.org/dc/terms/valid</t>
-  </si>
-  <si>
-    <t>NCIT_C176342 http://purl.obolibrary.org/obo/NCIT_C176342</t>
-  </si>
-  <si>
-    <t>DUO_0000001 http://purl.obolibrary.org/obo/DUO_0000001</t>
-  </si>
-  <si>
-    <t>DUO_0000017 http://purl.obolibrary.org/obo/DUO_0000017</t>
-  </si>
-  <si>
-    <t>SIO_000090 http://semanticscience.org/resource/SIO_000090</t>
-  </si>
-  <si>
-    <t>ICO_0000178 http://purl.obolibrary.org/obo/ICO_0000178</t>
-  </si>
-  <si>
-    <t>NCIT_C25737 http://purl.obolibrary.org/obo/NCIT_C25737</t>
-  </si>
-  <si>
-    <t>NCIT_C25398 http://purl.obolibrary.org/obo/NCIT_C25398</t>
-  </si>
-  <si>
-    <t>NCIT_C87853 http://purl.obolibrary.org/obo/NCIT_C87853</t>
-  </si>
-  <si>
-    <t>NCIT_C64917 http://purl.obolibrary.org/obo/NCIT_C64917</t>
-  </si>
-  <si>
-    <t>NCIT_C164339 http://purl.obolibrary.org/obo/NCIT_C164339</t>
-  </si>
-  <si>
-    <t>SNOMEDCT_423493009 http://purl.bioontology.org/ontology/SNOMEDCT/423493009</t>
-  </si>
-  <si>
-    <t>Orphanet_C023 http://www.orpha.net/ORDO/Orphanet_C023</t>
-  </si>
-  <si>
-    <t>NCIT_C16977 http://purl.obolibrary.org/obo/NCIT_C16977</t>
-  </si>
-  <si>
-    <t>HL7_C0442737 http://purl.bioontology.org/ontology/HL7/C0442737</t>
-  </si>
-  <si>
-    <t>HL7_C0332241 http://purl.bioontology.org/ontology/HL7/C0332241</t>
-  </si>
-  <si>
-    <t>NCIT_C15607 http://purl.obolibrary.org/obo/NCIT_C15607</t>
-  </si>
-  <si>
-    <t>NCIT_C20826 http://purl.obolibrary.org/obo/NCIT_C20826</t>
-  </si>
-  <si>
-    <t>NCIT_C25688 http://purl.obolibrary.org/obo/NCIT_C25688</t>
-  </si>
-  <si>
-    <t>NCIT_C25164 http://purl.obolibrary.org/obo/NCIT_C25164</t>
-  </si>
-  <si>
-    <t>EDAM_3273 http://edamontology.org/data_3273</t>
-  </si>
-  <si>
-    <t>SCDO_0002829 http://purl.obolibrary.org/obo/SCDO_0002829</t>
-  </si>
-  <si>
-    <t>NCIT_C164567 http://purl.obolibrary.org/obo/NCIT_C164567</t>
-  </si>
-  <si>
-    <t>NCIT_C164566 http://purl.obolibrary.org/obo/NCIT_C164566</t>
-  </si>
-  <si>
-    <t>NCIT_C171003 http://purl.obolibrary.org/obo/NCIT_C171003</t>
-  </si>
-  <si>
-    <t>NCIT_C164024 http://purl.obolibrary.org/obo/NCIT_C164024</t>
-  </si>
-  <si>
-    <t>EFO_0000689 http://www.ebi.ac.uk/efo/EFO_0000689</t>
-  </si>
-  <si>
-    <t>EFO_0005518 http://www.ebi.ac.uk/efo/EFO_0005518</t>
-  </si>
-  <si>
-    <t>NCIT_C50996 http://purl.obolibrary.org/obo/NCIT_C50996</t>
-  </si>
-  <si>
-    <t>NCIT_C93529 http://purl.obolibrary.org/obo/NCIT_C93529</t>
-  </si>
-  <si>
-    <t>NCIT_C70713 http://purl.obolibrary.org/obo/NCIT_C70713</t>
-  </si>
-  <si>
-    <t>NCIT_C103264 http://purl.obolibrary.org/obo/NCIT_C103264</t>
-  </si>
-  <si>
-    <t>GO_0001894 http://purl.obolibrary.org/obo/GO_0001894</t>
-  </si>
-  <si>
-    <t>NCIT_C171004 http://purl.obolibrary.org/obo/NCIT_C171004</t>
-  </si>
-  <si>
-    <t>OBI_0001902 http://purl.obolibrary.org/obo/OBI_0001902</t>
-  </si>
-  <si>
-    <t>NCIT_C132299 http://purl.obolibrary.org/obo/NCIT_C132299</t>
-  </si>
-  <si>
-    <t>NCIT_C93400 http://purl.obolibrary.org/obo/NCIT_C93400</t>
-  </si>
-  <si>
-    <t>NCIT_C25294 http://purl.obolibrary.org/obo/NCIT_C25294</t>
-  </si>
-  <si>
-    <t>AFO_0000010 http://purl.allotrope.org/ontologies/role#AFRL_0000010</t>
-  </si>
-  <si>
-    <t>GENEPIO_0000085 http://purl.obolibrary.org/obo/GENEPIO_0000085</t>
-  </si>
-  <si>
-    <t>NCIT_C17003 http://purl.obolibrary.org/obo/NCIT_C17003</t>
-  </si>
-  <si>
-    <t>NCIT_C154307 http://purl.obolibrary.org/obo/NCIT_C154307</t>
-  </si>
-  <si>
-    <t>EFO_0010199 http://www.ebi.ac.uk/efo/EFO_0010199</t>
-  </si>
-  <si>
-    <t>FG_0000001 https://w3id.org/fair-genomes/resource/FG_0000001</t>
-  </si>
-  <si>
-    <t>NCIT_C153362 http://purl.obolibrary.org/obo/NCIT_C153362</t>
-  </si>
-  <si>
-    <t>NCIT_C43361 http://purl.obolibrary.org/obo/NCIT_C43361</t>
-  </si>
-  <si>
-    <t>NCIT_C67073 http://purl.obolibrary.org/obo/NCIT_C67073</t>
-  </si>
-  <si>
-    <t>EDAM_3168 http://edamontology.org/topic_3168</t>
-  </si>
-  <si>
-    <t>NCIT_C171337 http://purl.obolibrary.org/obo/NCIT_C171337</t>
-  </si>
-  <si>
-    <t>NCIT_C69216 http://purl.obolibrary.org/obo/NCIT_C69216</t>
-  </si>
-  <si>
-    <t>GENEPIO_0000069 http://purl.obolibrary.org/obo/GENEPIO_0000069</t>
-  </si>
-  <si>
-    <t>OBI_0001891 http://purl.obolibrary.org/obo/OBI_0001891</t>
-  </si>
-  <si>
-    <t>GENEPIO_0000071 http://purl.obolibrary.org/obo/GENEPIO_0000071</t>
-  </si>
-  <si>
-    <t>GENEPIO_0001921 http://purl.obolibrary.org/obo/GENEPIO_0001921</t>
-  </si>
-  <si>
-    <t>FIX_0000704 http://purl.obolibrary.org/obo/FIX_0000704</t>
-  </si>
-  <si>
-    <t>NCIT_C155320 http://purl.obolibrary.org/obo/NCIT_C155320</t>
-  </si>
-  <si>
-    <t>FG_0000002 https://w3id.org/fair-genomes/resource/FG_0000002</t>
-  </si>
-  <si>
-    <t>GENEPIO_0000089 http://purl.obolibrary.org/obo/GENEPIO_0000089</t>
-  </si>
-  <si>
-    <t>FG_0000003 https://w3id.org/fair-genomes/resource/FG_0000003</t>
-  </si>
-  <si>
-    <t>EDAM_3914 http://edamontology.org/data_3914</t>
-  </si>
-  <si>
-    <t>EDAM_2340 http://edamontology.org/data_2340</t>
-  </si>
-  <si>
-    <t>NCIT_C42883 http://purl.obolibrary.org/obo/NCIT_C42883</t>
-  </si>
-  <si>
-    <t>NCIT_C171191 http://purl.obolibrary.org/obo/NCIT_C171191</t>
-  </si>
-  <si>
-    <t>NCIT_C47922 http://purl.obolibrary.org/obo/NCIT_C47922</t>
-  </si>
-  <si>
-    <t>NCIT_C171252 http://purl.obolibrary.org/obo/NCIT_C171252</t>
-  </si>
-  <si>
-    <t>NCIT_C171192 http://purl.obolibrary.org/obo/NCIT_C171192</t>
-  </si>
-  <si>
-    <t>NCIT_C48297 http://purl.obolibrary.org/obo/NCIT_C48297</t>
-  </si>
-  <si>
-    <t>NCIT_C171276 http://purl.obolibrary.org/obo/NCIT_C171276</t>
-  </si>
-  <si>
-    <t>NCIT_C171193 http://purl.obolibrary.org/obo/NCIT_C171193</t>
-  </si>
-  <si>
-    <t>NCIT_C69199 http://purl.obolibrary.org/obo/NCIT_C69199</t>
-  </si>
-  <si>
-    <t>NCIT_C25364 http://purl.obolibrary.org/obo/NCIT_C25364</t>
-  </si>
-  <si>
-    <t>NCIT_C42614 http://purl.obolibrary.org/obo/NCIT_C42614</t>
-  </si>
-  <si>
-    <t>NCIT_C166209 http://purl.obolibrary.org/obo/NCIT_C166209</t>
-  </si>
-  <si>
-    <t>OMIABIS_0000100 http://purl.obolibrary.org/obo/OMIABIS_0000100</t>
-  </si>
-  <si>
-    <t>OMIABIS_0000035 http://purl.obolibrary.org/obo/OMIABIS_0000035</t>
-  </si>
-  <si>
-    <t>NCIT_C53190 http://purl.obolibrary.org/obo/NCIT_C53190</t>
-  </si>
-  <si>
-    <t>NCIT_C83322 http://purl.obolibrary.org/obo/NCIT_C83322</t>
-  </si>
-  <si>
-    <t>NCIT_C117142 http://purl.obolibrary.org/obo/NCIT_C117142</t>
-  </si>
-  <si>
-    <t>NCIT_C25365 http://purl.obolibrary.org/obo/NCIT_C25365</t>
-  </si>
-  <si>
-    <t>NCIT_C83017 http://purl.obolibrary.org/obo/NCIT_C83017</t>
-  </si>
-  <si>
-    <t>NCIT_C83142 http://purl.obolibrary.org/obo/NCIT_C83142</t>
-  </si>
-  <si>
-    <t>OBI_0000118 http://purl.obolibrary.org/obo/OBI_0000118</t>
-  </si>
-  <si>
-    <t>NCIT_C49100 http://purl.obolibrary.org/obo/NCIT_C49100</t>
-  </si>
-  <si>
-    <t>NCIT_C70895 http://purl.obolibrary.org/obo/NCIT_C70895</t>
-  </si>
-  <si>
-    <t>NCIT_C25162 http://purl.obolibrary.org/obo/NCIT_C25162</t>
-  </si>
-  <si>
-    <t>NCIT_C165071 http://purl.obolibrary.org/obo/NCIT_C165071</t>
-  </si>
-  <si>
-    <t>SIO_001083 http://semanticscience.org/resource/SIO_001083</t>
-  </si>
-  <si>
-    <t>NCIT_C45330 http://purl.obolibrary.org/obo/NCIT_C45330</t>
-  </si>
-  <si>
-    <t>NCIT_C16493 http://purl.obolibrary.org/obo/NCIT_C16493</t>
-  </si>
-  <si>
-    <t>NCIT_C115505 http://purl.obolibrary.org/obo/NCIT_C115505</t>
-  </si>
-  <si>
-    <t>NCIT_C25714 http://purl.obolibrary.org/obo/NCIT_C25714</t>
+    <t>http://purl.obolibrary.org/obo/ExO_0000127</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C142495</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25173</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C89336</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C94324</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C21480</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C117655</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C68615</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C83164</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C70810</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C156426</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C135383</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/MESH/D005783</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GSSO_009418</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0020000</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0001094</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171105</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C176763</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25412</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25461</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000589</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C90353</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C164021</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C73427</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C17730</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C71384</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RO_0000056</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C61512</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C172217</t>
+  </si>
+  <si>
+    <t>http://semanticscience.org/resource/SIO_001330</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25393</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C164483</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C42628</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C93629</t>
+  </si>
+  <si>
+    <t>https://w3id.org/reproduceme#wasUpdatedBy</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C63536</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OMIABIS_0000006</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C93495</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OMIABIS_0000037</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0500027</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C19924</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C176373</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C176375</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C142704</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C69208</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C142702</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171103</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C153145</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C16735</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ICO_0000044</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C45262</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ICO_0000036</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/valid</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C176342</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DUO_0000001</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DUO_0000017</t>
+  </si>
+  <si>
+    <t>http://semanticscience.org/resource/SIO_000090</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ICO_0000178</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25737</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25398</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C87853</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C64917</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C164339</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/423493009</t>
+  </si>
+  <si>
+    <t>http://www.orpha.net/ORDO/Orphanet_C023</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C16977</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/HL7/C0442737</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/HL7/C0332241</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C15607</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C20826</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25688</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25164</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/data_3273</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/SCDO_0002829</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C164567</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C164566</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171003</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C164024</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0000689</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0005518</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C50996</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C93529</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C70713</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C103264</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GO_0001894</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171004</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001902</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C132299</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C93400</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25294</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000010</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0000085</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C17003</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C154307</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0010199</t>
+  </si>
+  <si>
+    <t>https://w3id.org/fair-genomes/resource/FG_0000001</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C153362</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C43361</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C67073</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/topic_3168</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171337</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C69216</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0000069</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001891</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0000071</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0001921</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/FIX_0000704</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C155320</t>
+  </si>
+  <si>
+    <t>https://w3id.org/fair-genomes/resource/FG_0000002</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0000089</t>
+  </si>
+  <si>
+    <t>https://w3id.org/fair-genomes/resource/FG_0000003</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/data_3914</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/data_2340</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C42883</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171191</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C47922</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171252</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171192</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C48297</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171276</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171193</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C69199</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25364</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C42614</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C166209</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OMIABIS_0000100</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OMIABIS_0000035</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C53190</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C83322</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C117142</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25365</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C83017</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C83142</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000118</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C49100</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C70895</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25162</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
+  </si>
+  <si>
+    <t>http://semanticscience.org/resource/SIO_001083</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C45330</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C16493</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C115505</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25714</t>
   </si>
   <si>
     <t>Persons who are observed, analyzed, examined, investigated, experimented upon, or/and treated in the course of a particular study</t>
@@ -1454,7 +1472,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1468,6 +1486,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1494,14 +1519,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1794,59 +1825,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K235"/>
+  <dimension ref="A1:L241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>176</v>
+      <c r="J2" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="K2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1854,7 +1888,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1862,14 +1896,14 @@
       <c r="F3" t="b">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>177</v>
+      <c r="J3" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="K3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1877,16 +1911,16 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J4" t="s">
-        <v>178</v>
+        <v>160</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="K4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1894,19 +1928,19 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>179</v>
+      <c r="J5" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="K5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1914,19 +1948,19 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
-        <v>180</v>
+      <c r="J6" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="K6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1934,16 +1968,16 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
-      </c>
-      <c r="J7" t="s">
-        <v>181</v>
+        <v>162</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="K7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1951,22 +1985,22 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="J8" t="s">
-        <v>182</v>
+      <c r="J8" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="K8" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1976,14 +2010,14 @@
       <c r="D9" t="s">
         <v>149</v>
       </c>
-      <c r="J9" t="s">
-        <v>183</v>
+      <c r="J9" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="K9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1991,16 +2025,16 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
-      </c>
-      <c r="J10" t="s">
-        <v>184</v>
+        <v>163</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="K10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2010,14 +2044,14 @@
       <c r="D11" t="s">
         <v>149</v>
       </c>
-      <c r="J11" t="s">
-        <v>185</v>
+      <c r="J11" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="K11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2025,16 +2059,16 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
-      </c>
-      <c r="J12" t="s">
-        <v>186</v>
+        <v>163</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="K12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2042,16 +2076,16 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
-      </c>
-      <c r="J13" t="s">
-        <v>187</v>
+        <v>164</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K13" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2059,22 +2093,22 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H14" t="s">
         <v>24</v>
       </c>
-      <c r="J14" t="s">
-        <v>188</v>
+      <c r="J14" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="K14" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2082,22 +2116,22 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G15" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
       </c>
-      <c r="J15" t="s">
-        <v>189</v>
+      <c r="J15" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="K15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2105,19 +2139,19 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H16" t="s">
         <v>26</v>
       </c>
-      <c r="J16" t="s">
-        <v>190</v>
+      <c r="J16" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="K16" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2128,19 +2162,19 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H17" t="s">
-        <v>165</v>
-      </c>
-      <c r="J17" t="s">
-        <v>191</v>
+        <v>171</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="K17" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2151,19 +2185,19 @@
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H18" t="s">
-        <v>165</v>
-      </c>
-      <c r="J18" t="s">
-        <v>192</v>
+        <v>171</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="K18" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2174,19 +2208,19 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H19" t="s">
         <v>29</v>
       </c>
-      <c r="J19" t="s">
-        <v>193</v>
+      <c r="J19" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="K19" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2197,13 +2231,13 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
-      </c>
-      <c r="J20" t="s">
-        <v>194</v>
+        <v>165</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2214,16 +2248,16 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H21" t="s">
         <v>10</v>
       </c>
-      <c r="J21" t="s">
-        <v>194</v>
+      <c r="J21" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="K21" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2234,13 +2268,13 @@
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
-      </c>
-      <c r="J22" t="s">
-        <v>195</v>
+        <v>160</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="K22" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2251,13 +2285,13 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
-      </c>
-      <c r="J23" t="s">
-        <v>196</v>
+        <v>160</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="K23" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2268,13 +2302,13 @@
         <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
-      </c>
-      <c r="J24" t="s">
-        <v>197</v>
+        <v>160</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="K24" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2287,11 +2321,11 @@
       <c r="D25" t="s">
         <v>149</v>
       </c>
-      <c r="J25" t="s">
-        <v>198</v>
+      <c r="J25" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="K25" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2302,13 +2336,13 @@
         <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
-      </c>
-      <c r="J26" t="s">
-        <v>199</v>
+        <v>166</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="K26" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2319,13 +2353,13 @@
         <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
-      </c>
-      <c r="J27" t="s">
-        <v>200</v>
+        <v>166</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="K27" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2336,13 +2370,13 @@
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
-      </c>
-      <c r="J28" t="s">
-        <v>201</v>
+        <v>166</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="K28" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2353,16 +2387,16 @@
         <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H29" t="s">
         <v>1</v>
       </c>
-      <c r="J29" t="s">
-        <v>202</v>
+      <c r="J29" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="K29" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2373,16 +2407,16 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H30" t="s">
         <v>8</v>
       </c>
-      <c r="J30" t="s">
-        <v>203</v>
+      <c r="J30" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="K30" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2393,16 +2427,16 @@
         <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H31" t="s">
         <v>11</v>
       </c>
-      <c r="J31" t="s">
-        <v>204</v>
+      <c r="J31" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="K31" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2413,13 +2447,13 @@
         <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
-      </c>
-      <c r="J32" t="s">
-        <v>205</v>
+        <v>165</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="K32" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2430,13 +2464,13 @@
         <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
-      </c>
-      <c r="J33" t="s">
-        <v>206</v>
+        <v>162</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="K33" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2447,16 +2481,16 @@
         <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
       </c>
-      <c r="J34" t="s">
-        <v>207</v>
+      <c r="J34" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="K34" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2467,16 +2501,16 @@
         <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
       </c>
-      <c r="J35" t="s">
-        <v>208</v>
+      <c r="J35" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="K35" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2487,13 +2521,13 @@
         <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
-      </c>
-      <c r="J36" t="s">
-        <v>209</v>
+        <v>168</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="K36" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2504,24 +2538,24 @@
         <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
-      </c>
-      <c r="J37" t="s">
-        <v>210</v>
+        <v>160</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="K37" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>1</v>
       </c>
-      <c r="J38" t="s">
-        <v>211</v>
+      <c r="J38" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="K38" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2532,7 +2566,7 @@
         <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2540,11 +2574,11 @@
       <c r="F39" t="b">
         <v>1</v>
       </c>
-      <c r="J39" t="s">
-        <v>212</v>
+      <c r="J39" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="K39" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2555,13 +2589,13 @@
         <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
-      </c>
-      <c r="J40" t="s">
-        <v>213</v>
+        <v>160</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="K40" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2572,13 +2606,13 @@
         <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
-      </c>
-      <c r="J41" t="s">
-        <v>214</v>
+        <v>160</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="K41" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2589,19 +2623,19 @@
         <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G42" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H42" t="s">
         <v>51</v>
       </c>
-      <c r="J42" t="s">
-        <v>215</v>
+      <c r="J42" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="K42" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2612,13 +2646,13 @@
         <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>155</v>
-      </c>
-      <c r="J43" t="s">
-        <v>216</v>
+        <v>160</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="K43" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2629,13 +2663,13 @@
         <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
-      </c>
-      <c r="J44" t="s">
-        <v>217</v>
+        <v>160</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="K44" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2646,13 +2680,13 @@
         <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
-      </c>
-      <c r="J45" t="s">
-        <v>218</v>
+        <v>160</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="K45" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2663,13 +2697,13 @@
         <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
-      </c>
-      <c r="J46" t="s">
-        <v>219</v>
+        <v>162</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="K46" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2682,11 +2716,11 @@
       <c r="D47" t="s">
         <v>149</v>
       </c>
-      <c r="J47" t="s">
-        <v>220</v>
+      <c r="J47" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="K47" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2699,11 +2733,11 @@
       <c r="D48" t="s">
         <v>149</v>
       </c>
-      <c r="J48" t="s">
-        <v>221</v>
+      <c r="J48" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="K48" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2714,19 +2748,19 @@
         <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G49" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H49" t="s">
-        <v>166</v>
-      </c>
-      <c r="J49" t="s">
-        <v>222</v>
+        <v>172</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="K49" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2737,13 +2771,13 @@
         <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>158</v>
-      </c>
-      <c r="J50" t="s">
-        <v>223</v>
+        <v>163</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="K50" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2754,10 +2788,10 @@
         <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K51" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2768,16 +2802,16 @@
         <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H52" t="s">
         <v>11</v>
       </c>
-      <c r="J52" t="s">
-        <v>204</v>
+      <c r="J52" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="K52" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2788,13 +2822,13 @@
         <v>42</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
-      </c>
-      <c r="J53" t="s">
-        <v>205</v>
+        <v>165</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="K53" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2805,13 +2839,13 @@
         <v>43</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
-      </c>
-      <c r="J54" t="s">
-        <v>206</v>
+        <v>162</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="K54" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2822,16 +2856,16 @@
         <v>44</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
       </c>
-      <c r="J55" t="s">
-        <v>207</v>
+      <c r="J55" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="K55" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2842,16 +2876,16 @@
         <v>45</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
       </c>
-      <c r="J56" t="s">
-        <v>208</v>
+      <c r="J56" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="K56" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2862,13 +2896,13 @@
         <v>46</v>
       </c>
       <c r="D57" t="s">
-        <v>163</v>
-      </c>
-      <c r="J57" t="s">
-        <v>209</v>
+        <v>168</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="K57" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2879,24 +2913,24 @@
         <v>47</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
-      </c>
-      <c r="J58" t="s">
-        <v>210</v>
+        <v>160</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="K58" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>2</v>
       </c>
-      <c r="J59" t="s">
-        <v>224</v>
+      <c r="J59" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="K59" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2907,7 +2941,7 @@
         <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2915,11 +2949,11 @@
       <c r="F60" t="b">
         <v>1</v>
       </c>
-      <c r="J60" t="s">
-        <v>225</v>
+      <c r="J60" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="K60" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2930,16 +2964,16 @@
         <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H61" t="s">
         <v>0</v>
       </c>
-      <c r="J61" t="s">
-        <v>177</v>
+      <c r="J61" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="K61" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2950,13 +2984,13 @@
         <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>155</v>
-      </c>
-      <c r="J62" t="s">
-        <v>226</v>
+        <v>160</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="K62" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2969,11 +3003,11 @@
       <c r="D63" t="s">
         <v>149</v>
       </c>
-      <c r="J63" t="s">
-        <v>227</v>
+      <c r="J63" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="K63" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2986,11 +3020,11 @@
       <c r="D64" t="s">
         <v>149</v>
       </c>
-      <c r="J64" t="s">
-        <v>228</v>
+      <c r="J64" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="K64" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3001,13 +3035,13 @@
         <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>161</v>
-      </c>
-      <c r="J65" t="s">
-        <v>229</v>
+        <v>166</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="K65" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3018,19 +3052,19 @@
         <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G66" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H66" t="s">
-        <v>167</v>
-      </c>
-      <c r="J66" t="s">
-        <v>230</v>
+        <v>173</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="K66" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3041,19 +3075,19 @@
         <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G67" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H67" t="s">
         <v>66</v>
       </c>
-      <c r="J67" t="s">
-        <v>231</v>
+      <c r="J67" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="K67" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3064,13 +3098,13 @@
         <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>157</v>
-      </c>
-      <c r="J68" t="s">
-        <v>232</v>
+        <v>162</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="K68" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3081,13 +3115,13 @@
         <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
-      </c>
-      <c r="J69" t="s">
-        <v>233</v>
+        <v>166</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="K69" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3098,10 +3132,10 @@
         <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K70" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3112,13 +3146,13 @@
         <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>161</v>
-      </c>
-      <c r="J71" t="s">
-        <v>234</v>
+        <v>166</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="K71" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3129,16 +3163,16 @@
         <v>41</v>
       </c>
       <c r="D72" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H72" t="s">
         <v>11</v>
       </c>
-      <c r="J72" t="s">
-        <v>204</v>
+      <c r="J72" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="K72" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3149,13 +3183,13 @@
         <v>42</v>
       </c>
       <c r="D73" t="s">
-        <v>160</v>
-      </c>
-      <c r="J73" t="s">
-        <v>205</v>
+        <v>165</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="K73" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3166,13 +3200,13 @@
         <v>43</v>
       </c>
       <c r="D74" t="s">
-        <v>157</v>
-      </c>
-      <c r="J74" t="s">
-        <v>206</v>
+        <v>162</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="K74" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3183,16 +3217,16 @@
         <v>44</v>
       </c>
       <c r="D75" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F75" t="b">
         <v>1</v>
       </c>
-      <c r="J75" t="s">
-        <v>207</v>
+      <c r="J75" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="K75" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3203,16 +3237,16 @@
         <v>45</v>
       </c>
       <c r="D76" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
       </c>
-      <c r="J76" t="s">
-        <v>208</v>
+      <c r="J76" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="K76" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3223,13 +3257,13 @@
         <v>46</v>
       </c>
       <c r="D77" t="s">
-        <v>163</v>
-      </c>
-      <c r="J77" t="s">
-        <v>209</v>
+        <v>168</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="K77" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3240,24 +3274,24 @@
         <v>47</v>
       </c>
       <c r="D78" t="s">
-        <v>155</v>
-      </c>
-      <c r="J78" t="s">
-        <v>210</v>
+        <v>160</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="K78" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>3</v>
       </c>
-      <c r="J79" t="s">
-        <v>235</v>
+      <c r="J79" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="K79" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3268,16 +3302,16 @@
         <v>71</v>
       </c>
       <c r="D80" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
-      <c r="J80" t="s">
-        <v>236</v>
+      <c r="J80" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="K80" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3288,16 +3322,16 @@
         <v>60</v>
       </c>
       <c r="D81" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H81" t="s">
         <v>0</v>
       </c>
-      <c r="J81" t="s">
-        <v>177</v>
+      <c r="J81" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="K81" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3308,13 +3342,13 @@
         <v>72</v>
       </c>
       <c r="D82" t="s">
-        <v>161</v>
-      </c>
-      <c r="J82" t="s">
-        <v>237</v>
+        <v>166</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="K82" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3327,11 +3361,11 @@
       <c r="D83" t="s">
         <v>149</v>
       </c>
-      <c r="J83" t="s">
-        <v>238</v>
+      <c r="J83" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="K83" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3342,13 +3376,13 @@
         <v>74</v>
       </c>
       <c r="D84" t="s">
-        <v>159</v>
-      </c>
-      <c r="J84" t="s">
-        <v>239</v>
+        <v>164</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="K84" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3359,13 +3393,13 @@
         <v>75</v>
       </c>
       <c r="D85" t="s">
-        <v>159</v>
-      </c>
-      <c r="J85" t="s">
-        <v>240</v>
+        <v>164</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="K85" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3376,19 +3410,19 @@
         <v>76</v>
       </c>
       <c r="D86" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G86" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H86" t="s">
-        <v>168</v>
-      </c>
-      <c r="J86" t="s">
-        <v>241</v>
+        <v>174</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="K86" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3399,19 +3433,19 @@
         <v>77</v>
       </c>
       <c r="D87" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G87" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H87" t="s">
-        <v>168</v>
-      </c>
-      <c r="J87" t="s">
-        <v>242</v>
+        <v>174</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="K87" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3422,19 +3456,19 @@
         <v>78</v>
       </c>
       <c r="D88" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G88" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H88" t="s">
-        <v>168</v>
-      </c>
-      <c r="J88" t="s">
-        <v>243</v>
+        <v>174</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="K88" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3445,19 +3479,19 @@
         <v>79</v>
       </c>
       <c r="D89" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G89" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H89" t="s">
-        <v>169</v>
-      </c>
-      <c r="J89" t="s">
-        <v>244</v>
+        <v>175</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="K89" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3468,19 +3502,19 @@
         <v>80</v>
       </c>
       <c r="D90" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G90" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H90" t="s">
         <v>80</v>
       </c>
-      <c r="J90" t="s">
-        <v>245</v>
+      <c r="J90" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="K90" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3491,13 +3525,13 @@
         <v>81</v>
       </c>
       <c r="D91" t="s">
-        <v>157</v>
-      </c>
-      <c r="J91" t="s">
-        <v>245</v>
+        <v>162</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="K91" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3508,19 +3542,19 @@
         <v>82</v>
       </c>
       <c r="D92" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G92" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H92" t="s">
-        <v>170</v>
-      </c>
-      <c r="J92" t="s">
-        <v>246</v>
+        <v>176</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="K92" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3533,11 +3567,11 @@
       <c r="D93" t="s">
         <v>149</v>
       </c>
-      <c r="J93" t="s">
-        <v>247</v>
+      <c r="J93" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="K93" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3548,16 +3582,16 @@
         <v>84</v>
       </c>
       <c r="D94" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
       </c>
-      <c r="J94" t="s">
-        <v>248</v>
+      <c r="J94" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="K94" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3568,16 +3602,16 @@
         <v>41</v>
       </c>
       <c r="D95" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H95" t="s">
         <v>11</v>
       </c>
-      <c r="J95" t="s">
-        <v>204</v>
+      <c r="J95" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="K95" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3588,13 +3622,13 @@
         <v>42</v>
       </c>
       <c r="D96" t="s">
-        <v>160</v>
-      </c>
-      <c r="J96" t="s">
-        <v>205</v>
+        <v>165</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="K96" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3605,13 +3639,13 @@
         <v>43</v>
       </c>
       <c r="D97" t="s">
-        <v>157</v>
-      </c>
-      <c r="J97" t="s">
-        <v>206</v>
+        <v>162</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="K97" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3622,16 +3656,16 @@
         <v>44</v>
       </c>
       <c r="D98" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F98" t="b">
         <v>1</v>
       </c>
-      <c r="J98" t="s">
-        <v>207</v>
+      <c r="J98" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="K98" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3642,16 +3676,16 @@
         <v>45</v>
       </c>
       <c r="D99" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F99" t="b">
         <v>1</v>
       </c>
-      <c r="J99" t="s">
-        <v>208</v>
+      <c r="J99" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="K99" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3662,13 +3696,13 @@
         <v>46</v>
       </c>
       <c r="D100" t="s">
-        <v>163</v>
-      </c>
-      <c r="J100" t="s">
-        <v>209</v>
+        <v>168</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="K100" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3679,24 +3713,24 @@
         <v>47</v>
       </c>
       <c r="D101" t="s">
-        <v>155</v>
-      </c>
-      <c r="J101" t="s">
-        <v>210</v>
+        <v>160</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="K101" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>4</v>
       </c>
-      <c r="J102" t="s">
-        <v>249</v>
+      <c r="J102" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="K102" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -3707,7 +3741,7 @@
         <v>85</v>
       </c>
       <c r="D103" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -3715,11 +3749,11 @@
       <c r="F103" t="b">
         <v>1</v>
       </c>
-      <c r="J103" t="s">
-        <v>248</v>
+      <c r="J103" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="K103" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -3730,16 +3764,16 @@
         <v>60</v>
       </c>
       <c r="D104" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H104" t="s">
         <v>0</v>
       </c>
-      <c r="J104" t="s">
-        <v>177</v>
+      <c r="J104" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="K104" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -3750,13 +3784,13 @@
         <v>86</v>
       </c>
       <c r="D105" t="s">
-        <v>155</v>
-      </c>
-      <c r="J105" t="s">
-        <v>250</v>
+        <v>160</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="K105" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -3769,11 +3803,11 @@
       <c r="D106" t="s">
         <v>149</v>
       </c>
-      <c r="J106" t="s">
-        <v>251</v>
+      <c r="J106" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="K106" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -3784,19 +3818,19 @@
         <v>88</v>
       </c>
       <c r="D107" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G107" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H107" t="s">
-        <v>171</v>
-      </c>
-      <c r="J107" t="s">
-        <v>252</v>
+        <v>177</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="K107" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -3809,11 +3843,11 @@
       <c r="D108" t="s">
         <v>149</v>
       </c>
-      <c r="J108" t="s">
-        <v>253</v>
+      <c r="J108" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="K108" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -3824,13 +3858,13 @@
         <v>90</v>
       </c>
       <c r="D109" t="s">
-        <v>163</v>
-      </c>
-      <c r="J109" t="s">
-        <v>254</v>
+        <v>168</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="K109" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -3841,16 +3875,16 @@
         <v>91</v>
       </c>
       <c r="D110" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H110" t="s">
         <v>12</v>
       </c>
-      <c r="J110" t="s">
-        <v>255</v>
+      <c r="J110" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="K110" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -3861,13 +3895,13 @@
         <v>92</v>
       </c>
       <c r="D111" t="s">
-        <v>157</v>
-      </c>
-      <c r="J111" t="s">
-        <v>256</v>
+        <v>162</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="K111" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -3878,13 +3912,13 @@
         <v>93</v>
       </c>
       <c r="D112" t="s">
-        <v>157</v>
-      </c>
-      <c r="J112" t="s">
-        <v>257</v>
+        <v>162</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="K112" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -3895,19 +3929,19 @@
         <v>94</v>
       </c>
       <c r="D113" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G113" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H113" t="s">
         <v>94</v>
       </c>
-      <c r="J113" t="s">
-        <v>258</v>
+      <c r="J113" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="K113" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -3918,19 +3952,19 @@
         <v>95</v>
       </c>
       <c r="D114" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G114" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H114" t="s">
         <v>95</v>
       </c>
-      <c r="J114" t="s">
-        <v>259</v>
+      <c r="J114" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="K114" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -3941,19 +3975,19 @@
         <v>96</v>
       </c>
       <c r="D115" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G115" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H115" t="s">
         <v>96</v>
       </c>
-      <c r="J115" t="s">
-        <v>260</v>
+      <c r="J115" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="K115" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -3964,13 +3998,13 @@
         <v>97</v>
       </c>
       <c r="D116" t="s">
-        <v>161</v>
-      </c>
-      <c r="J116" t="s">
-        <v>261</v>
+        <v>166</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="K116" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -3981,13 +4015,13 @@
         <v>34</v>
       </c>
       <c r="D117" t="s">
-        <v>155</v>
-      </c>
-      <c r="J117" t="s">
-        <v>197</v>
+        <v>160</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="K117" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -3998,16 +4032,16 @@
         <v>41</v>
       </c>
       <c r="D118" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H118" t="s">
         <v>11</v>
       </c>
-      <c r="J118" t="s">
-        <v>204</v>
+      <c r="J118" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="K118" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4018,13 +4052,13 @@
         <v>42</v>
       </c>
       <c r="D119" t="s">
-        <v>160</v>
-      </c>
-      <c r="J119" t="s">
-        <v>205</v>
+        <v>165</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="K119" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4035,13 +4069,13 @@
         <v>43</v>
       </c>
       <c r="D120" t="s">
-        <v>157</v>
-      </c>
-      <c r="J120" t="s">
-        <v>206</v>
+        <v>162</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="K120" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4052,16 +4086,16 @@
         <v>44</v>
       </c>
       <c r="D121" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F121" t="b">
         <v>1</v>
       </c>
-      <c r="J121" t="s">
-        <v>207</v>
+      <c r="J121" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="K121" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4072,16 +4106,16 @@
         <v>45</v>
       </c>
       <c r="D122" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F122" t="b">
         <v>1</v>
       </c>
-      <c r="J122" t="s">
-        <v>208</v>
+      <c r="J122" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="K122" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4092,13 +4126,13 @@
         <v>46</v>
       </c>
       <c r="D123" t="s">
-        <v>163</v>
-      </c>
-      <c r="J123" t="s">
-        <v>209</v>
+        <v>168</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="K123" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4109,24 +4143,24 @@
         <v>47</v>
       </c>
       <c r="D124" t="s">
-        <v>155</v>
-      </c>
-      <c r="J124" t="s">
-        <v>210</v>
+        <v>160</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="K124" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>5</v>
       </c>
-      <c r="J125" t="s">
-        <v>262</v>
+      <c r="J125" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="K125" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4137,7 +4171,7 @@
         <v>98</v>
       </c>
       <c r="D126" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -4145,11 +4179,11 @@
       <c r="F126" t="b">
         <v>1</v>
       </c>
-      <c r="J126" t="s">
-        <v>263</v>
+      <c r="J126" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="K126" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4160,16 +4194,16 @@
         <v>84</v>
       </c>
       <c r="D127" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
       </c>
-      <c r="J127" t="s">
-        <v>264</v>
+      <c r="J127" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="K127" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4180,16 +4214,16 @@
         <v>99</v>
       </c>
       <c r="D128" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
       </c>
-      <c r="J128" t="s">
-        <v>265</v>
+      <c r="J128" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="K128" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4200,13 +4234,13 @@
         <v>86</v>
       </c>
       <c r="D129" t="s">
-        <v>155</v>
-      </c>
-      <c r="J129" t="s">
-        <v>250</v>
+        <v>160</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="K129" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4217,13 +4251,13 @@
         <v>100</v>
       </c>
       <c r="D130" t="s">
-        <v>158</v>
-      </c>
-      <c r="J130" t="s">
-        <v>266</v>
+        <v>163</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="K130" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4234,19 +4268,19 @@
         <v>101</v>
       </c>
       <c r="D131" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G131" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H131" t="s">
-        <v>172</v>
-      </c>
-      <c r="J131" t="s">
-        <v>267</v>
+        <v>178</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="K131" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -4257,13 +4291,13 @@
         <v>102</v>
       </c>
       <c r="D132" t="s">
-        <v>161</v>
-      </c>
-      <c r="J132" t="s">
-        <v>268</v>
+        <v>166</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="K132" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -4274,19 +4308,19 @@
         <v>103</v>
       </c>
       <c r="D133" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G133" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H133" t="s">
-        <v>172</v>
-      </c>
-      <c r="J133" t="s">
-        <v>269</v>
+        <v>178</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="K133" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -4297,13 +4331,13 @@
         <v>104</v>
       </c>
       <c r="D134" t="s">
-        <v>161</v>
-      </c>
-      <c r="J134" t="s">
-        <v>270</v>
+        <v>166</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="K134" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -4314,13 +4348,13 @@
         <v>105</v>
       </c>
       <c r="D135" t="s">
-        <v>158</v>
-      </c>
-      <c r="J135" t="s">
-        <v>271</v>
+        <v>163</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="K135" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -4331,13 +4365,13 @@
         <v>106</v>
       </c>
       <c r="D136" t="s">
-        <v>158</v>
-      </c>
-      <c r="J136" t="s">
-        <v>272</v>
+        <v>163</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="K136" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -4348,13 +4382,13 @@
         <v>107</v>
       </c>
       <c r="D137" t="s">
-        <v>155</v>
-      </c>
-      <c r="J137" t="s">
-        <v>273</v>
+        <v>160</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="K137" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -4365,13 +4399,13 @@
         <v>108</v>
       </c>
       <c r="D138" t="s">
-        <v>155</v>
-      </c>
-      <c r="J138" t="s">
-        <v>274</v>
+        <v>160</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="K138" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -4382,16 +4416,16 @@
         <v>41</v>
       </c>
       <c r="D139" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H139" t="s">
         <v>11</v>
       </c>
-      <c r="J139" t="s">
-        <v>204</v>
+      <c r="J139" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="K139" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -4402,13 +4436,13 @@
         <v>42</v>
       </c>
       <c r="D140" t="s">
-        <v>160</v>
-      </c>
-      <c r="J140" t="s">
-        <v>205</v>
+        <v>165</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="K140" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -4419,13 +4453,13 @@
         <v>43</v>
       </c>
       <c r="D141" t="s">
-        <v>157</v>
-      </c>
-      <c r="J141" t="s">
-        <v>206</v>
+        <v>162</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="K141" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -4436,16 +4470,16 @@
         <v>44</v>
       </c>
       <c r="D142" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F142" t="b">
         <v>1</v>
       </c>
-      <c r="J142" t="s">
-        <v>207</v>
+      <c r="J142" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="K142" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -4456,16 +4490,16 @@
         <v>45</v>
       </c>
       <c r="D143" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F143" t="b">
         <v>1</v>
       </c>
-      <c r="J143" t="s">
-        <v>208</v>
+      <c r="J143" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="K143" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -4476,13 +4510,13 @@
         <v>46</v>
       </c>
       <c r="D144" t="s">
-        <v>163</v>
-      </c>
-      <c r="J144" t="s">
-        <v>209</v>
+        <v>168</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="K144" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -4493,24 +4527,24 @@
         <v>47</v>
       </c>
       <c r="D145" t="s">
-        <v>155</v>
-      </c>
-      <c r="J145" t="s">
-        <v>210</v>
+        <v>160</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="K145" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" t="s">
         <v>6</v>
       </c>
-      <c r="J146" t="s">
-        <v>275</v>
+      <c r="J146" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="K146" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -4521,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="D147" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -4529,11 +4563,11 @@
       <c r="F147" t="b">
         <v>1</v>
       </c>
-      <c r="J147" t="s">
-        <v>276</v>
+      <c r="J147" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="K147" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -4544,16 +4578,16 @@
         <v>99</v>
       </c>
       <c r="D148" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
       </c>
-      <c r="J148" t="s">
-        <v>265</v>
+      <c r="J148" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="K148" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -4564,16 +4598,16 @@
         <v>110</v>
       </c>
       <c r="D149" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H149" t="s">
         <v>5</v>
       </c>
-      <c r="J149" t="s">
-        <v>263</v>
+      <c r="J149" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="K149" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -4584,19 +4618,19 @@
         <v>111</v>
       </c>
       <c r="D150" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G150" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H150" t="s">
-        <v>171</v>
-      </c>
-      <c r="J150" t="s">
-        <v>277</v>
+        <v>177</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="K150" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -4609,11 +4643,11 @@
       <c r="D151" t="s">
         <v>149</v>
       </c>
-      <c r="J151" t="s">
-        <v>278</v>
+      <c r="J151" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="K151" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -4624,16 +4658,16 @@
         <v>113</v>
       </c>
       <c r="D152" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H152" t="s">
         <v>10</v>
       </c>
-      <c r="J152" t="s">
-        <v>279</v>
+      <c r="J152" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="K152" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -4644,19 +4678,19 @@
         <v>114</v>
       </c>
       <c r="D153" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G153" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H153" t="s">
         <v>114</v>
       </c>
-      <c r="J153" t="s">
-        <v>280</v>
+      <c r="J153" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="K153" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -4667,19 +4701,19 @@
         <v>115</v>
       </c>
       <c r="D154" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G154" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H154" t="s">
-        <v>173</v>
-      </c>
-      <c r="J154" t="s">
-        <v>281</v>
+        <v>179</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="K154" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -4690,19 +4724,19 @@
         <v>116</v>
       </c>
       <c r="D155" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G155" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H155" t="s">
-        <v>174</v>
-      </c>
-      <c r="J155" t="s">
-        <v>282</v>
+        <v>180</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="K155" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -4713,13 +4747,13 @@
         <v>117</v>
       </c>
       <c r="D156" t="s">
-        <v>158</v>
-      </c>
-      <c r="J156" t="s">
-        <v>283</v>
+        <v>163</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="K156" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -4730,13 +4764,13 @@
         <v>118</v>
       </c>
       <c r="D157" t="s">
-        <v>158</v>
-      </c>
-      <c r="J157" t="s">
-        <v>272</v>
+        <v>163</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="K157" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -4747,13 +4781,13 @@
         <v>119</v>
       </c>
       <c r="D158" t="s">
-        <v>158</v>
-      </c>
-      <c r="J158" t="s">
-        <v>284</v>
+        <v>163</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="K158" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -4764,13 +4798,13 @@
         <v>120</v>
       </c>
       <c r="D159" t="s">
-        <v>159</v>
-      </c>
-      <c r="J159" t="s">
-        <v>285</v>
+        <v>164</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="K159" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -4781,13 +4815,13 @@
         <v>121</v>
       </c>
       <c r="D160" t="s">
-        <v>159</v>
-      </c>
-      <c r="J160" t="s">
-        <v>286</v>
+        <v>164</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="K160" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -4798,13 +4832,13 @@
         <v>122</v>
       </c>
       <c r="D161" t="s">
-        <v>157</v>
-      </c>
-      <c r="J161" t="s">
-        <v>287</v>
+        <v>162</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="K161" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -4815,19 +4849,19 @@
         <v>123</v>
       </c>
       <c r="D162" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G162" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H162" t="s">
-        <v>175</v>
-      </c>
-      <c r="J162" t="s">
-        <v>288</v>
+        <v>181</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="K162" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -4838,16 +4872,16 @@
         <v>41</v>
       </c>
       <c r="D163" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H163" t="s">
         <v>11</v>
       </c>
-      <c r="J163" t="s">
-        <v>204</v>
+      <c r="J163" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="K163" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -4858,13 +4892,13 @@
         <v>42</v>
       </c>
       <c r="D164" t="s">
-        <v>160</v>
-      </c>
-      <c r="J164" t="s">
-        <v>205</v>
+        <v>165</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="K164" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -4875,13 +4909,13 @@
         <v>43</v>
       </c>
       <c r="D165" t="s">
-        <v>157</v>
-      </c>
-      <c r="J165" t="s">
-        <v>206</v>
+        <v>162</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="K165" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -4892,16 +4926,16 @@
         <v>44</v>
       </c>
       <c r="D166" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F166" t="b">
         <v>1</v>
       </c>
-      <c r="J166" t="s">
-        <v>207</v>
+      <c r="J166" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="K166" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -4912,16 +4946,16 @@
         <v>45</v>
       </c>
       <c r="D167" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F167" t="b">
         <v>1</v>
       </c>
-      <c r="J167" t="s">
-        <v>208</v>
+      <c r="J167" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="K167" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -4932,13 +4966,13 @@
         <v>46</v>
       </c>
       <c r="D168" t="s">
-        <v>163</v>
-      </c>
-      <c r="J168" t="s">
-        <v>209</v>
+        <v>168</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="K168" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -4949,24 +4983,24 @@
         <v>47</v>
       </c>
       <c r="D169" t="s">
-        <v>155</v>
-      </c>
-      <c r="J169" t="s">
-        <v>210</v>
+        <v>160</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="K169" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" t="s">
         <v>7</v>
       </c>
-      <c r="J170" t="s">
-        <v>289</v>
+      <c r="J170" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="K170" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -4977,7 +5011,7 @@
         <v>124</v>
       </c>
       <c r="D171" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -4985,11 +5019,11 @@
       <c r="F171" t="b">
         <v>1</v>
       </c>
-      <c r="J171" t="s">
-        <v>290</v>
+      <c r="J171" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="K171" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -5000,16 +5034,16 @@
         <v>125</v>
       </c>
       <c r="D172" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H172" t="s">
         <v>6</v>
       </c>
-      <c r="J172" t="s">
-        <v>276</v>
+      <c r="J172" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="K172" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -5020,16 +5054,16 @@
         <v>60</v>
       </c>
       <c r="D173" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H173" t="s">
         <v>0</v>
       </c>
-      <c r="J173" t="s">
-        <v>177</v>
+      <c r="J173" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="K173" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -5040,16 +5074,16 @@
         <v>84</v>
       </c>
       <c r="D174" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
       </c>
-      <c r="J174" t="s">
-        <v>248</v>
+      <c r="J174" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="K174" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -5060,16 +5094,16 @@
         <v>39</v>
       </c>
       <c r="D175" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H175" t="s">
         <v>1</v>
       </c>
-      <c r="J175" t="s">
-        <v>202</v>
+      <c r="J175" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="K175" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -5080,16 +5114,16 @@
         <v>40</v>
       </c>
       <c r="D176" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H176" t="s">
         <v>8</v>
       </c>
-      <c r="J176" t="s">
-        <v>203</v>
+      <c r="J176" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="K176" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -5100,13 +5134,13 @@
         <v>126</v>
       </c>
       <c r="D177" t="s">
-        <v>157</v>
-      </c>
-      <c r="J177" t="s">
-        <v>290</v>
+        <v>162</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="K177" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -5117,13 +5151,13 @@
         <v>127</v>
       </c>
       <c r="D178" t="s">
-        <v>157</v>
-      </c>
-      <c r="J178" t="s">
-        <v>291</v>
+        <v>162</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="K178" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -5134,13 +5168,13 @@
         <v>128</v>
       </c>
       <c r="D179" t="s">
-        <v>155</v>
-      </c>
-      <c r="J179" t="s">
-        <v>292</v>
+        <v>160</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="K179" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -5151,13 +5185,13 @@
         <v>129</v>
       </c>
       <c r="D180" t="s">
-        <v>158</v>
-      </c>
-      <c r="J180" t="s">
-        <v>293</v>
+        <v>163</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="K180" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -5168,13 +5202,13 @@
         <v>130</v>
       </c>
       <c r="D181" t="s">
-        <v>155</v>
-      </c>
-      <c r="J181" t="s">
-        <v>294</v>
+        <v>160</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="K181" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -5185,13 +5219,13 @@
         <v>131</v>
       </c>
       <c r="D182" t="s">
-        <v>155</v>
-      </c>
-      <c r="J182" t="s">
-        <v>295</v>
+        <v>160</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="K182" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -5202,19 +5236,19 @@
         <v>132</v>
       </c>
       <c r="D183" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G183" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H183" t="s">
         <v>132</v>
       </c>
-      <c r="J183" t="s">
-        <v>296</v>
+      <c r="J183" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="K183" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -5227,11 +5261,11 @@
       <c r="D184" t="s">
         <v>149</v>
       </c>
-      <c r="J184" t="s">
-        <v>297</v>
+      <c r="J184" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="K184" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -5242,13 +5276,13 @@
         <v>134</v>
       </c>
       <c r="D185" t="s">
-        <v>155</v>
-      </c>
-      <c r="J185" t="s">
-        <v>197</v>
+        <v>160</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="K185" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -5259,16 +5293,16 @@
         <v>41</v>
       </c>
       <c r="D186" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H186" t="s">
         <v>11</v>
       </c>
-      <c r="J186" t="s">
-        <v>204</v>
+      <c r="J186" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="K186" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -5279,13 +5313,13 @@
         <v>42</v>
       </c>
       <c r="D187" t="s">
-        <v>160</v>
-      </c>
-      <c r="J187" t="s">
-        <v>205</v>
+        <v>165</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="K187" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -5296,13 +5330,13 @@
         <v>43</v>
       </c>
       <c r="D188" t="s">
-        <v>157</v>
-      </c>
-      <c r="J188" t="s">
-        <v>206</v>
+        <v>162</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="K188" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -5313,16 +5347,16 @@
         <v>44</v>
       </c>
       <c r="D189" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F189" t="b">
         <v>1</v>
       </c>
-      <c r="J189" t="s">
-        <v>207</v>
+      <c r="J189" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="K189" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -5333,16 +5367,16 @@
         <v>45</v>
       </c>
       <c r="D190" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F190" t="b">
         <v>1</v>
       </c>
-      <c r="J190" t="s">
-        <v>208</v>
+      <c r="J190" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="K190" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -5353,13 +5387,13 @@
         <v>46</v>
       </c>
       <c r="D191" t="s">
-        <v>163</v>
-      </c>
-      <c r="J191" t="s">
-        <v>209</v>
+        <v>168</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="K191" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -5370,24 +5404,24 @@
         <v>47</v>
       </c>
       <c r="D192" t="s">
-        <v>155</v>
-      </c>
-      <c r="J192" t="s">
-        <v>210</v>
+        <v>160</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="K192" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" t="s">
         <v>8</v>
       </c>
-      <c r="J193" t="s">
-        <v>203</v>
+      <c r="J193" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="K193" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -5398,7 +5432,7 @@
         <v>135</v>
       </c>
       <c r="D194" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -5406,11 +5440,11 @@
       <c r="F194" t="b">
         <v>1</v>
       </c>
-      <c r="J194" t="s">
-        <v>298</v>
+      <c r="J194" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="K194" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -5421,13 +5455,13 @@
         <v>136</v>
       </c>
       <c r="D195" t="s">
-        <v>155</v>
-      </c>
-      <c r="J195" t="s">
-        <v>213</v>
+        <v>160</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="K195" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -5438,13 +5472,13 @@
         <v>137</v>
       </c>
       <c r="D196" t="s">
-        <v>155</v>
-      </c>
-      <c r="J196" t="s">
-        <v>299</v>
+        <v>160</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="K196" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -5455,13 +5489,13 @@
         <v>138</v>
       </c>
       <c r="D197" t="s">
-        <v>157</v>
-      </c>
-      <c r="J197" t="s">
-        <v>300</v>
+        <v>162</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="K197" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -5472,13 +5506,13 @@
         <v>52</v>
       </c>
       <c r="D198" t="s">
-        <v>155</v>
-      </c>
-      <c r="J198" t="s">
-        <v>301</v>
+        <v>160</v>
+      </c>
+      <c r="J198" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="K198" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -5489,13 +5523,13 @@
         <v>32</v>
       </c>
       <c r="D199" t="s">
-        <v>155</v>
-      </c>
-      <c r="J199" t="s">
-        <v>195</v>
+        <v>160</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="K199" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -5506,13 +5540,13 @@
         <v>33</v>
       </c>
       <c r="D200" t="s">
-        <v>155</v>
-      </c>
-      <c r="J200" t="s">
-        <v>302</v>
+        <v>160</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="K200" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -5523,13 +5557,13 @@
         <v>139</v>
       </c>
       <c r="D201" t="s">
-        <v>158</v>
-      </c>
-      <c r="J201" t="s">
-        <v>303</v>
+        <v>163</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="K201" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -5540,13 +5574,13 @@
         <v>42</v>
       </c>
       <c r="D202" t="s">
-        <v>160</v>
-      </c>
-      <c r="J202" t="s">
-        <v>205</v>
+        <v>165</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="K202" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -5557,13 +5591,13 @@
         <v>43</v>
       </c>
       <c r="D203" t="s">
-        <v>157</v>
-      </c>
-      <c r="J203" t="s">
-        <v>206</v>
+        <v>162</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="K203" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -5574,16 +5608,16 @@
         <v>44</v>
       </c>
       <c r="D204" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F204" t="b">
         <v>1</v>
       </c>
-      <c r="J204" t="s">
-        <v>207</v>
+      <c r="J204" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="K204" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -5594,16 +5628,16 @@
         <v>45</v>
       </c>
       <c r="D205" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F205" t="b">
         <v>1</v>
       </c>
-      <c r="J205" t="s">
-        <v>208</v>
+      <c r="J205" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="K205" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -5614,13 +5648,13 @@
         <v>46</v>
       </c>
       <c r="D206" t="s">
-        <v>163</v>
-      </c>
-      <c r="J206" t="s">
-        <v>209</v>
+        <v>168</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="K206" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -5631,24 +5665,24 @@
         <v>47</v>
       </c>
       <c r="D207" t="s">
-        <v>155</v>
-      </c>
-      <c r="J207" t="s">
-        <v>210</v>
+        <v>160</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="K207" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" t="s">
         <v>9</v>
       </c>
-      <c r="J208" t="s">
-        <v>265</v>
+      <c r="J208" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="K208" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -5659,7 +5693,7 @@
         <v>140</v>
       </c>
       <c r="D209" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -5667,11 +5701,11 @@
       <c r="F209" t="b">
         <v>1</v>
       </c>
-      <c r="J209" t="s">
-        <v>304</v>
+      <c r="J209" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="K209" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -5682,13 +5716,13 @@
         <v>141</v>
       </c>
       <c r="D210" t="s">
-        <v>155</v>
-      </c>
-      <c r="J210" t="s">
-        <v>305</v>
+        <v>160</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="K210" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -5699,13 +5733,13 @@
         <v>138</v>
       </c>
       <c r="D211" t="s">
-        <v>157</v>
-      </c>
-      <c r="J211" t="s">
-        <v>306</v>
+        <v>162</v>
+      </c>
+      <c r="J211" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="K211" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -5716,13 +5750,13 @@
         <v>142</v>
       </c>
       <c r="D212" t="s">
-        <v>155</v>
-      </c>
-      <c r="J212" t="s">
-        <v>307</v>
+        <v>160</v>
+      </c>
+      <c r="J212" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="K212" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -5733,13 +5767,13 @@
         <v>143</v>
       </c>
       <c r="D213" t="s">
-        <v>155</v>
-      </c>
-      <c r="J213" t="s">
-        <v>308</v>
+        <v>160</v>
+      </c>
+      <c r="J213" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="K213" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -5750,24 +5784,24 @@
         <v>144</v>
       </c>
       <c r="D214" t="s">
-        <v>157</v>
-      </c>
-      <c r="J214" t="s">
-        <v>309</v>
+        <v>162</v>
+      </c>
+      <c r="J214" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="K214" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" t="s">
         <v>10</v>
       </c>
-      <c r="J215" t="s">
-        <v>194</v>
+      <c r="J215" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="K215" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -5778,7 +5812,7 @@
         <v>145</v>
       </c>
       <c r="D216" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -5786,11 +5820,11 @@
       <c r="F216" t="b">
         <v>1</v>
       </c>
-      <c r="J216" t="s">
-        <v>310</v>
+      <c r="J216" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="K216" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -5801,13 +5835,13 @@
         <v>138</v>
       </c>
       <c r="D217" t="s">
-        <v>157</v>
-      </c>
-      <c r="J217" t="s">
-        <v>306</v>
+        <v>162</v>
+      </c>
+      <c r="J217" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="K217" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -5818,13 +5852,13 @@
         <v>146</v>
       </c>
       <c r="D218" t="s">
-        <v>155</v>
-      </c>
-      <c r="J218" t="s">
-        <v>311</v>
+        <v>160</v>
+      </c>
+      <c r="J218" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="K218" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -5835,13 +5869,13 @@
         <v>140</v>
       </c>
       <c r="D219" t="s">
-        <v>155</v>
-      </c>
-      <c r="J219" t="s">
-        <v>312</v>
+        <v>160</v>
+      </c>
+      <c r="J219" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="K219" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -5852,24 +5886,24 @@
         <v>147</v>
       </c>
       <c r="D220" t="s">
-        <v>155</v>
-      </c>
-      <c r="J220" t="s">
-        <v>313</v>
+        <v>160</v>
+      </c>
+      <c r="J220" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="K220" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" t="s">
         <v>11</v>
       </c>
-      <c r="J221" t="s">
-        <v>204</v>
+      <c r="J221" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="K221" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -5880,7 +5914,7 @@
         <v>148</v>
       </c>
       <c r="D222" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -5888,11 +5922,11 @@
       <c r="F222" t="b">
         <v>1</v>
       </c>
-      <c r="J222" t="s">
-        <v>298</v>
+      <c r="J222" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="K222" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -5903,13 +5937,13 @@
         <v>137</v>
       </c>
       <c r="D223" t="s">
-        <v>155</v>
-      </c>
-      <c r="J223" t="s">
-        <v>299</v>
+        <v>160</v>
+      </c>
+      <c r="J223" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="K223" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -5920,16 +5954,16 @@
         <v>138</v>
       </c>
       <c r="D224" t="s">
-        <v>157</v>
-      </c>
-      <c r="J224" t="s">
-        <v>306</v>
+        <v>162</v>
+      </c>
+      <c r="J224" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="K224" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -5939,14 +5973,14 @@
       <c r="D225" t="s">
         <v>149</v>
       </c>
-      <c r="J225" t="s">
-        <v>314</v>
+      <c r="J225" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="K225" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -5954,16 +5988,16 @@
         <v>150</v>
       </c>
       <c r="D226" t="s">
-        <v>155</v>
-      </c>
-      <c r="J226" t="s">
-        <v>208</v>
+        <v>160</v>
+      </c>
+      <c r="J226" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="K226" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -5971,16 +6005,16 @@
         <v>151</v>
       </c>
       <c r="D227" t="s">
-        <v>158</v>
-      </c>
-      <c r="J227" t="s">
-        <v>315</v>
+        <v>163</v>
+      </c>
+      <c r="J227" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="K227" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
       <c r="A228" t="s">
         <v>11</v>
       </c>
@@ -5988,16 +6022,16 @@
         <v>152</v>
       </c>
       <c r="D228" t="s">
-        <v>155</v>
-      </c>
-      <c r="J228" t="s">
-        <v>316</v>
+        <v>160</v>
+      </c>
+      <c r="J228" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="K228" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
       <c r="A229" t="s">
         <v>11</v>
       </c>
@@ -6005,27 +6039,27 @@
         <v>153</v>
       </c>
       <c r="D229" t="s">
-        <v>157</v>
-      </c>
-      <c r="J229" t="s">
-        <v>317</v>
+        <v>162</v>
+      </c>
+      <c r="J229" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="K229" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
       <c r="A230" t="s">
         <v>12</v>
       </c>
-      <c r="J230" t="s">
-        <v>255</v>
+      <c r="J230" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="K230" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
       <c r="A231" t="s">
         <v>12</v>
       </c>
@@ -6033,7 +6067,7 @@
         <v>148</v>
       </c>
       <c r="D231" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -6041,14 +6075,14 @@
       <c r="F231" t="b">
         <v>1</v>
       </c>
-      <c r="J231" t="s">
-        <v>298</v>
+      <c r="J231" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="K231" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
       <c r="A232" t="s">
         <v>12</v>
       </c>
@@ -6056,16 +6090,16 @@
         <v>137</v>
       </c>
       <c r="D232" t="s">
-        <v>155</v>
-      </c>
-      <c r="J232" t="s">
-        <v>299</v>
+        <v>160</v>
+      </c>
+      <c r="J232" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="K232" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
       <c r="A233" t="s">
         <v>12</v>
       </c>
@@ -6073,16 +6107,16 @@
         <v>138</v>
       </c>
       <c r="D233" t="s">
-        <v>157</v>
-      </c>
-      <c r="J233" t="s">
-        <v>306</v>
+        <v>162</v>
+      </c>
+      <c r="J233" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="K233" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
       <c r="A234" t="s">
         <v>12</v>
       </c>
@@ -6090,16 +6124,16 @@
         <v>154</v>
       </c>
       <c r="D234" t="s">
-        <v>155</v>
-      </c>
-      <c r="J234" t="s">
-        <v>318</v>
+        <v>160</v>
+      </c>
+      <c r="J234" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="K234" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
       <c r="A235" t="s">
         <v>12</v>
       </c>
@@ -6107,16 +6141,394 @@
         <v>147</v>
       </c>
       <c r="D235" t="s">
+        <v>160</v>
+      </c>
+      <c r="J235" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="K235" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
+      <c r="A236" t="s">
+        <v>0</v>
+      </c>
+      <c r="C236" t="s">
         <v>155</v>
       </c>
-      <c r="J235" t="s">
-        <v>313</v>
-      </c>
-      <c r="K235" t="s">
-        <v>460</v>
+      <c r="D236" t="s">
+        <v>169</v>
+      </c>
+      <c r="H236" t="s">
+        <v>3</v>
+      </c>
+      <c r="J236" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K236" t="s">
+        <v>388</v>
+      </c>
+      <c r="L236" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
+      <c r="A237" t="s">
+        <v>0</v>
+      </c>
+      <c r="C237" t="s">
+        <v>156</v>
+      </c>
+      <c r="D237" t="s">
+        <v>169</v>
+      </c>
+      <c r="H237" t="s">
+        <v>4</v>
+      </c>
+      <c r="J237" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K237" t="s">
+        <v>401</v>
+      </c>
+      <c r="L237" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
+      <c r="A238" t="s">
+        <v>0</v>
+      </c>
+      <c r="C238" t="s">
+        <v>157</v>
+      </c>
+      <c r="D238" t="s">
+        <v>169</v>
+      </c>
+      <c r="H238" t="s">
+        <v>7</v>
+      </c>
+      <c r="J238" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K238" t="s">
+        <v>442</v>
+      </c>
+      <c r="L238" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
+      <c r="A239" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239" t="s">
+        <v>158</v>
+      </c>
+      <c r="D239" t="s">
+        <v>169</v>
+      </c>
+      <c r="H239" t="s">
+        <v>5</v>
+      </c>
+      <c r="J239" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K239" t="s">
+        <v>401</v>
+      </c>
+      <c r="L239" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
+      <c r="A240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" t="s">
+        <v>159</v>
+      </c>
+      <c r="D240" t="s">
+        <v>169</v>
+      </c>
+      <c r="H240" t="s">
+        <v>6</v>
+      </c>
+      <c r="J240" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K240" t="s">
+        <v>416</v>
+      </c>
+      <c r="L240" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
+      <c r="A241" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241" t="s">
+        <v>157</v>
+      </c>
+      <c r="D241" t="s">
+        <v>169</v>
+      </c>
+      <c r="H241" t="s">
+        <v>7</v>
+      </c>
+      <c r="J241" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K241" t="s">
+        <v>442</v>
+      </c>
+      <c r="L241" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J4" r:id="rId3"/>
+    <hyperlink ref="J5" r:id="rId4"/>
+    <hyperlink ref="J6" r:id="rId5"/>
+    <hyperlink ref="J7" r:id="rId6"/>
+    <hyperlink ref="J8" r:id="rId7"/>
+    <hyperlink ref="J9" r:id="rId8"/>
+    <hyperlink ref="J10" r:id="rId9"/>
+    <hyperlink ref="J11" r:id="rId10"/>
+    <hyperlink ref="J12" r:id="rId11"/>
+    <hyperlink ref="J13" r:id="rId12"/>
+    <hyperlink ref="J14" r:id="rId13"/>
+    <hyperlink ref="J15" r:id="rId14"/>
+    <hyperlink ref="J16" r:id="rId15"/>
+    <hyperlink ref="J17" r:id="rId16"/>
+    <hyperlink ref="J18" r:id="rId17"/>
+    <hyperlink ref="J19" r:id="rId18"/>
+    <hyperlink ref="J20" r:id="rId19"/>
+    <hyperlink ref="J21" r:id="rId20"/>
+    <hyperlink ref="J22" r:id="rId21"/>
+    <hyperlink ref="J23" r:id="rId22"/>
+    <hyperlink ref="J24" r:id="rId23"/>
+    <hyperlink ref="J25" r:id="rId24"/>
+    <hyperlink ref="J26" r:id="rId25"/>
+    <hyperlink ref="J27" r:id="rId26"/>
+    <hyperlink ref="J28" r:id="rId27"/>
+    <hyperlink ref="J29" r:id="rId28"/>
+    <hyperlink ref="J30" r:id="rId29"/>
+    <hyperlink ref="J31" r:id="rId30"/>
+    <hyperlink ref="J32" r:id="rId31"/>
+    <hyperlink ref="J33" r:id="rId32"/>
+    <hyperlink ref="J34" r:id="rId33"/>
+    <hyperlink ref="J35" r:id="rId34"/>
+    <hyperlink ref="J36" r:id="rId35"/>
+    <hyperlink ref="J37" r:id="rId36" location="wasUpdatedBy"/>
+    <hyperlink ref="J38" r:id="rId37"/>
+    <hyperlink ref="J39" r:id="rId38"/>
+    <hyperlink ref="J40" r:id="rId39"/>
+    <hyperlink ref="J41" r:id="rId40"/>
+    <hyperlink ref="J42" r:id="rId41"/>
+    <hyperlink ref="J43" r:id="rId42"/>
+    <hyperlink ref="J44" r:id="rId43"/>
+    <hyperlink ref="J45" r:id="rId44"/>
+    <hyperlink ref="J46" r:id="rId45"/>
+    <hyperlink ref="J47" r:id="rId46"/>
+    <hyperlink ref="J48" r:id="rId47"/>
+    <hyperlink ref="J49" r:id="rId48"/>
+    <hyperlink ref="J50" r:id="rId49"/>
+    <hyperlink ref="J52" r:id="rId50"/>
+    <hyperlink ref="J53" r:id="rId51"/>
+    <hyperlink ref="J54" r:id="rId52"/>
+    <hyperlink ref="J55" r:id="rId53"/>
+    <hyperlink ref="J56" r:id="rId54"/>
+    <hyperlink ref="J57" r:id="rId55"/>
+    <hyperlink ref="J58" r:id="rId56" location="wasUpdatedBy"/>
+    <hyperlink ref="J59" r:id="rId57"/>
+    <hyperlink ref="J60" r:id="rId58"/>
+    <hyperlink ref="J61" r:id="rId59"/>
+    <hyperlink ref="J62" r:id="rId60"/>
+    <hyperlink ref="J63" r:id="rId61"/>
+    <hyperlink ref="J64" r:id="rId62"/>
+    <hyperlink ref="J65" r:id="rId63"/>
+    <hyperlink ref="J66" r:id="rId64"/>
+    <hyperlink ref="J67" r:id="rId65"/>
+    <hyperlink ref="J68" r:id="rId66"/>
+    <hyperlink ref="J69" r:id="rId67"/>
+    <hyperlink ref="J71" r:id="rId68"/>
+    <hyperlink ref="J72" r:id="rId69"/>
+    <hyperlink ref="J73" r:id="rId70"/>
+    <hyperlink ref="J74" r:id="rId71"/>
+    <hyperlink ref="J75" r:id="rId72"/>
+    <hyperlink ref="J76" r:id="rId73"/>
+    <hyperlink ref="J77" r:id="rId74"/>
+    <hyperlink ref="J78" r:id="rId75" location="wasUpdatedBy"/>
+    <hyperlink ref="J79" r:id="rId76"/>
+    <hyperlink ref="J80" r:id="rId77"/>
+    <hyperlink ref="J81" r:id="rId78"/>
+    <hyperlink ref="J82" r:id="rId79"/>
+    <hyperlink ref="J83" r:id="rId80"/>
+    <hyperlink ref="J84" r:id="rId81"/>
+    <hyperlink ref="J85" r:id="rId82"/>
+    <hyperlink ref="J86" r:id="rId83"/>
+    <hyperlink ref="J87" r:id="rId84"/>
+    <hyperlink ref="J88" r:id="rId85"/>
+    <hyperlink ref="J89" r:id="rId86"/>
+    <hyperlink ref="J90" r:id="rId87"/>
+    <hyperlink ref="J91" r:id="rId88"/>
+    <hyperlink ref="J92" r:id="rId89"/>
+    <hyperlink ref="J93" r:id="rId90"/>
+    <hyperlink ref="J94" r:id="rId91"/>
+    <hyperlink ref="J95" r:id="rId92"/>
+    <hyperlink ref="J96" r:id="rId93"/>
+    <hyperlink ref="J97" r:id="rId94"/>
+    <hyperlink ref="J98" r:id="rId95"/>
+    <hyperlink ref="J99" r:id="rId96"/>
+    <hyperlink ref="J100" r:id="rId97"/>
+    <hyperlink ref="J101" r:id="rId98" location="wasUpdatedBy"/>
+    <hyperlink ref="J102" r:id="rId99"/>
+    <hyperlink ref="J103" r:id="rId100"/>
+    <hyperlink ref="J104" r:id="rId101"/>
+    <hyperlink ref="J105" r:id="rId102"/>
+    <hyperlink ref="J106" r:id="rId103"/>
+    <hyperlink ref="J107" r:id="rId104"/>
+    <hyperlink ref="J108" r:id="rId105"/>
+    <hyperlink ref="J109" r:id="rId106"/>
+    <hyperlink ref="J110" r:id="rId107"/>
+    <hyperlink ref="J111" r:id="rId108"/>
+    <hyperlink ref="J112" r:id="rId109"/>
+    <hyperlink ref="J113" r:id="rId110"/>
+    <hyperlink ref="J114" r:id="rId111"/>
+    <hyperlink ref="J115" r:id="rId112"/>
+    <hyperlink ref="J116" r:id="rId113"/>
+    <hyperlink ref="J117" r:id="rId114"/>
+    <hyperlink ref="J118" r:id="rId115"/>
+    <hyperlink ref="J119" r:id="rId116"/>
+    <hyperlink ref="J120" r:id="rId117"/>
+    <hyperlink ref="J121" r:id="rId118"/>
+    <hyperlink ref="J122" r:id="rId119"/>
+    <hyperlink ref="J123" r:id="rId120"/>
+    <hyperlink ref="J124" r:id="rId121" location="wasUpdatedBy"/>
+    <hyperlink ref="J125" r:id="rId122"/>
+    <hyperlink ref="J126" r:id="rId123"/>
+    <hyperlink ref="J127" r:id="rId124"/>
+    <hyperlink ref="J128" r:id="rId125"/>
+    <hyperlink ref="J129" r:id="rId126"/>
+    <hyperlink ref="J130" r:id="rId127" location="AFRL_0000010"/>
+    <hyperlink ref="J131" r:id="rId128"/>
+    <hyperlink ref="J132" r:id="rId129"/>
+    <hyperlink ref="J133" r:id="rId130"/>
+    <hyperlink ref="J134" r:id="rId131"/>
+    <hyperlink ref="J135" r:id="rId132"/>
+    <hyperlink ref="J136" r:id="rId133"/>
+    <hyperlink ref="J137" r:id="rId134"/>
+    <hyperlink ref="J138" r:id="rId135"/>
+    <hyperlink ref="J139" r:id="rId136"/>
+    <hyperlink ref="J140" r:id="rId137"/>
+    <hyperlink ref="J141" r:id="rId138"/>
+    <hyperlink ref="J142" r:id="rId139"/>
+    <hyperlink ref="J143" r:id="rId140"/>
+    <hyperlink ref="J144" r:id="rId141"/>
+    <hyperlink ref="J145" r:id="rId142" location="wasUpdatedBy"/>
+    <hyperlink ref="J146" r:id="rId143"/>
+    <hyperlink ref="J147" r:id="rId144"/>
+    <hyperlink ref="J148" r:id="rId145"/>
+    <hyperlink ref="J149" r:id="rId146"/>
+    <hyperlink ref="J150" r:id="rId147"/>
+    <hyperlink ref="J151" r:id="rId148"/>
+    <hyperlink ref="J152" r:id="rId149"/>
+    <hyperlink ref="J153" r:id="rId150"/>
+    <hyperlink ref="J154" r:id="rId151"/>
+    <hyperlink ref="J155" r:id="rId152"/>
+    <hyperlink ref="J156" r:id="rId153"/>
+    <hyperlink ref="J157" r:id="rId154"/>
+    <hyperlink ref="J158" r:id="rId155"/>
+    <hyperlink ref="J159" r:id="rId156"/>
+    <hyperlink ref="J160" r:id="rId157"/>
+    <hyperlink ref="J161" r:id="rId158"/>
+    <hyperlink ref="J162" r:id="rId159"/>
+    <hyperlink ref="J163" r:id="rId160"/>
+    <hyperlink ref="J164" r:id="rId161"/>
+    <hyperlink ref="J165" r:id="rId162"/>
+    <hyperlink ref="J166" r:id="rId163"/>
+    <hyperlink ref="J167" r:id="rId164"/>
+    <hyperlink ref="J168" r:id="rId165"/>
+    <hyperlink ref="J169" r:id="rId166" location="wasUpdatedBy"/>
+    <hyperlink ref="J170" r:id="rId167"/>
+    <hyperlink ref="J171" r:id="rId168"/>
+    <hyperlink ref="J172" r:id="rId169"/>
+    <hyperlink ref="J173" r:id="rId170"/>
+    <hyperlink ref="J174" r:id="rId171"/>
+    <hyperlink ref="J175" r:id="rId172"/>
+    <hyperlink ref="J176" r:id="rId173"/>
+    <hyperlink ref="J177" r:id="rId174"/>
+    <hyperlink ref="J178" r:id="rId175"/>
+    <hyperlink ref="J179" r:id="rId176"/>
+    <hyperlink ref="J180" r:id="rId177"/>
+    <hyperlink ref="J181" r:id="rId178"/>
+    <hyperlink ref="J182" r:id="rId179"/>
+    <hyperlink ref="J183" r:id="rId180"/>
+    <hyperlink ref="J184" r:id="rId181"/>
+    <hyperlink ref="J185" r:id="rId182"/>
+    <hyperlink ref="J186" r:id="rId183"/>
+    <hyperlink ref="J187" r:id="rId184"/>
+    <hyperlink ref="J188" r:id="rId185"/>
+    <hyperlink ref="J189" r:id="rId186"/>
+    <hyperlink ref="J190" r:id="rId187"/>
+    <hyperlink ref="J191" r:id="rId188"/>
+    <hyperlink ref="J192" r:id="rId189" location="wasUpdatedBy"/>
+    <hyperlink ref="J193" r:id="rId190"/>
+    <hyperlink ref="J194" r:id="rId191"/>
+    <hyperlink ref="J195" r:id="rId192"/>
+    <hyperlink ref="J196" r:id="rId193"/>
+    <hyperlink ref="J197" r:id="rId194"/>
+    <hyperlink ref="J198" r:id="rId195"/>
+    <hyperlink ref="J199" r:id="rId196"/>
+    <hyperlink ref="J200" r:id="rId197"/>
+    <hyperlink ref="J201" r:id="rId198"/>
+    <hyperlink ref="J202" r:id="rId199"/>
+    <hyperlink ref="J203" r:id="rId200"/>
+    <hyperlink ref="J204" r:id="rId201"/>
+    <hyperlink ref="J205" r:id="rId202"/>
+    <hyperlink ref="J206" r:id="rId203"/>
+    <hyperlink ref="J207" r:id="rId204" location="wasUpdatedBy"/>
+    <hyperlink ref="J208" r:id="rId205"/>
+    <hyperlink ref="J209" r:id="rId206"/>
+    <hyperlink ref="J210" r:id="rId207"/>
+    <hyperlink ref="J211" r:id="rId208"/>
+    <hyperlink ref="J212" r:id="rId209"/>
+    <hyperlink ref="J213" r:id="rId210"/>
+    <hyperlink ref="J214" r:id="rId211"/>
+    <hyperlink ref="J215" r:id="rId212"/>
+    <hyperlink ref="J216" r:id="rId213"/>
+    <hyperlink ref="J217" r:id="rId214"/>
+    <hyperlink ref="J218" r:id="rId215"/>
+    <hyperlink ref="J219" r:id="rId216"/>
+    <hyperlink ref="J220" r:id="rId217"/>
+    <hyperlink ref="J221" r:id="rId218"/>
+    <hyperlink ref="J222" r:id="rId219"/>
+    <hyperlink ref="J223" r:id="rId220"/>
+    <hyperlink ref="J224" r:id="rId221"/>
+    <hyperlink ref="J225" r:id="rId222"/>
+    <hyperlink ref="J226" r:id="rId223"/>
+    <hyperlink ref="J227" r:id="rId224"/>
+    <hyperlink ref="J228" r:id="rId225"/>
+    <hyperlink ref="J229" r:id="rId226"/>
+    <hyperlink ref="J230" r:id="rId227"/>
+    <hyperlink ref="J231" r:id="rId228"/>
+    <hyperlink ref="J232" r:id="rId229"/>
+    <hyperlink ref="J233" r:id="rId230"/>
+    <hyperlink ref="J234" r:id="rId231"/>
+    <hyperlink ref="J235" r:id="rId232"/>
+    <hyperlink ref="J236" r:id="rId233"/>
+    <hyperlink ref="J237" r:id="rId234"/>
+    <hyperlink ref="J238" r:id="rId235"/>
+    <hyperlink ref="J239" r:id="rId236"/>
+    <hyperlink ref="J240" r:id="rId237"/>
+    <hyperlink ref="J241" r:id="rId238"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dist/umdm_emx2.xlsx
+++ b/dist/umdm_emx2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="483">
   <si>
     <t>subjects</t>
   </si>
@@ -25,6 +25,9 @@
     <t>consent</t>
   </si>
   <si>
+    <t>signedconsents</t>
+  </si>
+  <si>
     <t>clinical</t>
   </si>
   <si>
@@ -199,34 +202,34 @@
     <t>belongsToSubject</t>
   </si>
   <si>
+    <t>signedForms</t>
+  </si>
+  <si>
+    <t>allowUseOfMaterial</t>
+  </si>
+  <si>
+    <t>allowRecontacting</t>
+  </si>
+  <si>
+    <t>allowGeneralResearchUse</t>
+  </si>
+  <si>
+    <t>allowRecontactingForIncidentalFindings</t>
+  </si>
+  <si>
+    <t>consentFormUsed</t>
+  </si>
+  <si>
     <t>collectedBy</t>
   </si>
   <si>
-    <t>signingDate</t>
-  </si>
-  <si>
-    <t>validUntil</t>
+    <t>dateFormedSigned</t>
   </si>
   <si>
     <t>consentWithdrawn</t>
   </si>
   <si>
-    <t>dataUsePermission</t>
-  </si>
-  <si>
-    <t>dataUseModifiers</t>
-  </si>
-  <si>
-    <t>dataUseSpecification</t>
-  </si>
-  <si>
-    <t>allowIncidentalFindingRecontact</t>
-  </si>
-  <si>
-    <t>allowMatchmaker</t>
-  </si>
-  <si>
-    <t>allowRecontacting</t>
+    <t>system</t>
   </si>
   <si>
     <t>clinicalID</t>
@@ -535,9 +538,6 @@
     <t>studyStatus</t>
   </si>
   <si>
-    <t>dataUsePermissions</t>
-  </si>
-  <si>
     <t>phenotype</t>
   </si>
   <si>
@@ -706,10 +706,25 @@
     <t>http://purl.obolibrary.org/obo/NCIT_C153145</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/DUO_0000001</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ICO_0000044</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000136</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C16735</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/ICO_0000044</t>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25737</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DUO_0000042</t>
+  </si>
+  <si>
+    <t>https://w3id.org/fair-genomes/resource/FG_0000745</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C45262</t>
@@ -718,27 +733,9 @@
     <t>http://purl.obolibrary.org/obo/ICO_0000036</t>
   </si>
   <si>
-    <t>http://purl.org/dc/terms/valid</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C176342</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/DUO_0000001</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DUO_0000017</t>
-  </si>
-  <si>
-    <t>http://semanticscience.org/resource/SIO_000090</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/ICO_0000178</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25737</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C25398</t>
   </si>
   <si>
@@ -1141,10 +1138,31 @@
     <t>An integer specifying the quantity of samples collected at the current time.</t>
   </si>
   <si>
+    <t>A data item that is used to indicate consent permissions for datasets and/or materials, and relates to the purposes for which datasets and/or material might be used.</t>
+  </si>
+  <si>
+    <t>A unique proper name or character sequence that identifies this particular signed individual consent.</t>
+  </si>
+  <si>
+    <t>Reference to the subject to whom this individual consent applies.</t>
+  </si>
+  <si>
     <t>Consent given by a patient to a surgical or medical procedure or participation in a study, examination or analysis after achieving an understanding of the relevant medical facts and the risks involved.</t>
   </si>
   <si>
-    <t>A unique proper name or character sequence that identifies this particular signed individual consent.</t>
+    <t>This data use limitation indicates that use includes methods development research(e.g., development of software or algorithms). Anonymous use of materials for the development of or for improvement of new techniques.</t>
+  </si>
+  <si>
+    <t>The procedure of recontacting the patient for specified reasons. This means the patient agrees to be re-identifiable under those circumstances.</t>
+  </si>
+  <si>
+    <t>This data use limitation indicates that use is allowed for general research use for any research purpose.</t>
+  </si>
+  <si>
+    <t>Willingness to be recontacted when new knowledge regarding incidental findings becomes available to benefit the patient.</t>
+  </si>
+  <si>
+    <t>Reference to the informed consent form that was signed. Points to a particular instance of leaflet and consent form that usually exists as a record (i.e. a row) within the same database as this individual consent.</t>
   </si>
   <si>
     <t>Indicates the person, group, or institution who performed the collection act.</t>
@@ -1153,28 +1171,7 @@
     <t>A date specification that designates when this individual consent form was signed.</t>
   </si>
   <si>
-    <t>End date of the validity of this individual consent.</t>
-  </si>
-  <si>
     <t>An indication that the consent to participate in the study or one or more segments of the study has been revoked.</t>
-  </si>
-  <si>
-    <t>A data item that is used to indicate consent permissions for datasets and/or materials, and relates to the purposes for which datasets and/or material might be used.</t>
-  </si>
-  <si>
-    <t>Data use modifiers indicate additional conditions for use. For instance, a dataset is restricted to investigations into specific diseases or performed at specific geographical locations.</t>
-  </si>
-  <si>
-    <t>Further specification of applied data use permissions and modifiers. For example, a list of countries in case of geographic restrictions or a list of diseases when restricted to disease-specific research.</t>
-  </si>
-  <si>
-    <t>A planned process for a subject agrees not to be informed about any incidental finding.</t>
-  </si>
-  <si>
-    <t>Permission is given for MatchMaking</t>
-  </si>
-  <si>
-    <t>The procedure of recontacting the patient for specified reasons. This means the patient agrees to be re-identifiable under those circumstances.</t>
   </si>
   <si>
     <t>Findings and circumstances relating to the examination and treatment of a patient.</t>
@@ -1825,7 +1822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L241"/>
+  <dimension ref="A1:L237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1833,40 +1830,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>483</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1877,7 +1874,7 @@
         <v>182</v>
       </c>
       <c r="K2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1885,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1900,7 +1897,7 @@
         <v>183</v>
       </c>
       <c r="K3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1908,16 +1905,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>184</v>
       </c>
       <c r="K4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1925,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -1937,7 +1934,7 @@
         <v>185</v>
       </c>
       <c r="K5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1945,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -1957,7 +1954,7 @@
         <v>186</v>
       </c>
       <c r="K6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1965,16 +1962,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>187</v>
       </c>
       <c r="K7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1982,22 +1979,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>188</v>
       </c>
       <c r="K8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2005,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>189</v>
       </c>
       <c r="K9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2022,16 +2019,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>190</v>
       </c>
       <c r="K10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2039,16 +2036,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>191</v>
       </c>
       <c r="K11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2056,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>192</v>
       </c>
       <c r="K12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2073,16 +2070,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>193</v>
       </c>
       <c r="K13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2090,22 +2087,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>194</v>
       </c>
       <c r="K14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2113,22 +2110,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>195</v>
       </c>
       <c r="K15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2136,22 +2133,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>196</v>
       </c>
       <c r="K16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2159,22 +2156,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>197</v>
       </c>
       <c r="K17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2182,22 +2179,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>198</v>
       </c>
       <c r="K18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2205,22 +2202,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>199</v>
       </c>
       <c r="K19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2228,16 +2225,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2245,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>200</v>
       </c>
       <c r="K21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2265,16 +2262,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>201</v>
       </c>
       <c r="K22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2282,16 +2279,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>202</v>
       </c>
       <c r="K23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2299,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>203</v>
       </c>
       <c r="K24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2316,16 +2313,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>204</v>
       </c>
       <c r="K25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2333,16 +2330,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>205</v>
       </c>
       <c r="K26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2350,16 +2347,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>206</v>
       </c>
       <c r="K27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2367,16 +2364,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>207</v>
       </c>
       <c r="K28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2384,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H29" t="s">
         <v>1</v>
@@ -2396,7 +2393,7 @@
         <v>208</v>
       </c>
       <c r="K29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2404,19 +2401,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>209</v>
       </c>
       <c r="K30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2424,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>210</v>
       </c>
       <c r="K31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2444,16 +2441,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>211</v>
       </c>
       <c r="K32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2461,16 +2458,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>212</v>
       </c>
       <c r="K33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2478,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
@@ -2490,7 +2487,7 @@
         <v>213</v>
       </c>
       <c r="K34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2498,10 +2495,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
@@ -2510,7 +2507,7 @@
         <v>214</v>
       </c>
       <c r="K35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2518,16 +2515,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>215</v>
       </c>
       <c r="K36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2535,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>216</v>
       </c>
       <c r="K37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2555,7 +2552,7 @@
         <v>217</v>
       </c>
       <c r="K38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2563,10 +2560,10 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2578,7 +2575,7 @@
         <v>218</v>
       </c>
       <c r="K39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2586,16 +2583,16 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>219</v>
       </c>
       <c r="K40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2603,16 +2600,16 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>220</v>
       </c>
       <c r="K41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2620,22 +2617,22 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>221</v>
       </c>
       <c r="K42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2643,16 +2640,16 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>222</v>
       </c>
       <c r="K43" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2660,16 +2657,16 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>223</v>
       </c>
       <c r="K44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2677,16 +2674,16 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>224</v>
       </c>
       <c r="K45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2694,16 +2691,16 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>225</v>
       </c>
       <c r="K46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2711,16 +2708,16 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>226</v>
       </c>
       <c r="K47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2728,16 +2725,16 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>227</v>
       </c>
       <c r="K48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2745,22 +2742,22 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>228</v>
       </c>
       <c r="K49" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2768,16 +2765,16 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>229</v>
       </c>
       <c r="K50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2785,13 +2782,13 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K51" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2799,19 +2796,19 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>210</v>
       </c>
       <c r="K52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2819,16 +2816,16 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>211</v>
       </c>
       <c r="K53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2836,16 +2833,16 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>212</v>
       </c>
       <c r="K54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2853,10 +2850,10 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
@@ -2865,7 +2862,7 @@
         <v>213</v>
       </c>
       <c r="K55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2873,10 +2870,10 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
@@ -2885,7 +2882,7 @@
         <v>214</v>
       </c>
       <c r="K56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2893,16 +2890,16 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>215</v>
       </c>
       <c r="K57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2910,16 +2907,16 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>216</v>
       </c>
       <c r="K58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2930,7 +2927,7 @@
         <v>230</v>
       </c>
       <c r="K59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2938,10 +2935,10 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2953,7 +2950,7 @@
         <v>231</v>
       </c>
       <c r="K60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2961,19 +2958,19 @@
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H61" t="s">
         <v>0</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="K61" t="s">
-        <v>326</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2981,13 +2978,16 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>160</v>
+        <v>168</v>
+      </c>
+      <c r="H62" t="s">
+        <v>3</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K62" t="s">
         <v>377</v>
@@ -2998,13 +2998,10 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D63" t="s">
-        <v>149</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="K63" t="s">
         <v>378</v>
@@ -3015,10 +3012,10 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D64" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>234</v>
@@ -3032,10 +3029,10 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>235</v>
@@ -3049,17 +3046,11 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D66" t="s">
         <v>167</v>
       </c>
-      <c r="G66" t="s">
-        <v>170</v>
-      </c>
-      <c r="H66" t="s">
-        <v>173</v>
-      </c>
       <c r="J66" s="2" t="s">
         <v>236</v>
       </c>
@@ -3069,2827 +3060,2812 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67" t="s">
-        <v>167</v>
-      </c>
-      <c r="G67" t="s">
-        <v>170</v>
-      </c>
-      <c r="H67" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K67" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="b">
+        <v>1</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K68" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D69" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="H69" t="s">
+        <v>0</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K69" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>161</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="K70" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D71" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K71" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>167</v>
-      </c>
-      <c r="H72" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="K72" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D73" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="K73" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D74" t="s">
-        <v>162</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="K74" t="s">
-        <v>356</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75" t="s">
-        <v>44</v>
-      </c>
-      <c r="D75" t="s">
-        <v>168</v>
-      </c>
-      <c r="F75" t="b">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="K75" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D76" t="s">
-        <v>160</v>
-      </c>
-      <c r="F76" t="b">
+        <v>161</v>
+      </c>
+      <c r="E76">
         <v>1</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="K76" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D77" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="H77" t="s">
+        <v>0</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="K77" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D78" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="K78" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>74</v>
+      </c>
+      <c r="D79" t="s">
+        <v>150</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K79" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K80" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D81" t="s">
-        <v>161</v>
-      </c>
-      <c r="H81" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="K81" t="s">
-        <v>326</v>
+        <v>391</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D82" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="G82" t="s">
+        <v>171</v>
+      </c>
+      <c r="H82" t="s">
+        <v>174</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K82" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D83" t="s">
-        <v>149</v>
+        <v>168</v>
+      </c>
+      <c r="G83" t="s">
+        <v>171</v>
+      </c>
+      <c r="H83" t="s">
+        <v>174</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K83" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D84" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+      <c r="G84" t="s">
+        <v>171</v>
+      </c>
+      <c r="H84" t="s">
+        <v>174</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K84" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D85" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+      <c r="G85" t="s">
+        <v>171</v>
+      </c>
+      <c r="H85" t="s">
+        <v>175</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K85" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G86" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H86" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K86" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D87" t="s">
-        <v>167</v>
-      </c>
-      <c r="G87" t="s">
-        <v>170</v>
-      </c>
-      <c r="H87" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K87" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D88" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H88" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K88" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D89" t="s">
-        <v>167</v>
-      </c>
-      <c r="G89" t="s">
-        <v>170</v>
-      </c>
-      <c r="H89" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K89" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D90" t="s">
-        <v>167</v>
-      </c>
-      <c r="G90" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H90" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K90" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="D91" t="s">
-        <v>162</v>
+        <v>168</v>
+      </c>
+      <c r="H91" t="s">
+        <v>12</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="K91" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="D92" t="s">
-        <v>161</v>
-      </c>
-      <c r="G92" t="s">
-        <v>170</v>
-      </c>
-      <c r="H92" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="K92" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="D93" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="K93" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D94" t="s">
-        <v>167</v>
-      </c>
-      <c r="H94" t="s">
-        <v>4</v>
+        <v>169</v>
+      </c>
+      <c r="F94" t="b">
+        <v>1</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="K94" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D95" t="s">
-        <v>167</v>
-      </c>
-      <c r="H95" t="s">
-        <v>11</v>
+        <v>161</v>
+      </c>
+      <c r="F95" t="b">
+        <v>1</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K95" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D96" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K96" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K97" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98" t="s">
-        <v>44</v>
-      </c>
-      <c r="D98" t="s">
-        <v>168</v>
-      </c>
-      <c r="F98" t="b">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="K98" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="D99" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
       </c>
       <c r="F99" t="b">
         <v>1</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="K99" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D100" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="H100" t="s">
+        <v>0</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="K100" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D101" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="K101" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>88</v>
+      </c>
+      <c r="D102" t="s">
+        <v>150</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K102" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D103" t="s">
-        <v>160</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-      <c r="F103" t="b">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="G103" t="s">
+        <v>171</v>
+      </c>
+      <c r="H103" t="s">
+        <v>177</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K103" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D104" t="s">
-        <v>161</v>
-      </c>
-      <c r="H104" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="K104" t="s">
-        <v>326</v>
+        <v>405</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D105" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K105" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D106" t="s">
-        <v>149</v>
+        <v>168</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K106" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D107" t="s">
-        <v>167</v>
-      </c>
-      <c r="G107" t="s">
-        <v>170</v>
-      </c>
-      <c r="H107" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K107" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D108" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K108" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D109" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="G109" t="s">
+        <v>171</v>
+      </c>
+      <c r="H109" t="s">
+        <v>95</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K109" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D110" t="s">
-        <v>167</v>
+        <v>162</v>
+      </c>
+      <c r="G110" t="s">
+        <v>171</v>
       </c>
       <c r="H110" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K110" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D111" t="s">
         <v>162</v>
       </c>
+      <c r="G111" t="s">
+        <v>171</v>
+      </c>
+      <c r="H111" t="s">
+        <v>97</v>
+      </c>
       <c r="J111" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K111" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D112" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K112" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D113" t="s">
         <v>161</v>
       </c>
-      <c r="G113" t="s">
-        <v>170</v>
-      </c>
-      <c r="H113" t="s">
-        <v>94</v>
-      </c>
       <c r="J113" s="2" t="s">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="K113" t="s">
-        <v>411</v>
+        <v>346</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="D114" t="s">
-        <v>161</v>
-      </c>
-      <c r="G114" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H114" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="K114" t="s">
-        <v>412</v>
+        <v>353</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="D115" t="s">
-        <v>161</v>
-      </c>
-      <c r="G115" t="s">
-        <v>170</v>
-      </c>
-      <c r="H115" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="K115" t="s">
-        <v>413</v>
+        <v>354</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D116" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="K116" t="s">
-        <v>414</v>
+        <v>355</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D117" t="s">
-        <v>160</v>
+        <v>169</v>
+      </c>
+      <c r="F117" t="b">
+        <v>1</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="K117" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D118" t="s">
-        <v>167</v>
-      </c>
-      <c r="H118" t="s">
-        <v>11</v>
+        <v>161</v>
+      </c>
+      <c r="F118" t="b">
+        <v>1</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K118" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D119" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K119" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K120" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" t="s">
-        <v>44</v>
-      </c>
-      <c r="D121" t="s">
-        <v>168</v>
-      </c>
-      <c r="F121" t="b">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="K121" t="s">
-        <v>357</v>
+        <v>414</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D122" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
       </c>
       <c r="F122" t="b">
         <v>1</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="K122" t="s">
-        <v>358</v>
+        <v>415</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D123" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="H123" t="s">
+        <v>5</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="K123" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="D124" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="H124" t="s">
+        <v>10</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="K124" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>87</v>
+      </c>
+      <c r="D125" t="s">
+        <v>161</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="K125" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D126" t="s">
-        <v>160</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-      <c r="F126" t="b">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K126" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D127" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="G127" t="s">
+        <v>171</v>
       </c>
       <c r="H127" t="s">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K127" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D128" t="s">
-        <v>161</v>
-      </c>
-      <c r="H128" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K128" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D129" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="G129" t="s">
+        <v>171</v>
+      </c>
+      <c r="H129" t="s">
+        <v>178</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="K129" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D130" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K130" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D131" t="s">
-        <v>161</v>
-      </c>
-      <c r="G131" t="s">
-        <v>170</v>
-      </c>
-      <c r="H131" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K131" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D132" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K132" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D133" t="s">
         <v>161</v>
       </c>
-      <c r="G133" t="s">
-        <v>170</v>
-      </c>
-      <c r="H133" t="s">
-        <v>178</v>
-      </c>
       <c r="J133" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K133" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D134" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K134" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="D135" t="s">
-        <v>163</v>
+        <v>168</v>
+      </c>
+      <c r="H135" t="s">
+        <v>12</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="K135" t="s">
-        <v>423</v>
+        <v>353</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D136" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="K136" t="s">
-        <v>424</v>
+        <v>354</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="D137" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="K137" t="s">
-        <v>425</v>
+        <v>355</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="D138" t="s">
-        <v>160</v>
+        <v>169</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="K138" t="s">
-        <v>426</v>
+        <v>356</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D139" t="s">
-        <v>167</v>
-      </c>
-      <c r="H139" t="s">
-        <v>11</v>
+        <v>161</v>
+      </c>
+      <c r="F139" t="b">
+        <v>1</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K139" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D140" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K140" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D141" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K141" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C142" t="s">
-        <v>44</v>
-      </c>
-      <c r="D142" t="s">
-        <v>168</v>
-      </c>
-      <c r="F142" t="b">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="K142" t="s">
-        <v>357</v>
+        <v>426</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="D143" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
       </c>
       <c r="F143" t="b">
         <v>1</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="K143" t="s">
-        <v>358</v>
+        <v>427</v>
       </c>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="D144" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="H144" t="s">
+        <v>10</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="K144" t="s">
-        <v>359</v>
+        <v>416</v>
       </c>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="D145" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="H145" t="s">
+        <v>6</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="K145" t="s">
-        <v>360</v>
+        <v>415</v>
       </c>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>112</v>
+      </c>
+      <c r="D146" t="s">
+        <v>162</v>
+      </c>
+      <c r="G146" t="s">
+        <v>171</v>
+      </c>
+      <c r="H146" t="s">
+        <v>177</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K146" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D147" t="s">
-        <v>160</v>
-      </c>
-      <c r="E147">
-        <v>1</v>
-      </c>
-      <c r="F147" t="b">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K147" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D148" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H148" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="K148" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D149" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="G149" t="s">
+        <v>171</v>
       </c>
       <c r="H149" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="K149" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D150" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G150" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H150" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K150" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D151" t="s">
-        <v>149</v>
+        <v>162</v>
+      </c>
+      <c r="G151" t="s">
+        <v>171</v>
+      </c>
+      <c r="H151" t="s">
+        <v>180</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K151" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D152" t="s">
-        <v>161</v>
-      </c>
-      <c r="H152" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K152" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D153" t="s">
-        <v>161</v>
-      </c>
-      <c r="G153" t="s">
-        <v>170</v>
-      </c>
-      <c r="H153" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="K153" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D154" t="s">
-        <v>161</v>
-      </c>
-      <c r="G154" t="s">
-        <v>170</v>
-      </c>
-      <c r="H154" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K154" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D155" t="s">
-        <v>161</v>
-      </c>
-      <c r="G155" t="s">
-        <v>170</v>
-      </c>
-      <c r="H155" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K155" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D156" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K156" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D157" t="s">
         <v>163</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="K157" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D158" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="G158" t="s">
+        <v>171</v>
+      </c>
+      <c r="H158" t="s">
+        <v>181</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K158" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D159" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+      <c r="H159" t="s">
+        <v>12</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>291</v>
+        <v>210</v>
       </c>
       <c r="K159" t="s">
-        <v>437</v>
+        <v>353</v>
       </c>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="D160" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>292</v>
+        <v>211</v>
       </c>
       <c r="K160" t="s">
-        <v>438</v>
+        <v>354</v>
       </c>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="D161" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>293</v>
+        <v>212</v>
       </c>
       <c r="K161" t="s">
-        <v>439</v>
+        <v>355</v>
       </c>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="D162" t="s">
-        <v>161</v>
-      </c>
-      <c r="G162" t="s">
-        <v>170</v>
-      </c>
-      <c r="H162" t="s">
-        <v>181</v>
+        <v>169</v>
+      </c>
+      <c r="F162" t="b">
+        <v>1</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>294</v>
+        <v>213</v>
       </c>
       <c r="K162" t="s">
-        <v>440</v>
+        <v>356</v>
       </c>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D163" t="s">
-        <v>167</v>
-      </c>
-      <c r="H163" t="s">
-        <v>11</v>
+        <v>161</v>
+      </c>
+      <c r="F163" t="b">
+        <v>1</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K163" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D164" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K164" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D165" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K165" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" t="s">
-        <v>6</v>
-      </c>
-      <c r="C166" t="s">
-        <v>44</v>
-      </c>
-      <c r="D166" t="s">
-        <v>168</v>
-      </c>
-      <c r="F166" t="b">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>213</v>
+        <v>294</v>
       </c>
       <c r="K166" t="s">
-        <v>357</v>
+        <v>440</v>
       </c>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="D167" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
       </c>
       <c r="F167" t="b">
         <v>1</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>214</v>
+        <v>295</v>
       </c>
       <c r="K167" t="s">
-        <v>358</v>
+        <v>441</v>
       </c>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="D168" t="s">
         <v>168</v>
       </c>
+      <c r="H168" t="s">
+        <v>7</v>
+      </c>
       <c r="J168" s="2" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="K168" t="s">
-        <v>359</v>
+        <v>427</v>
       </c>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D169" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="H169" t="s">
+        <v>0</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="K169" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>85</v>
+      </c>
+      <c r="D170" t="s">
+        <v>168</v>
+      </c>
+      <c r="H170" t="s">
+        <v>5</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="K170" t="s">
-        <v>441</v>
+        <v>400</v>
       </c>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="D171" t="s">
-        <v>160</v>
-      </c>
-      <c r="E171">
-        <v>1</v>
-      </c>
-      <c r="F171" t="b">
+        <v>168</v>
+      </c>
+      <c r="H171" t="s">
         <v>1</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="K171" t="s">
-        <v>442</v>
+        <v>351</v>
       </c>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="D172" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H172" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="K172" t="s">
-        <v>428</v>
+        <v>352</v>
       </c>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="D173" t="s">
-        <v>161</v>
-      </c>
-      <c r="H173" t="s">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="K173" t="s">
-        <v>326</v>
+        <v>441</v>
       </c>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="D174" t="s">
-        <v>167</v>
-      </c>
-      <c r="H174" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="K174" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D175" t="s">
-        <v>167</v>
-      </c>
-      <c r="H175" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="K175" t="s">
-        <v>352</v>
+        <v>443</v>
       </c>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D176" t="s">
-        <v>167</v>
-      </c>
-      <c r="H176" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="K176" t="s">
-        <v>353</v>
+        <v>444</v>
       </c>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D177" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K177" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D178" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K178" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D179" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="G179" t="s">
+        <v>171</v>
+      </c>
+      <c r="H179" t="s">
+        <v>133</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K179" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D180" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K180" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D181" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>300</v>
+        <v>203</v>
       </c>
       <c r="K181" t="s">
-        <v>446</v>
+        <v>346</v>
       </c>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="D182" t="s">
-        <v>160</v>
+        <v>168</v>
+      </c>
+      <c r="H182" t="s">
+        <v>12</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>301</v>
+        <v>210</v>
       </c>
       <c r="K182" t="s">
-        <v>447</v>
+        <v>353</v>
       </c>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="D183" t="s">
-        <v>161</v>
-      </c>
-      <c r="G183" t="s">
-        <v>170</v>
-      </c>
-      <c r="H183" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>302</v>
+        <v>211</v>
       </c>
       <c r="K183" t="s">
-        <v>448</v>
+        <v>354</v>
       </c>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="D184" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>303</v>
+        <v>212</v>
       </c>
       <c r="K184" t="s">
-        <v>449</v>
+        <v>355</v>
       </c>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="D185" t="s">
-        <v>160</v>
+        <v>169</v>
+      </c>
+      <c r="F185" t="b">
+        <v>1</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="K185" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D186" t="s">
-        <v>167</v>
-      </c>
-      <c r="H186" t="s">
-        <v>11</v>
+        <v>161</v>
+      </c>
+      <c r="F186" t="b">
+        <v>1</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K186" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D187" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K187" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D188" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K188" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" t="s">
-        <v>7</v>
-      </c>
-      <c r="C189" t="s">
-        <v>44</v>
-      </c>
-      <c r="D189" t="s">
-        <v>168</v>
-      </c>
-      <c r="F189" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K189" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="D190" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
       </c>
       <c r="F190" t="b">
         <v>1</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="K190" t="s">
-        <v>358</v>
+        <v>449</v>
       </c>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="D191" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K191" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="D192" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="K192" t="s">
-        <v>360</v>
+        <v>450</v>
       </c>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C193" t="s">
+        <v>139</v>
+      </c>
+      <c r="D193" t="s">
+        <v>163</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
       <c r="K193" t="s">
-        <v>353</v>
+        <v>451</v>
       </c>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="D194" t="s">
-        <v>160</v>
-      </c>
-      <c r="E194">
-        <v>1</v>
-      </c>
-      <c r="F194" t="b">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K194" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="D195" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="K195" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="D196" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K196" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D197" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K197" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D198" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>307</v>
+        <v>211</v>
       </c>
       <c r="K198" t="s">
-        <v>453</v>
+        <v>354</v>
       </c>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D199" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="K199" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D200" t="s">
-        <v>160</v>
+        <v>169</v>
+      </c>
+      <c r="F200" t="b">
+        <v>1</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="K200" t="s">
-        <v>454</v>
+        <v>356</v>
       </c>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="D201" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="F201" t="b">
+        <v>1</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>309</v>
+        <v>214</v>
       </c>
       <c r="K201" t="s">
-        <v>455</v>
+        <v>357</v>
       </c>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D202" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K202" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D203" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K203" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" t="s">
-        <v>8</v>
-      </c>
-      <c r="C204" t="s">
-        <v>44</v>
-      </c>
-      <c r="D204" t="s">
-        <v>168</v>
-      </c>
-      <c r="F204" t="b">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="K204" t="s">
-        <v>357</v>
+        <v>416</v>
       </c>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C205" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="D205" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
       </c>
       <c r="F205" t="b">
         <v>1</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>214</v>
+        <v>309</v>
       </c>
       <c r="K205" t="s">
-        <v>358</v>
+        <v>455</v>
       </c>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C206" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="D206" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>215</v>
+        <v>310</v>
       </c>
       <c r="K206" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C207" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="D207" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>216</v>
+        <v>311</v>
       </c>
       <c r="K207" t="s">
-        <v>360</v>
+        <v>457</v>
       </c>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C208" t="s">
+        <v>143</v>
+      </c>
+      <c r="D208" t="s">
+        <v>161</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="K208" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C209" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D209" t="s">
-        <v>160</v>
-      </c>
-      <c r="E209">
-        <v>1</v>
-      </c>
-      <c r="F209" t="b">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K209" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C210" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D210" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K210" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" t="s">
-        <v>9</v>
-      </c>
-      <c r="C211" t="s">
-        <v>138</v>
-      </c>
-      <c r="D211" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>312</v>
+        <v>200</v>
       </c>
       <c r="K211" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C212" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D212" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212" t="b">
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K212" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C213" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D213" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K213" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C214" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D214" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K214" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C215" t="s">
+        <v>141</v>
+      </c>
+      <c r="D215" t="s">
+        <v>161</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="K215" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C216" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D216" t="s">
-        <v>160</v>
-      </c>
-      <c r="E216">
-        <v>1</v>
-      </c>
-      <c r="F216" t="b">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K216" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" t="s">
-        <v>10</v>
-      </c>
-      <c r="C217" t="s">
-        <v>138</v>
-      </c>
-      <c r="D217" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="K217" t="s">
-        <v>458</v>
+        <v>353</v>
       </c>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C218" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D218" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218" t="b">
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="K218" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C219" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D219" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="K219" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C220" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D220" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="K220" t="s">
         <v>466</v>
@@ -5897,163 +5873,169 @@
     </row>
     <row r="221" spans="1:11">
       <c r="A221" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C221" t="s">
+        <v>150</v>
+      </c>
+      <c r="D221" t="s">
+        <v>150</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>210</v>
+        <v>319</v>
       </c>
       <c r="K221" t="s">
-        <v>354</v>
+        <v>467</v>
       </c>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C222" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D222" t="s">
-        <v>160</v>
-      </c>
-      <c r="E222">
-        <v>1</v>
-      </c>
-      <c r="F222" t="b">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="K222" t="s">
-        <v>450</v>
+        <v>357</v>
       </c>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C223" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D223" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="K223" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C224" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D224" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="K224" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="225" spans="1:12">
       <c r="A225" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C225" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D225" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K225" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="226" spans="1:12">
       <c r="A226" t="s">
-        <v>11</v>
-      </c>
-      <c r="C226" t="s">
-        <v>150</v>
-      </c>
-      <c r="D226" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="K226" t="s">
-        <v>358</v>
+        <v>471</v>
       </c>
     </row>
     <row r="227" spans="1:12">
       <c r="A227" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C227" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D227" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227" t="b">
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="K227" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
     </row>
     <row r="228" spans="1:12">
       <c r="A228" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C228" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D228" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="K228" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
     </row>
     <row r="229" spans="1:12">
       <c r="A229" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C229" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D229" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="K229" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="230" spans="1:12">
       <c r="A230" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C230" t="s">
+        <v>155</v>
+      </c>
+      <c r="D230" t="s">
+        <v>161</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>261</v>
+        <v>323</v>
       </c>
       <c r="K230" t="s">
         <v>472</v>
@@ -6061,231 +6043,157 @@
     </row>
     <row r="231" spans="1:12">
       <c r="A231" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C231" t="s">
         <v>148</v>
       </c>
       <c r="D231" t="s">
-        <v>160</v>
-      </c>
-      <c r="E231">
-        <v>1</v>
-      </c>
-      <c r="F231" t="b">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="K231" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
     </row>
     <row r="232" spans="1:12">
       <c r="A232" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C232" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="D232" t="s">
-        <v>160</v>
+        <v>170</v>
+      </c>
+      <c r="H232" t="s">
+        <v>4</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>305</v>
+        <v>241</v>
       </c>
       <c r="K232" t="s">
-        <v>451</v>
+        <v>387</v>
+      </c>
+      <c r="L232" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="233" spans="1:12">
       <c r="A233" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C233" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D233" t="s">
-        <v>162</v>
+        <v>170</v>
+      </c>
+      <c r="H233" t="s">
+        <v>5</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>312</v>
+        <v>253</v>
       </c>
       <c r="K233" t="s">
-        <v>467</v>
+        <v>400</v>
+      </c>
+      <c r="L233" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="234" spans="1:12">
       <c r="A234" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C234" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D234" t="s">
-        <v>160</v>
+        <v>170</v>
+      </c>
+      <c r="H234" t="s">
+        <v>8</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="K234" t="s">
-        <v>473</v>
+        <v>441</v>
+      </c>
+      <c r="L234" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="235" spans="1:12">
       <c r="A235" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D235" t="s">
-        <v>160</v>
+        <v>170</v>
+      </c>
+      <c r="H235" t="s">
+        <v>6</v>
       </c>
       <c r="J235" s="2" t="s">
-        <v>319</v>
+        <v>253</v>
       </c>
       <c r="K235" t="s">
-        <v>466</v>
+        <v>400</v>
+      </c>
+      <c r="L235" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="236" spans="1:12">
       <c r="A236" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D236" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H236" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J236" s="2" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="K236" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="L236" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="237" spans="1:12">
       <c r="A237" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D237" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H237" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="K237" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="L237" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12">
-      <c r="A238" t="s">
-        <v>0</v>
-      </c>
-      <c r="C238" t="s">
-        <v>157</v>
-      </c>
-      <c r="D238" t="s">
-        <v>169</v>
-      </c>
-      <c r="H238" t="s">
-        <v>7</v>
-      </c>
-      <c r="J238" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="K238" t="s">
-        <v>442</v>
-      </c>
-      <c r="L238" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12">
-      <c r="A239" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" t="s">
-        <v>158</v>
-      </c>
-      <c r="D239" t="s">
-        <v>169</v>
-      </c>
-      <c r="H239" t="s">
-        <v>5</v>
-      </c>
-      <c r="J239" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="K239" t="s">
-        <v>401</v>
-      </c>
-      <c r="L239" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12">
-      <c r="A240" t="s">
-        <v>5</v>
-      </c>
-      <c r="C240" t="s">
-        <v>159</v>
-      </c>
-      <c r="D240" t="s">
-        <v>169</v>
-      </c>
-      <c r="H240" t="s">
-        <v>6</v>
-      </c>
-      <c r="J240" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K240" t="s">
-        <v>416</v>
-      </c>
-      <c r="L240" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="241" spans="1:12">
-      <c r="A241" t="s">
-        <v>6</v>
-      </c>
-      <c r="C241" t="s">
-        <v>157</v>
-      </c>
-      <c r="D241" t="s">
-        <v>169</v>
-      </c>
-      <c r="H241" t="s">
-        <v>7</v>
-      </c>
-      <c r="J241" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="K241" t="s">
-        <v>442</v>
-      </c>
-      <c r="L241" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -6350,184 +6258,179 @@
     <hyperlink ref="J60" r:id="rId58"/>
     <hyperlink ref="J61" r:id="rId59"/>
     <hyperlink ref="J62" r:id="rId60"/>
-    <hyperlink ref="J63" r:id="rId61"/>
-    <hyperlink ref="J64" r:id="rId62"/>
-    <hyperlink ref="J65" r:id="rId63"/>
-    <hyperlink ref="J66" r:id="rId64"/>
-    <hyperlink ref="J67" r:id="rId65"/>
-    <hyperlink ref="J68" r:id="rId66"/>
-    <hyperlink ref="J69" r:id="rId67"/>
+    <hyperlink ref="J64" r:id="rId61"/>
+    <hyperlink ref="J65" r:id="rId62"/>
+    <hyperlink ref="J66" r:id="rId63"/>
+    <hyperlink ref="J67" r:id="rId64"/>
+    <hyperlink ref="J68" r:id="rId65"/>
+    <hyperlink ref="J69" r:id="rId66"/>
+    <hyperlink ref="J70" r:id="rId67"/>
     <hyperlink ref="J71" r:id="rId68"/>
     <hyperlink ref="J72" r:id="rId69"/>
     <hyperlink ref="J73" r:id="rId70"/>
-    <hyperlink ref="J74" r:id="rId71"/>
-    <hyperlink ref="J75" r:id="rId72"/>
-    <hyperlink ref="J76" r:id="rId73"/>
-    <hyperlink ref="J77" r:id="rId74"/>
-    <hyperlink ref="J78" r:id="rId75" location="wasUpdatedBy"/>
-    <hyperlink ref="J79" r:id="rId76"/>
-    <hyperlink ref="J80" r:id="rId77"/>
-    <hyperlink ref="J81" r:id="rId78"/>
-    <hyperlink ref="J82" r:id="rId79"/>
-    <hyperlink ref="J83" r:id="rId80"/>
-    <hyperlink ref="J84" r:id="rId81"/>
-    <hyperlink ref="J85" r:id="rId82"/>
-    <hyperlink ref="J86" r:id="rId83"/>
-    <hyperlink ref="J87" r:id="rId84"/>
-    <hyperlink ref="J88" r:id="rId85"/>
-    <hyperlink ref="J89" r:id="rId86"/>
-    <hyperlink ref="J90" r:id="rId87"/>
-    <hyperlink ref="J91" r:id="rId88"/>
-    <hyperlink ref="J92" r:id="rId89"/>
-    <hyperlink ref="J93" r:id="rId90"/>
-    <hyperlink ref="J94" r:id="rId91"/>
-    <hyperlink ref="J95" r:id="rId92"/>
-    <hyperlink ref="J96" r:id="rId93"/>
-    <hyperlink ref="J97" r:id="rId94"/>
-    <hyperlink ref="J98" r:id="rId95"/>
-    <hyperlink ref="J99" r:id="rId96"/>
-    <hyperlink ref="J100" r:id="rId97"/>
-    <hyperlink ref="J101" r:id="rId98" location="wasUpdatedBy"/>
-    <hyperlink ref="J102" r:id="rId99"/>
-    <hyperlink ref="J103" r:id="rId100"/>
-    <hyperlink ref="J104" r:id="rId101"/>
-    <hyperlink ref="J105" r:id="rId102"/>
-    <hyperlink ref="J106" r:id="rId103"/>
-    <hyperlink ref="J107" r:id="rId104"/>
-    <hyperlink ref="J108" r:id="rId105"/>
-    <hyperlink ref="J109" r:id="rId106"/>
-    <hyperlink ref="J110" r:id="rId107"/>
-    <hyperlink ref="J111" r:id="rId108"/>
-    <hyperlink ref="J112" r:id="rId109"/>
-    <hyperlink ref="J113" r:id="rId110"/>
-    <hyperlink ref="J114" r:id="rId111"/>
-    <hyperlink ref="J115" r:id="rId112"/>
-    <hyperlink ref="J116" r:id="rId113"/>
-    <hyperlink ref="J117" r:id="rId114"/>
-    <hyperlink ref="J118" r:id="rId115"/>
-    <hyperlink ref="J119" r:id="rId116"/>
-    <hyperlink ref="J120" r:id="rId117"/>
-    <hyperlink ref="J121" r:id="rId118"/>
-    <hyperlink ref="J122" r:id="rId119"/>
-    <hyperlink ref="J123" r:id="rId120"/>
-    <hyperlink ref="J124" r:id="rId121" location="wasUpdatedBy"/>
-    <hyperlink ref="J125" r:id="rId122"/>
-    <hyperlink ref="J126" r:id="rId123"/>
-    <hyperlink ref="J127" r:id="rId124"/>
-    <hyperlink ref="J128" r:id="rId125"/>
-    <hyperlink ref="J129" r:id="rId126"/>
-    <hyperlink ref="J130" r:id="rId127" location="AFRL_0000010"/>
-    <hyperlink ref="J131" r:id="rId128"/>
-    <hyperlink ref="J132" r:id="rId129"/>
-    <hyperlink ref="J133" r:id="rId130"/>
-    <hyperlink ref="J134" r:id="rId131"/>
-    <hyperlink ref="J135" r:id="rId132"/>
-    <hyperlink ref="J136" r:id="rId133"/>
-    <hyperlink ref="J137" r:id="rId134"/>
-    <hyperlink ref="J138" r:id="rId135"/>
-    <hyperlink ref="J139" r:id="rId136"/>
-    <hyperlink ref="J140" r:id="rId137"/>
-    <hyperlink ref="J141" r:id="rId138"/>
-    <hyperlink ref="J142" r:id="rId139"/>
-    <hyperlink ref="J143" r:id="rId140"/>
-    <hyperlink ref="J144" r:id="rId141"/>
-    <hyperlink ref="J145" r:id="rId142" location="wasUpdatedBy"/>
-    <hyperlink ref="J146" r:id="rId143"/>
-    <hyperlink ref="J147" r:id="rId144"/>
-    <hyperlink ref="J148" r:id="rId145"/>
-    <hyperlink ref="J149" r:id="rId146"/>
-    <hyperlink ref="J150" r:id="rId147"/>
-    <hyperlink ref="J151" r:id="rId148"/>
-    <hyperlink ref="J152" r:id="rId149"/>
-    <hyperlink ref="J153" r:id="rId150"/>
-    <hyperlink ref="J154" r:id="rId151"/>
-    <hyperlink ref="J155" r:id="rId152"/>
-    <hyperlink ref="J156" r:id="rId153"/>
-    <hyperlink ref="J157" r:id="rId154"/>
-    <hyperlink ref="J158" r:id="rId155"/>
-    <hyperlink ref="J159" r:id="rId156"/>
-    <hyperlink ref="J160" r:id="rId157"/>
-    <hyperlink ref="J161" r:id="rId158"/>
-    <hyperlink ref="J162" r:id="rId159"/>
-    <hyperlink ref="J163" r:id="rId160"/>
-    <hyperlink ref="J164" r:id="rId161"/>
-    <hyperlink ref="J165" r:id="rId162"/>
-    <hyperlink ref="J166" r:id="rId163"/>
-    <hyperlink ref="J167" r:id="rId164"/>
-    <hyperlink ref="J168" r:id="rId165"/>
-    <hyperlink ref="J169" r:id="rId166" location="wasUpdatedBy"/>
-    <hyperlink ref="J170" r:id="rId167"/>
-    <hyperlink ref="J171" r:id="rId168"/>
-    <hyperlink ref="J172" r:id="rId169"/>
-    <hyperlink ref="J173" r:id="rId170"/>
-    <hyperlink ref="J174" r:id="rId171"/>
-    <hyperlink ref="J175" r:id="rId172"/>
-    <hyperlink ref="J176" r:id="rId173"/>
-    <hyperlink ref="J177" r:id="rId174"/>
-    <hyperlink ref="J178" r:id="rId175"/>
-    <hyperlink ref="J179" r:id="rId176"/>
-    <hyperlink ref="J180" r:id="rId177"/>
-    <hyperlink ref="J181" r:id="rId178"/>
-    <hyperlink ref="J182" r:id="rId179"/>
-    <hyperlink ref="J183" r:id="rId180"/>
-    <hyperlink ref="J184" r:id="rId181"/>
-    <hyperlink ref="J185" r:id="rId182"/>
-    <hyperlink ref="J186" r:id="rId183"/>
-    <hyperlink ref="J187" r:id="rId184"/>
-    <hyperlink ref="J188" r:id="rId185"/>
-    <hyperlink ref="J189" r:id="rId186"/>
-    <hyperlink ref="J190" r:id="rId187"/>
-    <hyperlink ref="J191" r:id="rId188"/>
-    <hyperlink ref="J192" r:id="rId189" location="wasUpdatedBy"/>
-    <hyperlink ref="J193" r:id="rId190"/>
-    <hyperlink ref="J194" r:id="rId191"/>
-    <hyperlink ref="J195" r:id="rId192"/>
-    <hyperlink ref="J196" r:id="rId193"/>
-    <hyperlink ref="J197" r:id="rId194"/>
-    <hyperlink ref="J198" r:id="rId195"/>
-    <hyperlink ref="J199" r:id="rId196"/>
-    <hyperlink ref="J200" r:id="rId197"/>
-    <hyperlink ref="J201" r:id="rId198"/>
-    <hyperlink ref="J202" r:id="rId199"/>
-    <hyperlink ref="J203" r:id="rId200"/>
-    <hyperlink ref="J204" r:id="rId201"/>
-    <hyperlink ref="J205" r:id="rId202"/>
-    <hyperlink ref="J206" r:id="rId203"/>
-    <hyperlink ref="J207" r:id="rId204" location="wasUpdatedBy"/>
-    <hyperlink ref="J208" r:id="rId205"/>
-    <hyperlink ref="J209" r:id="rId206"/>
-    <hyperlink ref="J210" r:id="rId207"/>
-    <hyperlink ref="J211" r:id="rId208"/>
-    <hyperlink ref="J212" r:id="rId209"/>
-    <hyperlink ref="J213" r:id="rId210"/>
-    <hyperlink ref="J214" r:id="rId211"/>
-    <hyperlink ref="J215" r:id="rId212"/>
-    <hyperlink ref="J216" r:id="rId213"/>
-    <hyperlink ref="J217" r:id="rId214"/>
-    <hyperlink ref="J218" r:id="rId215"/>
-    <hyperlink ref="J219" r:id="rId216"/>
-    <hyperlink ref="J220" r:id="rId217"/>
-    <hyperlink ref="J221" r:id="rId218"/>
-    <hyperlink ref="J222" r:id="rId219"/>
-    <hyperlink ref="J223" r:id="rId220"/>
-    <hyperlink ref="J224" r:id="rId221"/>
-    <hyperlink ref="J225" r:id="rId222"/>
-    <hyperlink ref="J226" r:id="rId223"/>
-    <hyperlink ref="J227" r:id="rId224"/>
-    <hyperlink ref="J228" r:id="rId225"/>
-    <hyperlink ref="J229" r:id="rId226"/>
-    <hyperlink ref="J230" r:id="rId227"/>
-    <hyperlink ref="J231" r:id="rId228"/>
-    <hyperlink ref="J232" r:id="rId229"/>
-    <hyperlink ref="J233" r:id="rId230"/>
-    <hyperlink ref="J234" r:id="rId231"/>
-    <hyperlink ref="J235" r:id="rId232"/>
-    <hyperlink ref="J236" r:id="rId233"/>
-    <hyperlink ref="J237" r:id="rId234"/>
-    <hyperlink ref="J238" r:id="rId235"/>
-    <hyperlink ref="J239" r:id="rId236"/>
-    <hyperlink ref="J240" r:id="rId237"/>
-    <hyperlink ref="J241" r:id="rId238"/>
+    <hyperlink ref="J75" r:id="rId71"/>
+    <hyperlink ref="J76" r:id="rId72"/>
+    <hyperlink ref="J77" r:id="rId73"/>
+    <hyperlink ref="J78" r:id="rId74"/>
+    <hyperlink ref="J79" r:id="rId75"/>
+    <hyperlink ref="J80" r:id="rId76"/>
+    <hyperlink ref="J81" r:id="rId77"/>
+    <hyperlink ref="J82" r:id="rId78"/>
+    <hyperlink ref="J83" r:id="rId79"/>
+    <hyperlink ref="J84" r:id="rId80"/>
+    <hyperlink ref="J85" r:id="rId81"/>
+    <hyperlink ref="J86" r:id="rId82"/>
+    <hyperlink ref="J87" r:id="rId83"/>
+    <hyperlink ref="J88" r:id="rId84"/>
+    <hyperlink ref="J89" r:id="rId85"/>
+    <hyperlink ref="J90" r:id="rId86"/>
+    <hyperlink ref="J91" r:id="rId87"/>
+    <hyperlink ref="J92" r:id="rId88"/>
+    <hyperlink ref="J93" r:id="rId89"/>
+    <hyperlink ref="J94" r:id="rId90"/>
+    <hyperlink ref="J95" r:id="rId91"/>
+    <hyperlink ref="J96" r:id="rId92"/>
+    <hyperlink ref="J97" r:id="rId93" location="wasUpdatedBy"/>
+    <hyperlink ref="J98" r:id="rId94"/>
+    <hyperlink ref="J99" r:id="rId95"/>
+    <hyperlink ref="J100" r:id="rId96"/>
+    <hyperlink ref="J101" r:id="rId97"/>
+    <hyperlink ref="J102" r:id="rId98"/>
+    <hyperlink ref="J103" r:id="rId99"/>
+    <hyperlink ref="J104" r:id="rId100"/>
+    <hyperlink ref="J105" r:id="rId101"/>
+    <hyperlink ref="J106" r:id="rId102"/>
+    <hyperlink ref="J107" r:id="rId103"/>
+    <hyperlink ref="J108" r:id="rId104"/>
+    <hyperlink ref="J109" r:id="rId105"/>
+    <hyperlink ref="J110" r:id="rId106"/>
+    <hyperlink ref="J111" r:id="rId107"/>
+    <hyperlink ref="J112" r:id="rId108"/>
+    <hyperlink ref="J113" r:id="rId109"/>
+    <hyperlink ref="J114" r:id="rId110"/>
+    <hyperlink ref="J115" r:id="rId111"/>
+    <hyperlink ref="J116" r:id="rId112"/>
+    <hyperlink ref="J117" r:id="rId113"/>
+    <hyperlink ref="J118" r:id="rId114"/>
+    <hyperlink ref="J119" r:id="rId115"/>
+    <hyperlink ref="J120" r:id="rId116" location="wasUpdatedBy"/>
+    <hyperlink ref="J121" r:id="rId117"/>
+    <hyperlink ref="J122" r:id="rId118"/>
+    <hyperlink ref="J123" r:id="rId119"/>
+    <hyperlink ref="J124" r:id="rId120"/>
+    <hyperlink ref="J125" r:id="rId121"/>
+    <hyperlink ref="J126" r:id="rId122" location="AFRL_0000010"/>
+    <hyperlink ref="J127" r:id="rId123"/>
+    <hyperlink ref="J128" r:id="rId124"/>
+    <hyperlink ref="J129" r:id="rId125"/>
+    <hyperlink ref="J130" r:id="rId126"/>
+    <hyperlink ref="J131" r:id="rId127"/>
+    <hyperlink ref="J132" r:id="rId128"/>
+    <hyperlink ref="J133" r:id="rId129"/>
+    <hyperlink ref="J134" r:id="rId130"/>
+    <hyperlink ref="J135" r:id="rId131"/>
+    <hyperlink ref="J136" r:id="rId132"/>
+    <hyperlink ref="J137" r:id="rId133"/>
+    <hyperlink ref="J138" r:id="rId134"/>
+    <hyperlink ref="J139" r:id="rId135"/>
+    <hyperlink ref="J140" r:id="rId136"/>
+    <hyperlink ref="J141" r:id="rId137" location="wasUpdatedBy"/>
+    <hyperlink ref="J142" r:id="rId138"/>
+    <hyperlink ref="J143" r:id="rId139"/>
+    <hyperlink ref="J144" r:id="rId140"/>
+    <hyperlink ref="J145" r:id="rId141"/>
+    <hyperlink ref="J146" r:id="rId142"/>
+    <hyperlink ref="J147" r:id="rId143"/>
+    <hyperlink ref="J148" r:id="rId144"/>
+    <hyperlink ref="J149" r:id="rId145"/>
+    <hyperlink ref="J150" r:id="rId146"/>
+    <hyperlink ref="J151" r:id="rId147"/>
+    <hyperlink ref="J152" r:id="rId148"/>
+    <hyperlink ref="J153" r:id="rId149"/>
+    <hyperlink ref="J154" r:id="rId150"/>
+    <hyperlink ref="J155" r:id="rId151"/>
+    <hyperlink ref="J156" r:id="rId152"/>
+    <hyperlink ref="J157" r:id="rId153"/>
+    <hyperlink ref="J158" r:id="rId154"/>
+    <hyperlink ref="J159" r:id="rId155"/>
+    <hyperlink ref="J160" r:id="rId156"/>
+    <hyperlink ref="J161" r:id="rId157"/>
+    <hyperlink ref="J162" r:id="rId158"/>
+    <hyperlink ref="J163" r:id="rId159"/>
+    <hyperlink ref="J164" r:id="rId160"/>
+    <hyperlink ref="J165" r:id="rId161" location="wasUpdatedBy"/>
+    <hyperlink ref="J166" r:id="rId162"/>
+    <hyperlink ref="J167" r:id="rId163"/>
+    <hyperlink ref="J168" r:id="rId164"/>
+    <hyperlink ref="J169" r:id="rId165"/>
+    <hyperlink ref="J170" r:id="rId166"/>
+    <hyperlink ref="J171" r:id="rId167"/>
+    <hyperlink ref="J172" r:id="rId168"/>
+    <hyperlink ref="J173" r:id="rId169"/>
+    <hyperlink ref="J174" r:id="rId170"/>
+    <hyperlink ref="J175" r:id="rId171"/>
+    <hyperlink ref="J176" r:id="rId172"/>
+    <hyperlink ref="J177" r:id="rId173"/>
+    <hyperlink ref="J178" r:id="rId174"/>
+    <hyperlink ref="J179" r:id="rId175"/>
+    <hyperlink ref="J180" r:id="rId176"/>
+    <hyperlink ref="J181" r:id="rId177"/>
+    <hyperlink ref="J182" r:id="rId178"/>
+    <hyperlink ref="J183" r:id="rId179"/>
+    <hyperlink ref="J184" r:id="rId180"/>
+    <hyperlink ref="J185" r:id="rId181"/>
+    <hyperlink ref="J186" r:id="rId182"/>
+    <hyperlink ref="J187" r:id="rId183"/>
+    <hyperlink ref="J188" r:id="rId184" location="wasUpdatedBy"/>
+    <hyperlink ref="J189" r:id="rId185"/>
+    <hyperlink ref="J190" r:id="rId186"/>
+    <hyperlink ref="J191" r:id="rId187"/>
+    <hyperlink ref="J192" r:id="rId188"/>
+    <hyperlink ref="J193" r:id="rId189"/>
+    <hyperlink ref="J194" r:id="rId190"/>
+    <hyperlink ref="J195" r:id="rId191"/>
+    <hyperlink ref="J196" r:id="rId192"/>
+    <hyperlink ref="J197" r:id="rId193"/>
+    <hyperlink ref="J198" r:id="rId194"/>
+    <hyperlink ref="J199" r:id="rId195"/>
+    <hyperlink ref="J200" r:id="rId196"/>
+    <hyperlink ref="J201" r:id="rId197"/>
+    <hyperlink ref="J202" r:id="rId198"/>
+    <hyperlink ref="J203" r:id="rId199" location="wasUpdatedBy"/>
+    <hyperlink ref="J204" r:id="rId200"/>
+    <hyperlink ref="J205" r:id="rId201"/>
+    <hyperlink ref="J206" r:id="rId202"/>
+    <hyperlink ref="J207" r:id="rId203"/>
+    <hyperlink ref="J208" r:id="rId204"/>
+    <hyperlink ref="J209" r:id="rId205"/>
+    <hyperlink ref="J210" r:id="rId206"/>
+    <hyperlink ref="J211" r:id="rId207"/>
+    <hyperlink ref="J212" r:id="rId208"/>
+    <hyperlink ref="J213" r:id="rId209"/>
+    <hyperlink ref="J214" r:id="rId210"/>
+    <hyperlink ref="J215" r:id="rId211"/>
+    <hyperlink ref="J216" r:id="rId212"/>
+    <hyperlink ref="J217" r:id="rId213"/>
+    <hyperlink ref="J218" r:id="rId214"/>
+    <hyperlink ref="J219" r:id="rId215"/>
+    <hyperlink ref="J220" r:id="rId216"/>
+    <hyperlink ref="J221" r:id="rId217"/>
+    <hyperlink ref="J222" r:id="rId218"/>
+    <hyperlink ref="J223" r:id="rId219"/>
+    <hyperlink ref="J224" r:id="rId220"/>
+    <hyperlink ref="J225" r:id="rId221"/>
+    <hyperlink ref="J226" r:id="rId222"/>
+    <hyperlink ref="J227" r:id="rId223"/>
+    <hyperlink ref="J228" r:id="rId224"/>
+    <hyperlink ref="J229" r:id="rId225"/>
+    <hyperlink ref="J230" r:id="rId226"/>
+    <hyperlink ref="J231" r:id="rId227"/>
+    <hyperlink ref="J232" r:id="rId228"/>
+    <hyperlink ref="J233" r:id="rId229"/>
+    <hyperlink ref="J234" r:id="rId230"/>
+    <hyperlink ref="J235" r:id="rId231"/>
+    <hyperlink ref="J236" r:id="rId232"/>
+    <hyperlink ref="J237" r:id="rId233"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dist/umdm_emx2.xlsx
+++ b/dist/umdm_emx2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="486">
   <si>
     <t>subjects</t>
   </si>
@@ -217,13 +217,16 @@
     <t>allowRecontactingForIncidentalFindings</t>
   </si>
   <si>
+    <t>consentFormType</t>
+  </si>
+  <si>
     <t>consentFormUsed</t>
   </si>
   <si>
     <t>collectedBy</t>
   </si>
   <si>
-    <t>dateFormedSigned</t>
+    <t>dateFormSigned</t>
   </si>
   <si>
     <t>consentWithdrawn</t>
@@ -727,6 +730,9 @@
     <t>https://w3id.org/fair-genomes/resource/FG_0000745</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ICO_0000233</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C45262</t>
   </si>
   <si>
@@ -1160,6 +1166,9 @@
   </si>
   <si>
     <t>Willingness to be recontacted when new knowledge regarding incidental findings becomes available to benefit the patient.</t>
+  </si>
+  <si>
+    <t>A document that either prescribes actions or prescribes the permissions, obligations, restrictions, or protections relating to public or legal policy.</t>
   </si>
   <si>
     <t>Reference to the informed consent form that was signed. Points to a particular instance of leaflet and consent form that usually exists as a record (i.e. a row) within the same database as this individual consent.</t>
@@ -1822,7 +1831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L237"/>
+  <dimension ref="A1:L238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1830,40 +1839,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1871,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1885,7 +1894,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1894,10 +1903,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1908,13 +1917,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1925,16 +1934,16 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1945,16 +1954,16 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1965,13 +1974,13 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1982,19 +1991,19 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2005,13 +2014,13 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2022,13 +2031,13 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2039,13 +2048,13 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2056,13 +2065,13 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K12" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2073,13 +2082,13 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K13" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2090,19 +2099,19 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K14" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2113,19 +2122,19 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H15" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2136,19 +2145,19 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H16" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K16" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2159,19 +2168,19 @@
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K17" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2182,19 +2191,19 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K18" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2205,19 +2214,19 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H19" t="s">
         <v>30</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K19" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2228,13 +2237,13 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2245,16 +2254,16 @@
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H21" t="s">
         <v>11</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2265,13 +2274,13 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2282,13 +2291,13 @@
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2299,13 +2308,13 @@
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2316,13 +2325,13 @@
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K25" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2333,13 +2342,13 @@
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K26" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2350,13 +2359,13 @@
         <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2367,13 +2376,13 @@
         <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K28" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2384,16 +2393,16 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H29" t="s">
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K29" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2404,16 +2413,16 @@
         <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H30" t="s">
         <v>9</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K30" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2424,16 +2433,16 @@
         <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H31" t="s">
         <v>12</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K31" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2444,13 +2453,13 @@
         <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K32" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2461,13 +2470,13 @@
         <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K33" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2478,16 +2487,16 @@
         <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K34" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2498,16 +2507,16 @@
         <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K35" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2518,13 +2527,13 @@
         <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K36" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2535,13 +2544,13 @@
         <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K37" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2549,10 +2558,10 @@
         <v>1</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K38" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2563,7 +2572,7 @@
         <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2572,10 +2581,10 @@
         <v>1</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K39" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2586,13 +2595,13 @@
         <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K40" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2603,13 +2612,13 @@
         <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K41" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2620,19 +2629,19 @@
         <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H42" t="s">
         <v>52</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K42" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2643,13 +2652,13 @@
         <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K43" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2660,13 +2669,13 @@
         <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K44" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2677,13 +2686,13 @@
         <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K45" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2694,13 +2703,13 @@
         <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K46" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2711,13 +2720,13 @@
         <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K47" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2728,13 +2737,13 @@
         <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K48" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2745,19 +2754,19 @@
         <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K49" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2768,13 +2777,13 @@
         <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K50" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2785,10 +2794,10 @@
         <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K51" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2799,16 +2808,16 @@
         <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H52" t="s">
         <v>12</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K52" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2819,13 +2828,13 @@
         <v>43</v>
       </c>
       <c r="D53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K53" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2836,13 +2845,13 @@
         <v>44</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K54" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2853,16 +2862,16 @@
         <v>45</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K55" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2873,16 +2882,16 @@
         <v>46</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K56" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2893,13 +2902,13 @@
         <v>47</v>
       </c>
       <c r="D57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K57" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2910,13 +2919,13 @@
         <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K58" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2924,10 +2933,10 @@
         <v>2</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K59" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2938,7 +2947,7 @@
         <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2947,10 +2956,10 @@
         <v>1</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K60" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2961,16 +2970,16 @@
         <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H61" t="s">
         <v>0</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K61" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2981,16 +2990,16 @@
         <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H62" t="s">
         <v>3</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K62" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3001,10 +3010,10 @@
         <v>63</v>
       </c>
       <c r="D63" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K63" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3015,13 +3024,13 @@
         <v>64</v>
       </c>
       <c r="D64" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K64" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3032,13 +3041,13 @@
         <v>65</v>
       </c>
       <c r="D65" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K65" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3049,13 +3058,13 @@
         <v>66</v>
       </c>
       <c r="D66" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K66" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3063,10 +3072,10 @@
         <v>3</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K67" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3077,7 +3086,7 @@
         <v>60</v>
       </c>
       <c r="D68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3086,10 +3095,10 @@
         <v>1</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K68" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3100,16 +3109,16 @@
         <v>61</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H69" t="s">
         <v>0</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K69" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3120,13 +3129,13 @@
         <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K70" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3137,13 +3146,13 @@
         <v>68</v>
       </c>
       <c r="D71" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K71" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3154,13 +3163,13 @@
         <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K72" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3171,13 +3180,13 @@
         <v>70</v>
       </c>
       <c r="D73" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K73" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3188,38 +3197,35 @@
         <v>71</v>
       </c>
       <c r="D74" t="s">
-        <v>161</v>
+        <v>168</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K74" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>4</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="K75" t="s">
-        <v>386</v>
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>4</v>
       </c>
-      <c r="C76" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" t="s">
-        <v>161</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
       <c r="J76" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K76" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3227,19 +3233,19 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D77" t="s">
         <v>162</v>
       </c>
-      <c r="H77" t="s">
-        <v>0</v>
+      <c r="E77">
+        <v>1</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="K77" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3247,16 +3253,19 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D78" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="H78" t="s">
+        <v>0</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="K78" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3267,13 +3276,13 @@
         <v>74</v>
       </c>
       <c r="D79" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K79" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3284,13 +3293,13 @@
         <v>75</v>
       </c>
       <c r="D80" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K80" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3301,13 +3310,13 @@
         <v>76</v>
       </c>
       <c r="D81" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K81" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3318,19 +3327,13 @@
         <v>77</v>
       </c>
       <c r="D82" t="s">
-        <v>168</v>
-      </c>
-      <c r="G82" t="s">
-        <v>171</v>
-      </c>
-      <c r="H82" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K82" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3341,19 +3344,19 @@
         <v>78</v>
       </c>
       <c r="D83" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G83" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K83" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3364,19 +3367,19 @@
         <v>79</v>
       </c>
       <c r="D84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G84" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H84" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K84" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3387,19 +3390,19 @@
         <v>80</v>
       </c>
       <c r="D85" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G85" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H85" t="s">
         <v>175</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K85" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3410,19 +3413,19 @@
         <v>81</v>
       </c>
       <c r="D86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G86" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H86" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K86" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3433,13 +3436,19 @@
         <v>82</v>
       </c>
       <c r="D87" t="s">
-        <v>163</v>
+        <v>169</v>
+      </c>
+      <c r="G87" t="s">
+        <v>172</v>
+      </c>
+      <c r="H87" t="s">
+        <v>82</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K87" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3450,19 +3459,13 @@
         <v>83</v>
       </c>
       <c r="D88" t="s">
-        <v>162</v>
-      </c>
-      <c r="G88" t="s">
-        <v>171</v>
-      </c>
-      <c r="H88" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K88" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3473,13 +3476,19 @@
         <v>84</v>
       </c>
       <c r="D89" t="s">
-        <v>150</v>
+        <v>163</v>
+      </c>
+      <c r="G89" t="s">
+        <v>172</v>
+      </c>
+      <c r="H89" t="s">
+        <v>177</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K89" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3490,16 +3499,13 @@
         <v>85</v>
       </c>
       <c r="D90" t="s">
-        <v>168</v>
-      </c>
-      <c r="H90" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K90" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3507,19 +3513,19 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="D91" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="K91" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3527,16 +3533,19 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D92" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+      <c r="H92" t="s">
+        <v>12</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>211</v>
       </c>
       <c r="K92" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3544,16 +3553,16 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D93" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>212</v>
       </c>
       <c r="K93" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3561,19 +3570,16 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D94" t="s">
-        <v>169</v>
-      </c>
-      <c r="F94" t="b">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>213</v>
       </c>
       <c r="K94" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3581,10 +3587,10 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D95" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F95" t="b">
         <v>1</v>
@@ -3593,7 +3599,7 @@
         <v>214</v>
       </c>
       <c r="K95" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3601,16 +3607,19 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D96" t="s">
-        <v>169</v>
+        <v>162</v>
+      </c>
+      <c r="F96" t="b">
+        <v>1</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>215</v>
       </c>
       <c r="K96" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3618,50 +3627,44 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D97" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>216</v>
       </c>
       <c r="K97" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
+        <v>48</v>
+      </c>
+      <c r="D98" t="s">
+        <v>162</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="K98" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>5</v>
       </c>
-      <c r="C99" t="s">
-        <v>86</v>
-      </c>
-      <c r="D99" t="s">
-        <v>161</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99" t="b">
-        <v>1</v>
-      </c>
       <c r="J99" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K99" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3669,19 +3672,22 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D100" t="s">
         <v>162</v>
       </c>
-      <c r="H100" t="s">
-        <v>0</v>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="b">
+        <v>1</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="K100" t="s">
-        <v>325</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3689,16 +3695,19 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D101" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="H101" t="s">
+        <v>0</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="K101" t="s">
-        <v>402</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3709,13 +3718,13 @@
         <v>88</v>
       </c>
       <c r="D102" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K102" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -3726,19 +3735,13 @@
         <v>89</v>
       </c>
       <c r="D103" t="s">
-        <v>168</v>
-      </c>
-      <c r="G103" t="s">
-        <v>171</v>
-      </c>
-      <c r="H103" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K103" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -3749,13 +3752,19 @@
         <v>90</v>
       </c>
       <c r="D104" t="s">
-        <v>150</v>
+        <v>169</v>
+      </c>
+      <c r="G104" t="s">
+        <v>172</v>
+      </c>
+      <c r="H104" t="s">
+        <v>178</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K104" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -3766,13 +3775,13 @@
         <v>91</v>
       </c>
       <c r="D105" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K105" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -3783,16 +3792,13 @@
         <v>92</v>
       </c>
       <c r="D106" t="s">
-        <v>168</v>
-      </c>
-      <c r="H106" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K106" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -3803,13 +3809,16 @@
         <v>93</v>
       </c>
       <c r="D107" t="s">
-        <v>163</v>
+        <v>169</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K107" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -3820,13 +3829,13 @@
         <v>94</v>
       </c>
       <c r="D108" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K108" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -3837,19 +3846,13 @@
         <v>95</v>
       </c>
       <c r="D109" t="s">
-        <v>162</v>
-      </c>
-      <c r="G109" t="s">
-        <v>171</v>
-      </c>
-      <c r="H109" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K109" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -3860,19 +3863,19 @@
         <v>96</v>
       </c>
       <c r="D110" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G110" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H110" t="s">
         <v>96</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K110" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -3883,19 +3886,19 @@
         <v>97</v>
       </c>
       <c r="D111" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G111" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H111" t="s">
         <v>97</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K111" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -3906,13 +3909,19 @@
         <v>98</v>
       </c>
       <c r="D112" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="G112" t="s">
+        <v>172</v>
+      </c>
+      <c r="H112" t="s">
+        <v>98</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K112" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -3920,16 +3929,16 @@
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="D113" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>203</v>
+        <v>268</v>
       </c>
       <c r="K113" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -3937,19 +3946,16 @@
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D114" t="s">
-        <v>168</v>
-      </c>
-      <c r="H114" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K114" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -3957,16 +3963,19 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D115" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+      <c r="H115" t="s">
+        <v>12</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>211</v>
       </c>
       <c r="K115" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -3974,16 +3983,16 @@
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D116" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>212</v>
       </c>
       <c r="K116" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -3991,19 +4000,16 @@
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D117" t="s">
-        <v>169</v>
-      </c>
-      <c r="F117" t="b">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>213</v>
       </c>
       <c r="K117" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4011,10 +4017,10 @@
         <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D118" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F118" t="b">
         <v>1</v>
@@ -4023,7 +4029,7 @@
         <v>214</v>
       </c>
       <c r="K118" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4031,16 +4037,19 @@
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D119" t="s">
-        <v>169</v>
+        <v>162</v>
+      </c>
+      <c r="F119" t="b">
+        <v>1</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>215</v>
       </c>
       <c r="K119" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4048,50 +4057,44 @@
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D120" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>216</v>
       </c>
       <c r="K120" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>48</v>
+      </c>
+      <c r="D121" t="s">
+        <v>162</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="K121" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>6</v>
       </c>
-      <c r="C122" t="s">
-        <v>99</v>
-      </c>
-      <c r="D122" t="s">
-        <v>161</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-      <c r="F122" t="b">
-        <v>1</v>
-      </c>
       <c r="J122" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K122" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4099,19 +4102,22 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D123" t="s">
         <v>162</v>
       </c>
-      <c r="H123" t="s">
-        <v>5</v>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123" t="b">
+        <v>1</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K123" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4119,19 +4125,19 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D124" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H124" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K124" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4139,16 +4145,19 @@
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D125" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="H125" t="s">
+        <v>10</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="K125" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4156,16 +4165,16 @@
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D126" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="K126" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4176,19 +4185,13 @@
         <v>102</v>
       </c>
       <c r="D127" t="s">
-        <v>162</v>
-      </c>
-      <c r="G127" t="s">
-        <v>171</v>
-      </c>
-      <c r="H127" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K127" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4199,13 +4202,19 @@
         <v>103</v>
       </c>
       <c r="D128" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="G128" t="s">
+        <v>172</v>
+      </c>
+      <c r="H128" t="s">
+        <v>179</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K128" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4216,19 +4225,13 @@
         <v>104</v>
       </c>
       <c r="D129" t="s">
-        <v>162</v>
-      </c>
-      <c r="G129" t="s">
-        <v>171</v>
-      </c>
-      <c r="H129" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K129" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4239,13 +4242,19 @@
         <v>105</v>
       </c>
       <c r="D130" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="G130" t="s">
+        <v>172</v>
+      </c>
+      <c r="H130" t="s">
+        <v>179</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K130" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4256,13 +4265,13 @@
         <v>106</v>
       </c>
       <c r="D131" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K131" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -4273,13 +4282,13 @@
         <v>107</v>
       </c>
       <c r="D132" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K132" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -4290,13 +4299,13 @@
         <v>108</v>
       </c>
       <c r="D133" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K133" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -4307,13 +4316,13 @@
         <v>109</v>
       </c>
       <c r="D134" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K134" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -4321,19 +4330,16 @@
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="D135" t="s">
-        <v>168</v>
-      </c>
-      <c r="H135" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="K135" t="s">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -4341,16 +4347,19 @@
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D136" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+      <c r="H136" t="s">
+        <v>12</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>211</v>
       </c>
       <c r="K136" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -4358,16 +4367,16 @@
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D137" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>212</v>
       </c>
       <c r="K137" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -4375,19 +4384,16 @@
         <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D138" t="s">
-        <v>169</v>
-      </c>
-      <c r="F138" t="b">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>213</v>
       </c>
       <c r="K138" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -4395,10 +4401,10 @@
         <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D139" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F139" t="b">
         <v>1</v>
@@ -4407,7 +4413,7 @@
         <v>214</v>
       </c>
       <c r="K139" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -4415,16 +4421,19 @@
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D140" t="s">
-        <v>169</v>
+        <v>162</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>215</v>
       </c>
       <c r="K140" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -4432,50 +4441,44 @@
         <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D141" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>216</v>
       </c>
       <c r="K141" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C142" t="s">
+        <v>48</v>
+      </c>
+      <c r="D142" t="s">
+        <v>162</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="K142" t="s">
-        <v>426</v>
+        <v>361</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" t="s">
         <v>7</v>
       </c>
-      <c r="C143" t="s">
-        <v>110</v>
-      </c>
-      <c r="D143" t="s">
-        <v>161</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="F143" t="b">
-        <v>1</v>
-      </c>
       <c r="J143" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K143" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -4483,19 +4486,22 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D144" t="s">
         <v>162</v>
       </c>
-      <c r="H144" t="s">
-        <v>10</v>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="K144" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -4503,19 +4509,19 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D145" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H145" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K145" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -4526,19 +4532,16 @@
         <v>112</v>
       </c>
       <c r="D146" t="s">
-        <v>162</v>
-      </c>
-      <c r="G146" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H146" t="s">
-        <v>177</v>
+        <v>6</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="K146" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -4549,13 +4552,19 @@
         <v>113</v>
       </c>
       <c r="D147" t="s">
-        <v>150</v>
+        <v>163</v>
+      </c>
+      <c r="G147" t="s">
+        <v>172</v>
+      </c>
+      <c r="H147" t="s">
+        <v>178</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K147" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -4566,16 +4575,13 @@
         <v>114</v>
       </c>
       <c r="D148" t="s">
-        <v>162</v>
-      </c>
-      <c r="H148" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K148" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -4586,19 +4592,16 @@
         <v>115</v>
       </c>
       <c r="D149" t="s">
-        <v>162</v>
-      </c>
-      <c r="G149" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H149" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K149" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -4609,19 +4612,19 @@
         <v>116</v>
       </c>
       <c r="D150" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H150" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K150" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -4632,19 +4635,19 @@
         <v>117</v>
       </c>
       <c r="D151" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G151" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H151" t="s">
         <v>180</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K151" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -4655,13 +4658,19 @@
         <v>118</v>
       </c>
       <c r="D152" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="G152" t="s">
+        <v>172</v>
+      </c>
+      <c r="H152" t="s">
+        <v>181</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K152" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -4672,13 +4681,13 @@
         <v>119</v>
       </c>
       <c r="D153" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="K153" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -4689,13 +4698,13 @@
         <v>120</v>
       </c>
       <c r="D154" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="K154" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -4709,10 +4718,10 @@
         <v>165</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K155" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -4723,13 +4732,13 @@
         <v>122</v>
       </c>
       <c r="D156" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K156" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -4740,13 +4749,13 @@
         <v>123</v>
       </c>
       <c r="D157" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K157" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -4757,19 +4766,13 @@
         <v>124</v>
       </c>
       <c r="D158" t="s">
-        <v>162</v>
-      </c>
-      <c r="G158" t="s">
-        <v>171</v>
-      </c>
-      <c r="H158" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K158" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -4777,19 +4780,22 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D159" t="s">
-        <v>168</v>
+        <v>163</v>
+      </c>
+      <c r="G159" t="s">
+        <v>172</v>
       </c>
       <c r="H159" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="K159" t="s">
-        <v>353</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -4797,16 +4803,19 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D160" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+      <c r="H160" t="s">
+        <v>12</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>211</v>
       </c>
       <c r="K160" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -4814,16 +4823,16 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D161" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>212</v>
       </c>
       <c r="K161" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -4831,19 +4840,16 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D162" t="s">
-        <v>169</v>
-      </c>
-      <c r="F162" t="b">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>213</v>
       </c>
       <c r="K162" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -4851,10 +4857,10 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D163" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F163" t="b">
         <v>1</v>
@@ -4863,7 +4869,7 @@
         <v>214</v>
       </c>
       <c r="K163" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -4871,16 +4877,19 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D164" t="s">
-        <v>169</v>
+        <v>162</v>
+      </c>
+      <c r="F164" t="b">
+        <v>1</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>215</v>
       </c>
       <c r="K164" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -4888,50 +4897,44 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D165" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>216</v>
       </c>
       <c r="K165" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C166" t="s">
+        <v>48</v>
+      </c>
+      <c r="D166" t="s">
+        <v>162</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>294</v>
+        <v>217</v>
       </c>
       <c r="K166" t="s">
-        <v>440</v>
+        <v>361</v>
       </c>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" t="s">
         <v>8</v>
       </c>
-      <c r="C167" t="s">
-        <v>125</v>
-      </c>
-      <c r="D167" t="s">
-        <v>161</v>
-      </c>
-      <c r="E167">
-        <v>1</v>
-      </c>
-      <c r="F167" t="b">
-        <v>1</v>
-      </c>
       <c r="J167" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K167" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -4942,16 +4945,19 @@
         <v>126</v>
       </c>
       <c r="D168" t="s">
-        <v>168</v>
-      </c>
-      <c r="H168" t="s">
-        <v>7</v>
+        <v>162</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168" t="b">
+        <v>1</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="K168" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -4959,19 +4965,19 @@
         <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="D169" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H169" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>183</v>
+        <v>283</v>
       </c>
       <c r="K169" t="s">
-        <v>325</v>
+        <v>430</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -4979,19 +4985,19 @@
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="D170" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H170" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="K170" t="s">
-        <v>400</v>
+        <v>327</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -4999,19 +5005,19 @@
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D171" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H171" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="K171" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -5019,19 +5025,19 @@
         <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D172" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H172" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>209</v>
       </c>
       <c r="K172" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -5039,16 +5045,19 @@
         <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="D173" t="s">
-        <v>163</v>
+        <v>169</v>
+      </c>
+      <c r="H173" t="s">
+        <v>9</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="K173" t="s">
-        <v>441</v>
+        <v>354</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -5059,13 +5068,13 @@
         <v>128</v>
       </c>
       <c r="D174" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K174" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -5076,13 +5085,13 @@
         <v>129</v>
       </c>
       <c r="D175" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K175" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -5093,13 +5102,13 @@
         <v>130</v>
       </c>
       <c r="D176" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K176" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -5110,13 +5119,13 @@
         <v>131</v>
       </c>
       <c r="D177" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K177" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -5127,13 +5136,13 @@
         <v>132</v>
       </c>
       <c r="D178" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K178" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -5146,17 +5155,11 @@
       <c r="D179" t="s">
         <v>162</v>
       </c>
-      <c r="G179" t="s">
-        <v>171</v>
-      </c>
-      <c r="H179" t="s">
-        <v>133</v>
-      </c>
       <c r="J179" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K179" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -5167,13 +5170,19 @@
         <v>134</v>
       </c>
       <c r="D180" t="s">
-        <v>150</v>
+        <v>163</v>
+      </c>
+      <c r="G180" t="s">
+        <v>172</v>
+      </c>
+      <c r="H180" t="s">
+        <v>134</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K180" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -5184,13 +5193,13 @@
         <v>135</v>
       </c>
       <c r="D181" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>203</v>
+        <v>304</v>
       </c>
       <c r="K181" t="s">
-        <v>346</v>
+        <v>451</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -5198,19 +5207,16 @@
         <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="D182" t="s">
-        <v>168</v>
-      </c>
-      <c r="H182" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K182" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -5218,16 +5224,19 @@
         <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D183" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+      <c r="H183" t="s">
+        <v>12</v>
       </c>
       <c r="J183" s="2" t="s">
         <v>211</v>
       </c>
       <c r="K183" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -5235,16 +5244,16 @@
         <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D184" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J184" s="2" t="s">
         <v>212</v>
       </c>
       <c r="K184" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -5252,19 +5261,16 @@
         <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D185" t="s">
-        <v>169</v>
-      </c>
-      <c r="F185" t="b">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="J185" s="2" t="s">
         <v>213</v>
       </c>
       <c r="K185" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -5272,10 +5278,10 @@
         <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D186" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F186" t="b">
         <v>1</v>
@@ -5284,7 +5290,7 @@
         <v>214</v>
       </c>
       <c r="K186" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -5292,16 +5298,19 @@
         <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D187" t="s">
-        <v>169</v>
+        <v>162</v>
+      </c>
+      <c r="F187" t="b">
+        <v>1</v>
       </c>
       <c r="J187" s="2" t="s">
         <v>215</v>
       </c>
       <c r="K187" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -5309,50 +5318,44 @@
         <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D188" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>216</v>
       </c>
       <c r="K188" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C189" t="s">
+        <v>48</v>
+      </c>
+      <c r="D189" t="s">
+        <v>162</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="K189" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" t="s">
         <v>9</v>
       </c>
-      <c r="C190" t="s">
-        <v>136</v>
-      </c>
-      <c r="D190" t="s">
-        <v>161</v>
-      </c>
-      <c r="E190">
-        <v>1</v>
-      </c>
-      <c r="F190" t="b">
-        <v>1</v>
-      </c>
       <c r="J190" s="2" t="s">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="K190" t="s">
-        <v>449</v>
+        <v>354</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -5363,13 +5366,19 @@
         <v>137</v>
       </c>
       <c r="D191" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191" t="b">
+        <v>1</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>219</v>
+        <v>305</v>
       </c>
       <c r="K191" t="s">
-        <v>362</v>
+        <v>452</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -5380,13 +5389,13 @@
         <v>138</v>
       </c>
       <c r="D192" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>304</v>
+        <v>220</v>
       </c>
       <c r="K192" t="s">
-        <v>450</v>
+        <v>364</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -5397,13 +5406,13 @@
         <v>139</v>
       </c>
       <c r="D193" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K193" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -5411,16 +5420,16 @@
         <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="D194" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K194" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -5428,16 +5437,16 @@
         <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D195" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>201</v>
+        <v>308</v>
       </c>
       <c r="K195" t="s">
-        <v>344</v>
+        <v>455</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -5445,16 +5454,16 @@
         <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D196" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>307</v>
+        <v>202</v>
       </c>
       <c r="K196" t="s">
-        <v>453</v>
+        <v>346</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -5462,16 +5471,16 @@
         <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="D197" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K197" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -5479,16 +5488,16 @@
         <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="D198" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>211</v>
+        <v>310</v>
       </c>
       <c r="K198" t="s">
-        <v>354</v>
+        <v>457</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -5496,16 +5505,16 @@
         <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D199" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J199" s="2" t="s">
         <v>212</v>
       </c>
       <c r="K199" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -5513,19 +5522,16 @@
         <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D200" t="s">
-        <v>169</v>
-      </c>
-      <c r="F200" t="b">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="J200" s="2" t="s">
         <v>213</v>
       </c>
       <c r="K200" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -5533,10 +5539,10 @@
         <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D201" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F201" t="b">
         <v>1</v>
@@ -5545,7 +5551,7 @@
         <v>214</v>
       </c>
       <c r="K201" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -5553,16 +5559,19 @@
         <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D202" t="s">
-        <v>169</v>
+        <v>162</v>
+      </c>
+      <c r="F202" t="b">
+        <v>1</v>
       </c>
       <c r="J202" s="2" t="s">
         <v>215</v>
       </c>
       <c r="K202" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -5570,50 +5579,44 @@
         <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D203" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="J203" s="2" t="s">
         <v>216</v>
       </c>
       <c r="K203" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C204" t="s">
+        <v>48</v>
+      </c>
+      <c r="D204" t="s">
+        <v>162</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="K204" t="s">
-        <v>416</v>
+        <v>361</v>
       </c>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" t="s">
         <v>10</v>
       </c>
-      <c r="C205" t="s">
-        <v>141</v>
-      </c>
-      <c r="D205" t="s">
-        <v>161</v>
-      </c>
-      <c r="E205">
-        <v>1</v>
-      </c>
-      <c r="F205" t="b">
-        <v>1</v>
-      </c>
       <c r="J205" s="2" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="K205" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -5624,13 +5627,19 @@
         <v>142</v>
       </c>
       <c r="D206" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206" t="b">
+        <v>1</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K206" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -5638,16 +5647,16 @@
         <v>10</v>
       </c>
       <c r="C207" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D207" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K207" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -5655,16 +5664,16 @@
         <v>10</v>
       </c>
       <c r="C208" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D208" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K208" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -5675,13 +5684,13 @@
         <v>144</v>
       </c>
       <c r="D209" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K209" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -5692,47 +5701,41 @@
         <v>145</v>
       </c>
       <c r="D210" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K210" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C211" t="s">
+        <v>146</v>
+      </c>
+      <c r="D211" t="s">
+        <v>164</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>200</v>
+        <v>316</v>
       </c>
       <c r="K211" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" t="s">
         <v>11</v>
       </c>
-      <c r="C212" t="s">
-        <v>146</v>
-      </c>
-      <c r="D212" t="s">
-        <v>161</v>
-      </c>
-      <c r="E212">
-        <v>1</v>
-      </c>
-      <c r="F212" t="b">
-        <v>1</v>
-      </c>
       <c r="J212" s="2" t="s">
-        <v>315</v>
+        <v>201</v>
       </c>
       <c r="K212" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -5740,16 +5743,22 @@
         <v>11</v>
       </c>
       <c r="C213" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D213" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213" t="b">
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K213" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -5757,16 +5766,16 @@
         <v>11</v>
       </c>
       <c r="C214" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D214" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K214" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -5774,16 +5783,16 @@
         <v>11</v>
       </c>
       <c r="C215" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D215" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K215" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -5791,50 +5800,44 @@
         <v>11</v>
       </c>
       <c r="C216" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D216" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K216" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C217" t="s">
+        <v>149</v>
+      </c>
+      <c r="D217" t="s">
+        <v>162</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="K217" t="s">
-        <v>353</v>
+        <v>468</v>
       </c>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" t="s">
         <v>12</v>
       </c>
-      <c r="C218" t="s">
-        <v>149</v>
-      </c>
-      <c r="D218" t="s">
-        <v>161</v>
-      </c>
-      <c r="E218">
-        <v>1</v>
-      </c>
-      <c r="F218" t="b">
-        <v>1</v>
-      </c>
       <c r="J218" s="2" t="s">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="K218" t="s">
-        <v>449</v>
+        <v>355</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -5842,16 +5845,22 @@
         <v>12</v>
       </c>
       <c r="C219" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D219" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219" t="b">
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K219" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -5862,13 +5871,13 @@
         <v>139</v>
       </c>
       <c r="D220" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K220" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -5876,16 +5885,16 @@
         <v>12</v>
       </c>
       <c r="C221" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D221" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K221" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -5896,13 +5905,13 @@
         <v>151</v>
       </c>
       <c r="D222" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="K222" t="s">
-        <v>357</v>
+        <v>470</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -5913,13 +5922,13 @@
         <v>152</v>
       </c>
       <c r="D223" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>320</v>
+        <v>215</v>
       </c>
       <c r="K223" t="s">
-        <v>468</v>
+        <v>359</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -5930,13 +5939,13 @@
         <v>153</v>
       </c>
       <c r="D224" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K224" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -5947,47 +5956,41 @@
         <v>154</v>
       </c>
       <c r="D225" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K225" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="226" spans="1:12">
       <c r="A226" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C226" t="s">
+        <v>155</v>
+      </c>
+      <c r="D226" t="s">
+        <v>164</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>260</v>
+        <v>324</v>
       </c>
       <c r="K226" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="227" spans="1:12">
       <c r="A227" t="s">
         <v>13</v>
       </c>
-      <c r="C227" t="s">
-        <v>149</v>
-      </c>
-      <c r="D227" t="s">
-        <v>161</v>
-      </c>
-      <c r="E227">
-        <v>1</v>
-      </c>
-      <c r="F227" t="b">
-        <v>1</v>
-      </c>
       <c r="J227" s="2" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="K227" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -5995,16 +5998,22 @@
         <v>13</v>
       </c>
       <c r="C228" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D228" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228" t="b">
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K228" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -6015,13 +6024,13 @@
         <v>139</v>
       </c>
       <c r="D229" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K229" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -6029,16 +6038,16 @@
         <v>13</v>
       </c>
       <c r="C230" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D230" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="K230" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -6046,39 +6055,33 @@
         <v>13</v>
       </c>
       <c r="C231" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D231" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K231" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="232" spans="1:12">
       <c r="A232" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C232" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D232" t="s">
-        <v>170</v>
-      </c>
-      <c r="H232" t="s">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
       <c r="K232" t="s">
-        <v>387</v>
-      </c>
-      <c r="L232" t="s">
-        <v>61</v>
+        <v>468</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -6089,16 +6092,16 @@
         <v>157</v>
       </c>
       <c r="D233" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H233" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="K233" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="L233" t="s">
         <v>61</v>
@@ -6112,16 +6115,16 @@
         <v>158</v>
       </c>
       <c r="D234" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H234" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="K234" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="L234" t="s">
         <v>61</v>
@@ -6129,71 +6132,94 @@
     </row>
     <row r="235" spans="1:12">
       <c r="A235" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C235" t="s">
         <v>159</v>
       </c>
       <c r="D235" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H235" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J235" s="2" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="K235" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="L235" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="236" spans="1:12">
       <c r="A236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>160</v>
       </c>
       <c r="D236" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J236" s="2" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="K236" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="L236" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="237" spans="1:12">
       <c r="A237" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237" t="s">
+        <v>161</v>
+      </c>
+      <c r="D237" t="s">
+        <v>171</v>
+      </c>
+      <c r="H237" t="s">
         <v>7</v>
       </c>
-      <c r="C237" t="s">
-        <v>158</v>
-      </c>
-      <c r="D237" t="s">
-        <v>170</v>
-      </c>
-      <c r="H237" t="s">
+      <c r="J237" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K237" t="s">
+        <v>418</v>
+      </c>
+      <c r="L237" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
+      <c r="A238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" t="s">
+        <v>159</v>
+      </c>
+      <c r="D238" t="s">
+        <v>171</v>
+      </c>
+      <c r="H238" t="s">
         <v>8</v>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="K237" t="s">
-        <v>441</v>
-      </c>
-      <c r="L237" t="s">
-        <v>126</v>
+      <c r="J238" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K238" t="s">
+        <v>444</v>
+      </c>
+      <c r="L238" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -6268,7 +6294,7 @@
     <hyperlink ref="J71" r:id="rId68"/>
     <hyperlink ref="J72" r:id="rId69"/>
     <hyperlink ref="J73" r:id="rId70"/>
-    <hyperlink ref="J75" r:id="rId71"/>
+    <hyperlink ref="J74" r:id="rId71"/>
     <hyperlink ref="J76" r:id="rId72"/>
     <hyperlink ref="J77" r:id="rId73"/>
     <hyperlink ref="J78" r:id="rId74"/>
@@ -6290,8 +6316,8 @@
     <hyperlink ref="J94" r:id="rId90"/>
     <hyperlink ref="J95" r:id="rId91"/>
     <hyperlink ref="J96" r:id="rId92"/>
-    <hyperlink ref="J97" r:id="rId93" location="wasUpdatedBy"/>
-    <hyperlink ref="J98" r:id="rId94"/>
+    <hyperlink ref="J97" r:id="rId93"/>
+    <hyperlink ref="J98" r:id="rId94" location="wasUpdatedBy"/>
     <hyperlink ref="J99" r:id="rId95"/>
     <hyperlink ref="J100" r:id="rId96"/>
     <hyperlink ref="J101" r:id="rId97"/>
@@ -6313,14 +6339,14 @@
     <hyperlink ref="J117" r:id="rId113"/>
     <hyperlink ref="J118" r:id="rId114"/>
     <hyperlink ref="J119" r:id="rId115"/>
-    <hyperlink ref="J120" r:id="rId116" location="wasUpdatedBy"/>
-    <hyperlink ref="J121" r:id="rId117"/>
+    <hyperlink ref="J120" r:id="rId116"/>
+    <hyperlink ref="J121" r:id="rId117" location="wasUpdatedBy"/>
     <hyperlink ref="J122" r:id="rId118"/>
     <hyperlink ref="J123" r:id="rId119"/>
     <hyperlink ref="J124" r:id="rId120"/>
     <hyperlink ref="J125" r:id="rId121"/>
-    <hyperlink ref="J126" r:id="rId122" location="AFRL_0000010"/>
-    <hyperlink ref="J127" r:id="rId123"/>
+    <hyperlink ref="J126" r:id="rId122"/>
+    <hyperlink ref="J127" r:id="rId123" location="AFRL_0000010"/>
     <hyperlink ref="J128" r:id="rId124"/>
     <hyperlink ref="J129" r:id="rId125"/>
     <hyperlink ref="J130" r:id="rId126"/>
@@ -6334,8 +6360,8 @@
     <hyperlink ref="J138" r:id="rId134"/>
     <hyperlink ref="J139" r:id="rId135"/>
     <hyperlink ref="J140" r:id="rId136"/>
-    <hyperlink ref="J141" r:id="rId137" location="wasUpdatedBy"/>
-    <hyperlink ref="J142" r:id="rId138"/>
+    <hyperlink ref="J141" r:id="rId137"/>
+    <hyperlink ref="J142" r:id="rId138" location="wasUpdatedBy"/>
     <hyperlink ref="J143" r:id="rId139"/>
     <hyperlink ref="J144" r:id="rId140"/>
     <hyperlink ref="J145" r:id="rId141"/>
@@ -6358,8 +6384,8 @@
     <hyperlink ref="J162" r:id="rId158"/>
     <hyperlink ref="J163" r:id="rId159"/>
     <hyperlink ref="J164" r:id="rId160"/>
-    <hyperlink ref="J165" r:id="rId161" location="wasUpdatedBy"/>
-    <hyperlink ref="J166" r:id="rId162"/>
+    <hyperlink ref="J165" r:id="rId161"/>
+    <hyperlink ref="J166" r:id="rId162" location="wasUpdatedBy"/>
     <hyperlink ref="J167" r:id="rId163"/>
     <hyperlink ref="J168" r:id="rId164"/>
     <hyperlink ref="J169" r:id="rId165"/>
@@ -6381,8 +6407,8 @@
     <hyperlink ref="J185" r:id="rId181"/>
     <hyperlink ref="J186" r:id="rId182"/>
     <hyperlink ref="J187" r:id="rId183"/>
-    <hyperlink ref="J188" r:id="rId184" location="wasUpdatedBy"/>
-    <hyperlink ref="J189" r:id="rId185"/>
+    <hyperlink ref="J188" r:id="rId184"/>
+    <hyperlink ref="J189" r:id="rId185" location="wasUpdatedBy"/>
     <hyperlink ref="J190" r:id="rId186"/>
     <hyperlink ref="J191" r:id="rId187"/>
     <hyperlink ref="J192" r:id="rId188"/>
@@ -6396,8 +6422,8 @@
     <hyperlink ref="J200" r:id="rId196"/>
     <hyperlink ref="J201" r:id="rId197"/>
     <hyperlink ref="J202" r:id="rId198"/>
-    <hyperlink ref="J203" r:id="rId199" location="wasUpdatedBy"/>
-    <hyperlink ref="J204" r:id="rId200"/>
+    <hyperlink ref="J203" r:id="rId199"/>
+    <hyperlink ref="J204" r:id="rId200" location="wasUpdatedBy"/>
     <hyperlink ref="J205" r:id="rId201"/>
     <hyperlink ref="J206" r:id="rId202"/>
     <hyperlink ref="J207" r:id="rId203"/>
@@ -6431,6 +6457,7 @@
     <hyperlink ref="J235" r:id="rId231"/>
     <hyperlink ref="J236" r:id="rId232"/>
     <hyperlink ref="J237" r:id="rId233"/>
+    <hyperlink ref="J238" r:id="rId234"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
